--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6927530-F95F-473D-8BEE-5715CF8294A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{733D7A0A-CCEF-4132-8C4A-75E4A8A2A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250912" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250912 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>Collector</t>
   </si>
@@ -67,37 +67,37 @@
     <t>S2</t>
   </si>
   <si>
-    <t>26,829,769.00</t>
+    <t>27,254,234.00</t>
   </si>
   <si>
     <t>298,616,905.00</t>
   </si>
   <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>10.22</t>
-  </si>
-  <si>
-    <t>6.31</t>
+    <t>9.13</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>6.80</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>29,360,699.00</t>
+    <t>29,651,438.00</t>
   </si>
   <si>
     <t>289,310,284.00</t>
   </si>
   <si>
-    <t>10.15</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>3.40</t>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>3.88</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
@@ -193,13 +193,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>25,771,978.00</t>
+    <t>25,871,978.00</t>
   </si>
   <si>
     <t>316,441,688.00</t>
   </si>
   <si>
-    <t>8.14</t>
+    <t>8.18</t>
   </si>
   <si>
     <t>6.29</t>
@@ -211,13 +211,13 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>12,642,658.00</t>
+    <t>12,751,870.00</t>
   </si>
   <si>
     <t>256,512,602.00</t>
   </si>
   <si>
-    <t>4.93</t>
+    <t>4.97</t>
   </si>
   <si>
     <t>4.23</t>
@@ -298,13 +298,13 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>21,236,325.00</t>
+    <t>23,024,995.00</t>
   </si>
   <si>
     <t>294,163,183.00</t>
   </si>
   <si>
-    <t>7.22</t>
+    <t>7.83</t>
   </si>
   <si>
     <t>3.57</t>
@@ -316,19 +316,19 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>25,398,500.00</t>
+    <t>25,770,483.00</t>
   </si>
   <si>
     <t>283,592,763.00</t>
   </si>
   <si>
-    <t>8.96</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>4.33</t>
+    <t>9.09</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>4.81</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -346,9 +346,6 @@
     <t>3.42</t>
   </si>
   <si>
-    <t>3.88</t>
-  </si>
-  <si>
     <t>Nuraini</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
   </si>
   <si>
     <t>3.30</t>
-  </si>
-  <si>
-    <t>2.36</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1268,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1280,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>11.808999999999999</v>
+        <v>11.909000000000001</v>
       </c>
       <c r="I2">
         <v>206</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1306,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1318,13 +1312,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>15.593</v>
+        <v>15.943</v>
       </c>
       <c r="I3">
         <v>206</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1356,7 +1350,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>8.5519999999999996</v>
+        <v>9.4160000000000004</v>
       </c>
       <c r="I4">
         <v>208</v>
@@ -1394,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>11.33</v>
+        <v>12.669</v>
       </c>
       <c r="I5">
         <v>177</v>
@@ -1432,7 +1426,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>11.04</v>
+        <v>11.419</v>
       </c>
       <c r="I6">
         <v>207</v>
@@ -1470,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>8.0980000000000008</v>
+        <v>8.3079999999999998</v>
       </c>
       <c r="I7">
         <v>208</v>
@@ -1508,7 +1502,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>15.64</v>
+        <v>16.113</v>
       </c>
       <c r="I8">
         <v>204</v>
@@ -1534,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1546,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>8.2520000000000007</v>
+        <v>8.5350000000000001</v>
       </c>
       <c r="I9">
         <v>209</v>
@@ -1572,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1584,7 +1578,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>8.11</v>
+        <v>8.4009999999999998</v>
       </c>
       <c r="I10">
         <v>144</v>
@@ -1622,7 +1616,7 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <v>9.6479999999999997</v>
+        <v>9.92</v>
       </c>
       <c r="I11">
         <v>205</v>
@@ -1660,7 +1654,7 @@
         <v>76</v>
       </c>
       <c r="H12">
-        <v>13.611000000000001</v>
+        <v>14.170999999999999</v>
       </c>
       <c r="I12">
         <v>210</v>
@@ -1698,7 +1692,7 @@
         <v>82</v>
       </c>
       <c r="H13">
-        <v>10.375</v>
+        <v>11.012</v>
       </c>
       <c r="I13">
         <v>205</v>
@@ -1736,7 +1730,7 @@
         <v>88</v>
       </c>
       <c r="H14">
-        <v>7.601</v>
+        <v>7.7539999999999996</v>
       </c>
       <c r="I14">
         <v>206</v>
@@ -1762,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
@@ -1774,7 +1768,7 @@
         <v>94</v>
       </c>
       <c r="H15">
-        <v>5.99</v>
+        <v>6.1929999999999996</v>
       </c>
       <c r="I15">
         <v>207</v>
@@ -1800,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
@@ -1812,13 +1806,13 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>6.5060000000000002</v>
+        <v>6.6879999999999997</v>
       </c>
       <c r="I16">
         <v>208</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
         <v>101</v>
@@ -1850,7 +1844,7 @@
         <v>106</v>
       </c>
       <c r="H17">
-        <v>15.246</v>
+        <v>15.404999999999999</v>
       </c>
       <c r="I17">
         <v>206</v>
@@ -1862,12 +1856,12 @@
         <v>107</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1879,16 +1873,16 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
       <c r="H18">
-        <v>5.08</v>
+        <v>5.2220000000000004</v>
       </c>
       <c r="I18">
         <v>127</v>
@@ -1897,15 +1891,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1917,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{733D7A0A-CCEF-4132-8C4A-75E4A8A2A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BFA34BD-3ED2-439D-A267-81E16FB2177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250912 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250912 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -103,13 +103,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>20,702,034.00</t>
+    <t>21,301,624.00</t>
   </si>
   <si>
     <t>306,922,463.00</t>
   </si>
   <si>
-    <t>6.75</t>
+    <t>6.94</t>
   </si>
   <si>
     <t>5.97</t>
@@ -139,13 +139,13 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>20,908,122.00</t>
+    <t>22,072,846.00</t>
   </si>
   <si>
     <t>282,784,501.00</t>
   </si>
   <si>
-    <t>7.39</t>
+    <t>7.81</t>
   </si>
   <si>
     <t>2.24</t>
@@ -211,16 +211,16 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>12,751,870.00</t>
+    <t>14,675,271.00</t>
   </si>
   <si>
     <t>256,512,602.00</t>
   </si>
   <si>
-    <t>4.97</t>
-  </si>
-  <si>
-    <t>4.23</t>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>4.31</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>11.909000000000001</v>
+        <v>12.07</v>
       </c>
       <c r="I2">
         <v>206</v>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>15.943</v>
+        <v>16.027000000000001</v>
       </c>
       <c r="I3">
         <v>206</v>
@@ -1338,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1350,7 +1350,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>9.4160000000000004</v>
+        <v>9.7050000000000001</v>
       </c>
       <c r="I4">
         <v>208</v>
@@ -1388,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>12.669</v>
+        <v>15.542</v>
       </c>
       <c r="I5">
         <v>177</v>
@@ -1414,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1426,7 +1426,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>11.419</v>
+        <v>11.481</v>
       </c>
       <c r="I6">
         <v>207</v>
@@ -1502,7 +1502,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>16.113</v>
+        <v>16.504999999999999</v>
       </c>
       <c r="I8">
         <v>204</v>
@@ -1540,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>8.5350000000000001</v>
+        <v>8.673</v>
       </c>
       <c r="I9">
         <v>209</v>
@@ -1566,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1578,7 +1578,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>8.4009999999999998</v>
+        <v>8.4689999999999994</v>
       </c>
       <c r="I10">
         <v>144</v>
@@ -1616,7 +1616,7 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <v>9.92</v>
+        <v>10.592000000000001</v>
       </c>
       <c r="I11">
         <v>205</v>
@@ -1654,7 +1654,7 @@
         <v>76</v>
       </c>
       <c r="H12">
-        <v>14.170999999999999</v>
+        <v>14.215</v>
       </c>
       <c r="I12">
         <v>210</v>
@@ -1692,7 +1692,7 @@
         <v>82</v>
       </c>
       <c r="H13">
-        <v>11.012</v>
+        <v>11.659000000000001</v>
       </c>
       <c r="I13">
         <v>205</v>
@@ -1730,7 +1730,7 @@
         <v>88</v>
       </c>
       <c r="H14">
-        <v>7.7539999999999996</v>
+        <v>7.7939999999999996</v>
       </c>
       <c r="I14">
         <v>206</v>
@@ -1768,7 +1768,7 @@
         <v>94</v>
       </c>
       <c r="H15">
-        <v>6.1929999999999996</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="I15">
         <v>207</v>
@@ -1806,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>6.6879999999999997</v>
+        <v>6.9619999999999997</v>
       </c>
       <c r="I16">
         <v>208</v>
@@ -1844,7 +1844,7 @@
         <v>106</v>
       </c>
       <c r="H17">
-        <v>15.404999999999999</v>
+        <v>16.321000000000002</v>
       </c>
       <c r="I17">
         <v>206</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BFA34BD-3ED2-439D-A267-81E16FB2177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1BBA685-01FE-4D9B-BA36-C08BB74BF1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250912 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250912 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Collector</t>
   </si>
@@ -121,15 +121,12 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>14,596,550.00</t>
+    <t>16,534,223.00</t>
   </si>
   <si>
     <t>277,057,148.00</t>
   </si>
   <si>
-    <t>5.27</t>
-  </si>
-  <si>
     <t>1.46</t>
   </si>
   <si>
@@ -262,13 +259,13 @@
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>22,770,369.00</t>
+    <t>23,465,251.00</t>
   </si>
   <si>
     <t>305,083,637.00</t>
   </si>
   <si>
-    <t>7.46</t>
+    <t>7.69</t>
   </si>
   <si>
     <t>4.34</t>
@@ -1274,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>12.07</v>
+        <v>12.566000000000001</v>
       </c>
       <c r="I2">
         <v>206</v>
@@ -1312,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>16.027000000000001</v>
+        <v>17.14</v>
       </c>
       <c r="I3">
         <v>206</v>
@@ -1350,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>9.7050000000000001</v>
+        <v>9.89</v>
       </c>
       <c r="I4">
         <v>208</v>
@@ -1376,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1385,10 +1382,10 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>15.542</v>
+        <v>16.088000000000001</v>
       </c>
       <c r="I5">
         <v>177</v>
@@ -1397,15 +1394,15 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1417,16 +1414,16 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6">
-        <v>11.481</v>
+        <v>12.077</v>
       </c>
       <c r="I6">
         <v>207</v>
@@ -1435,15 +1432,15 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1455,16 +1452,16 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
       <c r="H7">
-        <v>8.3079999999999998</v>
+        <v>8.3460000000000001</v>
       </c>
       <c r="I7">
         <v>208</v>
@@ -1473,15 +1470,15 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1493,16 +1490,16 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8">
-        <v>16.504999999999999</v>
+        <v>17.161999999999999</v>
       </c>
       <c r="I8">
         <v>204</v>
@@ -1511,15 +1508,15 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1531,16 +1528,16 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9">
-        <v>8.673</v>
+        <v>8.8659999999999997</v>
       </c>
       <c r="I9">
         <v>209</v>
@@ -1549,15 +1546,15 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1569,16 +1566,16 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
       <c r="H10">
-        <v>8.4689999999999994</v>
+        <v>9.1370000000000005</v>
       </c>
       <c r="I10">
         <v>144</v>
@@ -1587,15 +1584,15 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1607,16 +1604,16 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
       <c r="H11">
-        <v>10.592000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="I11">
         <v>205</v>
@@ -1625,15 +1622,15 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1645,16 +1642,16 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
       <c r="H12">
-        <v>14.215</v>
+        <v>14.705</v>
       </c>
       <c r="I12">
         <v>210</v>
@@ -1663,15 +1660,15 @@
         <v>16</v>
       </c>
       <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1680,19 +1677,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
       <c r="H13">
-        <v>11.659000000000001</v>
+        <v>11.930999999999999</v>
       </c>
       <c r="I13">
         <v>205</v>
@@ -1701,15 +1698,15 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1721,16 +1718,16 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>87</v>
       </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
       <c r="H14">
-        <v>7.7939999999999996</v>
+        <v>8.1579999999999995</v>
       </c>
       <c r="I14">
         <v>206</v>
@@ -1739,15 +1736,15 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1759,16 +1756,16 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>93</v>
       </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
       <c r="H15">
-        <v>6.2089999999999996</v>
+        <v>6.984</v>
       </c>
       <c r="I15">
         <v>207</v>
@@ -1777,15 +1774,15 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
         <v>95</v>
-      </c>
-      <c r="L15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1797,16 +1794,16 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
       <c r="H16">
-        <v>6.9619999999999997</v>
+        <v>7.2949999999999999</v>
       </c>
       <c r="I16">
         <v>208</v>
@@ -1815,15 +1812,15 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1835,16 +1832,16 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
       <c r="H17">
-        <v>16.321000000000002</v>
+        <v>16.492999999999999</v>
       </c>
       <c r="I17">
         <v>206</v>
@@ -1853,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -1861,7 +1858,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1873,16 +1870,16 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>110</v>
       </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
       <c r="H18">
-        <v>5.2220000000000004</v>
+        <v>5.8010000000000002</v>
       </c>
       <c r="I18">
         <v>127</v>
@@ -1891,15 +1888,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1911,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1BBA685-01FE-4D9B-BA36-C08BB74BF1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85BD1636-EED7-4991-8814-C8A61C205B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250912 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250913" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Collector</t>
   </si>
@@ -70,16 +70,16 @@
     <t>27,254,234.00</t>
   </si>
   <si>
-    <t>298,616,905.00</t>
-  </si>
-  <si>
-    <t>9.13</t>
-  </si>
-  <si>
-    <t>10.30</t>
-  </si>
-  <si>
-    <t>6.80</t>
+    <t>310,256,930.00</t>
+  </si>
+  <si>
+    <t>8.78</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>6.33</t>
   </si>
   <si>
     <t>Romli</t>
@@ -88,274 +88,283 @@
     <t>29,651,438.00</t>
   </si>
   <si>
-    <t>289,310,284.00</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
-    <t>3.88</t>
+    <t>301,221,374.00</t>
+  </si>
+  <si>
+    <t>9.84</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>3.62</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>21,301,624.00</t>
-  </si>
-  <si>
-    <t>306,922,463.00</t>
-  </si>
-  <si>
-    <t>6.94</t>
-  </si>
-  <si>
-    <t>5.97</t>
-  </si>
-  <si>
-    <t>7.21</t>
+    <t>21,496,624.00</t>
+  </si>
+  <si>
+    <t>321,406,416.00</t>
+  </si>
+  <si>
+    <t>6.69</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>6.73</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>16,534,223.00</t>
-  </si>
-  <si>
-    <t>277,057,148.00</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>2.26</t>
+    <t>18,899,404.00</t>
+  </si>
+  <si>
+    <t>288,600,229.00</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>2.60</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>22,072,846.00</t>
-  </si>
-  <si>
-    <t>282,784,501.00</t>
-  </si>
-  <si>
-    <t>7.81</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>1.93</t>
+    <t>22,779,195.00</t>
+  </si>
+  <si>
+    <t>295,439,273.00</t>
+  </si>
+  <si>
+    <t>7.71</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.25</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>23,797,640.00</t>
-  </si>
-  <si>
-    <t>314,648,098.00</t>
+    <t>23,997,640.00</t>
+  </si>
+  <si>
+    <t>327,813,588.00</t>
+  </si>
+  <si>
+    <t>7.32</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>23,340,499.00</t>
+  </si>
+  <si>
+    <t>315,661,470.00</t>
+  </si>
+  <si>
+    <t>7.39</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>26,036,206.00</t>
+  </si>
+  <si>
+    <t>330,492,590.00</t>
+  </si>
+  <si>
+    <t>7.88</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>15,497,789.00</t>
+  </si>
+  <si>
+    <t>266,663,871.00</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>35,185,688.00</t>
+  </si>
+  <si>
+    <t>303,034,636.00</t>
+  </si>
+  <si>
+    <t>11.61</t>
+  </si>
+  <si>
+    <t>9.65</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>21,234,397.00</t>
+  </si>
+  <si>
+    <t>289,830,213.00</t>
+  </si>
+  <si>
+    <t>7.33</t>
+  </si>
+  <si>
+    <t>6.89</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>23,465,251.00</t>
+  </si>
+  <si>
+    <t>318,210,186.00</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>22,018,342.00</t>
+  </si>
+  <si>
+    <t>295,120,989.00</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>23,116,995.00</t>
+  </si>
+  <si>
+    <t>305,583,529.00</t>
   </si>
   <si>
     <t>7.56</t>
   </si>
   <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>5.77</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>19,543,744.00</t>
-  </si>
-  <si>
-    <t>305,886,488.00</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>4.17</t>
-  </si>
-  <si>
-    <t>5.39</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>25,871,978.00</t>
-  </si>
-  <si>
-    <t>316,441,688.00</t>
-  </si>
-  <si>
-    <t>8.18</t>
-  </si>
-  <si>
-    <t>6.29</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>14,675,271.00</t>
-  </si>
-  <si>
-    <t>256,512,602.00</t>
-  </si>
-  <si>
-    <t>5.72</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>32,044,876.00</t>
-  </si>
-  <si>
-    <t>292,794,213.00</t>
-  </si>
-  <si>
-    <t>10.94</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>21,234,397.00</t>
-  </si>
-  <si>
-    <t>278,310,791.00</t>
-  </si>
-  <si>
-    <t>7.63</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>7.62</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>23,465,251.00</t>
-  </si>
-  <si>
-    <t>305,083,637.00</t>
-  </si>
-  <si>
-    <t>7.69</t>
-  </si>
-  <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>21,705,992.00</t>
-  </si>
-  <si>
-    <t>285,252,588.00</t>
-  </si>
-  <si>
-    <t>7.61</t>
-  </si>
-  <si>
-    <t>6.23</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>23,024,995.00</t>
-  </si>
-  <si>
-    <t>294,163,183.00</t>
-  </si>
-  <si>
-    <t>7.83</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>3.86</t>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>4.05</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>25,770,483.00</t>
-  </si>
-  <si>
-    <t>283,592,763.00</t>
+    <t>26,788,661.00</t>
+  </si>
+  <si>
+    <t>294,729,567.00</t>
   </si>
   <si>
     <t>9.09</t>
   </si>
   <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>4.81</t>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>4.48</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>25,363,386.00</t>
-  </si>
-  <si>
-    <t>288,264,197.00</t>
-  </si>
-  <si>
-    <t>8.80</t>
-  </si>
-  <si>
-    <t>3.42</t>
+    <t>26,703,105.00</t>
+  </si>
+  <si>
+    <t>297,343,499.00</t>
+  </si>
+  <si>
+    <t>8.98</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>4.07</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>20,043,254.00</t>
-  </si>
-  <si>
-    <t>252,778,725.00</t>
-  </si>
-  <si>
-    <t>7.93</t>
-  </si>
-  <si>
-    <t>3.30</t>
+    <t>20,722,021.00</t>
+  </si>
+  <si>
+    <t>259,888,244.00</t>
+  </si>
+  <si>
+    <t>7.97</t>
+  </si>
+  <si>
+    <t>3.10</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1259,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1271,10 +1280,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>12.566000000000001</v>
+        <v>12.824999999999999</v>
       </c>
       <c r="I2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="J2">
         <v>14</v>
@@ -1309,10 +1318,10 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>17.14</v>
+        <v>17.515000000000001</v>
       </c>
       <c r="I3">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -1335,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1347,10 +1356,10 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>9.89</v>
+        <v>10.045999999999999</v>
       </c>
       <c r="I4">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="J4">
         <v>15</v>
@@ -1373,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1382,27 +1391,27 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>16.088000000000001</v>
+        <v>16.561</v>
       </c>
       <c r="I5">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1411,36 +1420,36 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>12.077</v>
+        <v>12.484</v>
       </c>
       <c r="I6">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1452,33 +1461,33 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>8.3460000000000001</v>
+        <v>8.8420000000000005</v>
       </c>
       <c r="I7">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="J7">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1487,36 +1496,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>17.161999999999999</v>
+        <v>17.792000000000002</v>
       </c>
       <c r="I8">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="J8">
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1525,36 +1534,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>8.8659999999999997</v>
+        <v>9.4160000000000004</v>
       </c>
       <c r="I9">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1563,36 +1572,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>9.1370000000000005</v>
+        <v>9.8849999999999998</v>
       </c>
       <c r="I10">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1601,36 +1610,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11">
-        <v>10.8</v>
+        <v>10.946</v>
       </c>
       <c r="I11">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1642,33 +1651,33 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>14.705</v>
+        <v>14.9</v>
       </c>
       <c r="I12">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="J12">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1677,36 +1686,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>11.930999999999999</v>
+        <v>12.432</v>
       </c>
       <c r="I13">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1715,36 +1724,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>8.1579999999999995</v>
+        <v>8.4390000000000001</v>
       </c>
       <c r="I14">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1753,36 +1762,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>6.984</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="I15">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1791,36 +1800,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16">
-        <v>7.2949999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="I16">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1829,36 +1838,36 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H17">
-        <v>16.492999999999999</v>
+        <v>16.643999999999998</v>
       </c>
       <c r="I17">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1867,36 +1876,36 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H18">
-        <v>5.8010000000000002</v>
+        <v>6.4459999999999997</v>
       </c>
       <c r="I18">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1908,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85BD1636-EED7-4991-8814-C8A61C205B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26251A7B-EDB2-463E-843C-FE493604314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250913" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250913 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -103,13 +103,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>21,496,624.00</t>
+    <t>22,368,848.00</t>
   </si>
   <si>
     <t>321,406,416.00</t>
   </si>
   <si>
-    <t>6.69</t>
+    <t>6.96</t>
   </si>
   <si>
     <t>5.56</t>
@@ -121,13 +121,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>18,899,404.00</t>
+    <t>19,383,971.00</t>
   </si>
   <si>
     <t>288,600,229.00</t>
   </si>
   <si>
-    <t>6.55</t>
+    <t>6.72</t>
   </si>
   <si>
     <t>1.98</t>
@@ -139,16 +139,16 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>22,779,195.00</t>
+    <t>23,376,491.00</t>
   </si>
   <si>
     <t>295,439,273.00</t>
   </si>
   <si>
-    <t>7.71</t>
-  </si>
-  <si>
-    <t>2.30</t>
+    <t>7.91</t>
+  </si>
+  <si>
+    <t>2.46</t>
   </si>
   <si>
     <t>2.25</t>
@@ -157,16 +157,16 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>23,997,640.00</t>
+    <t>25,303,923.00</t>
   </si>
   <si>
     <t>327,813,588.00</t>
   </si>
   <si>
-    <t>7.32</t>
-  </si>
-  <si>
-    <t>4.65</t>
+    <t>7.72</t>
+  </si>
+  <si>
+    <t>4.75</t>
   </si>
   <si>
     <t>5.36</t>
@@ -175,13 +175,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>23,340,499.00</t>
+    <t>25,026,192.00</t>
   </si>
   <si>
     <t>315,661,470.00</t>
   </si>
   <si>
-    <t>7.39</t>
+    <t>7.93</t>
   </si>
   <si>
     <t>3.95</t>
@@ -247,13 +247,13 @@
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>21,234,397.00</t>
+    <t>21,884,697.00</t>
   </si>
   <si>
     <t>289,830,213.00</t>
   </si>
   <si>
-    <t>7.33</t>
+    <t>7.55</t>
   </si>
   <si>
     <t>6.89</t>
@@ -283,13 +283,13 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>22,018,342.00</t>
+    <t>22,031,000.00</t>
   </si>
   <si>
     <t>295,120,989.00</t>
   </si>
   <si>
-    <t>7.46</t>
+    <t>7.47</t>
   </si>
   <si>
     <t>5.90</t>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>12.824999999999999</v>
+        <v>12.882999999999999</v>
       </c>
       <c r="I2">
         <v>221</v>
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>17.515000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I3">
         <v>221</v>
@@ -1344,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1356,7 +1356,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>10.045999999999999</v>
+        <v>10.321999999999999</v>
       </c>
       <c r="I4">
         <v>223</v>
@@ -1382,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>16.561</v>
+        <v>16.619</v>
       </c>
       <c r="I5">
         <v>192</v>
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1432,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>12.484</v>
+        <v>12.503</v>
       </c>
       <c r="I6">
         <v>222</v>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1470,7 +1470,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>8.8420000000000005</v>
+        <v>8.9039999999999999</v>
       </c>
       <c r="I7">
         <v>224</v>
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1508,7 +1508,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>17.792000000000002</v>
+        <v>18.327000000000002</v>
       </c>
       <c r="I8">
         <v>219</v>
@@ -1546,7 +1546,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>9.4160000000000004</v>
+        <v>9.8710000000000004</v>
       </c>
       <c r="I9">
         <v>224</v>
@@ -1622,7 +1622,7 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>10.946</v>
+        <v>11.057</v>
       </c>
       <c r="I11">
         <v>220</v>
@@ -1648,7 +1648,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1660,7 +1660,7 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>14.9</v>
+        <v>14.941000000000001</v>
       </c>
       <c r="I12">
         <v>225</v>
@@ -1698,7 +1698,7 @@
         <v>83</v>
       </c>
       <c r="H13">
-        <v>12.432</v>
+        <v>12.661</v>
       </c>
       <c r="I13">
         <v>220</v>
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1736,7 +1736,7 @@
         <v>89</v>
       </c>
       <c r="H14">
-        <v>8.4390000000000001</v>
+        <v>8.6359999999999992</v>
       </c>
       <c r="I14">
         <v>221</v>
@@ -1774,7 +1774,7 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>7.3390000000000004</v>
+        <v>7.4550000000000001</v>
       </c>
       <c r="I15">
         <v>222</v>
@@ -1812,7 +1812,7 @@
         <v>101</v>
       </c>
       <c r="H16">
-        <v>7.69</v>
+        <v>7.7309999999999999</v>
       </c>
       <c r="I16">
         <v>223</v>
@@ -1850,7 +1850,7 @@
         <v>107</v>
       </c>
       <c r="H17">
-        <v>16.643999999999998</v>
+        <v>16.721</v>
       </c>
       <c r="I17">
         <v>221</v>
@@ -1888,7 +1888,7 @@
         <v>113</v>
       </c>
       <c r="H18">
-        <v>6.4459999999999997</v>
+        <v>6.5049999999999999</v>
       </c>
       <c r="I18">
         <v>136</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F085E121-2B70-4EBD-BE4C-921F2F29E5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46DE1E48-5412-4F03-BAFF-77FB2AD232C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250913 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250915" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>27,254,234.00</t>
+    <t>28,847,944.00</t>
   </si>
   <si>
     <t>310,256,930.00</t>
   </si>
   <si>
-    <t>8.78</t>
+    <t>9.30</t>
   </si>
   <si>
     <t>9.67</t>
@@ -85,13 +85,13 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>29,651,438.00</t>
+    <t>30,310,558.00</t>
   </si>
   <si>
     <t>301,221,374.00</t>
   </si>
   <si>
-    <t>9.84</t>
+    <t>10.06</t>
   </si>
   <si>
     <t>2.87</t>
@@ -103,13 +103,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>22,368,848.00</t>
+    <t>22,568,848.00</t>
   </si>
   <si>
     <t>321,406,416.00</t>
   </si>
   <si>
-    <t>6.96</t>
+    <t>7.02</t>
   </si>
   <si>
     <t>5.95</t>
@@ -121,250 +121,247 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>20,366,286.00</t>
+    <t>21,828,477.00</t>
   </si>
   <si>
     <t>288,600,229.00</t>
   </si>
   <si>
-    <t>7.06</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.60</t>
+    <t>7.56</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>3.12</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>23,376,491.00</t>
+    <t>24,744,998.00</t>
   </si>
   <si>
     <t>295,439,273.00</t>
   </si>
   <si>
-    <t>7.91</t>
-  </si>
-  <si>
-    <t>2.71</t>
+    <t>8.38</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>26,441,061.00</t>
+  </si>
+  <si>
+    <t>327,813,588.00</t>
+  </si>
+  <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>25,620,519.00</t>
+  </si>
+  <si>
+    <t>315,661,470.00</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>26,036,206.00</t>
+  </si>
+  <si>
+    <t>330,492,590.00</t>
+  </si>
+  <si>
+    <t>7.88</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>15,497,789.00</t>
+  </si>
+  <si>
+    <t>266,663,871.00</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>35,896,272.00</t>
+  </si>
+  <si>
+    <t>303,034,636.00</t>
+  </si>
+  <si>
+    <t>11.85</t>
+  </si>
+  <si>
+    <t>9.65</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>22,300,225.00</t>
+  </si>
+  <si>
+    <t>289,830,213.00</t>
+  </si>
+  <si>
+    <t>7.69</t>
+  </si>
+  <si>
+    <t>6.97</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>24,159,479.00</t>
+  </si>
+  <si>
+    <t>318,210,186.00</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>24,773,925.00</t>
+  </si>
+  <si>
+    <t>295,120,989.00</t>
+  </si>
+  <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>23,705,259.00</t>
+  </si>
+  <si>
+    <t>305,583,529.00</t>
+  </si>
+  <si>
+    <t>7.76</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>29,235,548.00</t>
+  </si>
+  <si>
+    <t>294,729,567.00</t>
+  </si>
+  <si>
+    <t>9.92</t>
   </si>
   <si>
     <t>2.70</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>25,303,923.00</t>
-  </si>
-  <si>
-    <t>327,813,588.00</t>
-  </si>
-  <si>
-    <t>7.72</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>5.36</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>25,026,192.00</t>
-  </si>
-  <si>
-    <t>315,661,470.00</t>
-  </si>
-  <si>
-    <t>7.93</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>5.02</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>26,036,206.00</t>
-  </si>
-  <si>
-    <t>330,492,590.00</t>
-  </si>
-  <si>
-    <t>7.88</t>
-  </si>
-  <si>
-    <t>5.94</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>15,497,789.00</t>
-  </si>
-  <si>
-    <t>266,663,871.00</t>
-  </si>
-  <si>
-    <t>5.81</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>35,185,688.00</t>
-  </si>
-  <si>
-    <t>303,034,636.00</t>
-  </si>
-  <si>
-    <t>11.61</t>
-  </si>
-  <si>
-    <t>9.65</t>
-  </si>
-  <si>
-    <t>7.73</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>21,884,697.00</t>
-  </si>
-  <si>
-    <t>289,830,213.00</t>
-  </si>
-  <si>
-    <t>7.55</t>
-  </si>
-  <si>
-    <t>6.89</t>
-  </si>
-  <si>
-    <t>7.11</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>23,465,251.00</t>
-  </si>
-  <si>
-    <t>318,210,186.00</t>
-  </si>
-  <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>4.09</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>22,111,000.00</t>
-  </si>
-  <si>
-    <t>295,120,989.00</t>
-  </si>
-  <si>
-    <t>7.49</t>
-  </si>
-  <si>
-    <t>5.91</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>23,116,995.00</t>
-  </si>
-  <si>
-    <t>305,583,529.00</t>
-  </si>
-  <si>
-    <t>7.56</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>27,680,080.00</t>
-  </si>
-  <si>
-    <t>294,729,567.00</t>
-  </si>
-  <si>
-    <t>9.39</t>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>29,957,114.00</t>
+  </si>
+  <si>
+    <t>297,343,499.00</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>22,127,315.00</t>
+  </si>
+  <si>
+    <t>259,888,244.00</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>3.10</t>
   </si>
   <si>
     <t>2.21</t>
-  </si>
-  <si>
-    <t>4.48</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>26,703,105.00</t>
-  </si>
-  <si>
-    <t>297,343,499.00</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>20,722,021.00</t>
-  </si>
-  <si>
-    <t>259,888,244.00</t>
-  </si>
-  <si>
-    <t>7.97</t>
-  </si>
-  <si>
-    <t>3.10</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1268,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1280,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>13.298999999999999</v>
+        <v>13.673</v>
       </c>
       <c r="I2">
         <v>221</v>
@@ -1306,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1318,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>17.971</v>
+        <v>18.373000000000001</v>
       </c>
       <c r="I3">
         <v>221</v>
@@ -1356,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>10.41</v>
+        <v>10.718</v>
       </c>
       <c r="I4">
         <v>223</v>
@@ -1382,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1394,13 +1391,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>16.734000000000002</v>
+        <v>19.062000000000001</v>
       </c>
       <c r="I5">
         <v>192</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1420,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1432,13 +1429,13 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>12.69</v>
+        <v>13.115</v>
       </c>
       <c r="I6">
         <v>222</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -1458,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1470,7 +1467,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>9.1359999999999992</v>
+        <v>9.641</v>
       </c>
       <c r="I7">
         <v>224</v>
@@ -1496,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1508,7 +1505,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>18.573</v>
+        <v>19.045999999999999</v>
       </c>
       <c r="I8">
         <v>219</v>
@@ -1546,7 +1543,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>10.228</v>
+        <v>10.641</v>
       </c>
       <c r="I9">
         <v>224</v>
@@ -1558,12 +1555,12 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1575,13 +1572,13 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
       </c>
       <c r="H10">
         <v>9.8849999999999998</v>
@@ -1593,15 +1590,15 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1610,19 +1607,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
       <c r="H11">
-        <v>11.223000000000001</v>
+        <v>11.305999999999999</v>
       </c>
       <c r="I11">
         <v>220</v>
@@ -1631,15 +1628,15 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1648,36 +1645,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
       <c r="H12">
-        <v>15.003</v>
+        <v>15.098000000000001</v>
       </c>
       <c r="I12">
         <v>225</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1686,19 +1683,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
       <c r="H13">
-        <v>13.180999999999999</v>
+        <v>13.773</v>
       </c>
       <c r="I13">
         <v>220</v>
@@ -1707,15 +1704,15 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1724,16 +1721,16 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
       </c>
       <c r="H14">
         <v>8.7870000000000008</v>
@@ -1742,18 +1739,18 @@
         <v>221</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1762,19 +1759,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
       <c r="H15">
-        <v>7.7770000000000001</v>
+        <v>8.0809999999999995</v>
       </c>
       <c r="I15">
         <v>222</v>
@@ -1783,15 +1780,15 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1800,19 +1797,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="F16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
-      </c>
       <c r="H16">
-        <v>8.0190000000000001</v>
+        <v>8.3089999999999993</v>
       </c>
       <c r="I16">
         <v>223</v>
@@ -1821,15 +1818,15 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1838,19 +1835,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
       <c r="H17">
-        <v>17.106999999999999</v>
+        <v>17.655000000000001</v>
       </c>
       <c r="I17">
         <v>221</v>
@@ -1859,15 +1856,15 @@
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1876,19 +1873,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
       <c r="H18">
-        <v>6.8010000000000002</v>
+        <v>7.01</v>
       </c>
       <c r="I18">
         <v>136</v>
@@ -1897,15 +1894,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1917,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46DE1E48-5412-4F03-BAFF-77FB2AD232C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35C6D8F-8320-430C-A084-A0A36D9D71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250915" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250915 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>Collector</t>
   </si>
@@ -67,301 +67,298 @@
     <t>S2</t>
   </si>
   <si>
-    <t>28,847,944.00</t>
-  </si>
-  <si>
-    <t>310,256,930.00</t>
+    <t>29,602,130.00</t>
+  </si>
+  <si>
+    <t>332,666,040.00</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>30,310,558.00</t>
+  </si>
+  <si>
+    <t>325,976,616.00</t>
   </si>
   <si>
     <t>9.30</t>
   </si>
   <si>
-    <t>9.67</t>
-  </si>
-  <si>
-    <t>6.33</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>30,310,558.00</t>
-  </si>
-  <si>
-    <t>301,221,374.00</t>
-  </si>
-  <si>
-    <t>10.06</t>
-  </si>
-  <si>
-    <t>2.87</t>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>22,568,848.00</t>
+  </si>
+  <si>
+    <t>344,627,951.00</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>6.32</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>21,828,477.00</t>
+  </si>
+  <si>
+    <t>307,121,314.00</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>24,744,998.00</t>
+  </si>
+  <si>
+    <t>316,238,350.00</t>
+  </si>
+  <si>
+    <t>7.82</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>26,441,061.00</t>
+  </si>
+  <si>
+    <t>347,149,837.00</t>
+  </si>
+  <si>
+    <t>7.62</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>25,620,519.00</t>
+  </si>
+  <si>
+    <t>334,624,168.00</t>
+  </si>
+  <si>
+    <t>7.66</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>26,036,206.00</t>
+  </si>
+  <si>
+    <t>356,015,842.00</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>15,497,789.00</t>
+  </si>
+  <si>
+    <t>287,278,647.00</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>35,896,272.00</t>
+  </si>
+  <si>
+    <t>327,671,563.00</t>
+  </si>
+  <si>
+    <t>10.95</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>22,300,225.00</t>
+  </si>
+  <si>
+    <t>315,752,427.00</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>24,159,479.00</t>
+  </si>
+  <si>
+    <t>339,780,179.00</t>
   </si>
   <si>
     <t>3.62</t>
   </si>
   <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>22,568,848.00</t>
-  </si>
-  <si>
-    <t>321,406,416.00</t>
-  </si>
-  <si>
-    <t>7.02</t>
-  </si>
-  <si>
-    <t>5.95</t>
-  </si>
-  <si>
-    <t>7.17</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>21,828,477.00</t>
-  </si>
-  <si>
-    <t>288,600,229.00</t>
-  </si>
-  <si>
-    <t>7.56</t>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>25,023,925.00</t>
+  </si>
+  <si>
+    <t>324,168,619.00</t>
+  </si>
+  <si>
+    <t>7.72</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>23,705,259.00</t>
+  </si>
+  <si>
+    <t>331,674,751.00</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>29,235,548.00</t>
+  </si>
+  <si>
+    <t>317,215,129.00</t>
+  </si>
+  <si>
+    <t>9.22</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>29,957,114.00</t>
+  </si>
+  <si>
+    <t>319,800,812.00</t>
+  </si>
+  <si>
+    <t>9.37</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>22,127,315.00</t>
+  </si>
+  <si>
+    <t>271,676,597.00</t>
+  </si>
+  <si>
+    <t>8.14</t>
   </si>
   <si>
     <t>2.83</t>
   </si>
   <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>24,744,998.00</t>
-  </si>
-  <si>
-    <t>295,439,273.00</t>
-  </si>
-  <si>
-    <t>8.38</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>26,441,061.00</t>
-  </si>
-  <si>
-    <t>327,813,588.00</t>
-  </si>
-  <si>
-    <t>8.07</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>5.36</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>25,620,519.00</t>
-  </si>
-  <si>
-    <t>315,661,470.00</t>
-  </si>
-  <si>
-    <t>8.12</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>5.02</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>26,036,206.00</t>
-  </si>
-  <si>
-    <t>330,492,590.00</t>
-  </si>
-  <si>
-    <t>7.88</t>
-  </si>
-  <si>
-    <t>5.94</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>15,497,789.00</t>
-  </si>
-  <si>
-    <t>266,663,871.00</t>
-  </si>
-  <si>
-    <t>5.81</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>35,896,272.00</t>
-  </si>
-  <si>
-    <t>303,034,636.00</t>
-  </si>
-  <si>
-    <t>11.85</t>
-  </si>
-  <si>
-    <t>9.65</t>
-  </si>
-  <si>
-    <t>7.73</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>22,300,225.00</t>
-  </si>
-  <si>
-    <t>289,830,213.00</t>
-  </si>
-  <si>
-    <t>7.69</t>
-  </si>
-  <si>
-    <t>6.97</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>24,159,479.00</t>
-  </si>
-  <si>
-    <t>318,210,186.00</t>
-  </si>
-  <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>4.09</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>24,773,925.00</t>
-  </si>
-  <si>
-    <t>295,120,989.00</t>
-  </si>
-  <si>
-    <t>8.39</t>
-  </si>
-  <si>
-    <t>6.15</t>
-  </si>
-  <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>23,705,259.00</t>
-  </si>
-  <si>
-    <t>305,583,529.00</t>
-  </si>
-  <si>
-    <t>7.76</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>29,235,548.00</t>
-  </si>
-  <si>
-    <t>294,729,567.00</t>
-  </si>
-  <si>
-    <t>9.92</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>4.48</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>29,957,114.00</t>
-  </si>
-  <si>
-    <t>297,343,499.00</t>
-  </si>
-  <si>
-    <t>10.07</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>22,127,315.00</t>
-  </si>
-  <si>
-    <t>259,888,244.00</t>
-  </si>
-  <si>
-    <t>8.51</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>2.21</t>
+    <t>1.94</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1265,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1277,24 +1274,24 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>13.673</v>
+        <v>13.885</v>
       </c>
       <c r="I2">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1306,33 +1303,33 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
       <c r="H3">
-        <v>18.373000000000001</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="I3">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="J3">
         <v>8</v>
       </c>
       <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1344,33 +1341,33 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4">
-        <v>10.718</v>
+        <v>10.73</v>
       </c>
       <c r="I4">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J4">
         <v>16</v>
       </c>
       <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
         <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1382,33 +1379,33 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
       <c r="H5">
-        <v>19.062000000000001</v>
+        <v>19.306999999999999</v>
       </c>
       <c r="I5">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1420,33 +1417,33 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6">
-        <v>13.115</v>
+        <v>13.500999999999999</v>
       </c>
       <c r="I6">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1458,33 +1455,33 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
       <c r="H7">
-        <v>9.641</v>
+        <v>9.9779999999999998</v>
       </c>
       <c r="I7">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="J7">
         <v>12</v>
       </c>
       <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1496,33 +1493,33 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8">
-        <v>19.045999999999999</v>
+        <v>19.701000000000001</v>
       </c>
       <c r="I8">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J8">
         <v>11</v>
       </c>
       <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1534,28 +1531,28 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9">
-        <v>10.641</v>
+        <v>10.808999999999999</v>
       </c>
       <c r="I9">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1581,10 +1578,10 @@
         <v>64</v>
       </c>
       <c r="H10">
-        <v>9.8849999999999998</v>
+        <v>10.16</v>
       </c>
       <c r="I10">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1593,12 +1590,12 @@
         <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1610,33 +1607,33 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
       <c r="H11">
-        <v>11.305999999999999</v>
+        <v>11.361000000000001</v>
       </c>
       <c r="I11">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="J11">
         <v>17</v>
       </c>
       <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1648,28 +1645,28 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
       <c r="H12">
-        <v>15.098000000000001</v>
+        <v>15.417999999999999</v>
       </c>
       <c r="I12">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J12">
         <v>17</v>
       </c>
       <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1692,27 +1689,27 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>13.773</v>
+        <v>14.3</v>
       </c>
       <c r="I13">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1721,36 +1718,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>86</v>
       </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
       <c r="H14">
-        <v>8.7870000000000008</v>
+        <v>9.1259999999999994</v>
       </c>
       <c r="I14">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J14">
         <v>12</v>
       </c>
       <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1762,33 +1759,33 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
         <v>91</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>92</v>
       </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
       <c r="H15">
-        <v>8.0809999999999995</v>
+        <v>8.2420000000000009</v>
       </c>
       <c r="I15">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="J15">
         <v>9</v>
       </c>
       <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
         <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1800,33 +1797,33 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
         <v>97</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
       <c r="H16">
-        <v>8.3089999999999993</v>
+        <v>8.4809999999999999</v>
       </c>
       <c r="I16">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1838,33 +1835,33 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>104</v>
       </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
       <c r="H17">
-        <v>17.655000000000001</v>
+        <v>17.812000000000001</v>
       </c>
       <c r="I17">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="J17">
         <v>9</v>
       </c>
       <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
         <v>106</v>
-      </c>
-      <c r="L17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1876,33 +1873,33 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>110</v>
       </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
       <c r="H18">
-        <v>7.01</v>
+        <v>8.1679999999999993</v>
       </c>
       <c r="I18">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" t="s">
         <v>112</v>
-      </c>
-      <c r="L18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1914,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35C6D8F-8320-430C-A084-A0A36D9D71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F38C70-5D07-4CE2-AB33-174649A441C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250915 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250915 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Collector</t>
   </si>
@@ -67,28 +67,31 @@
     <t>S2</t>
   </si>
   <si>
-    <t>29,602,130.00</t>
+    <t>34,104,902.00</t>
   </si>
   <si>
     <t>332,666,040.00</t>
   </si>
   <si>
-    <t>8.90</t>
-  </si>
-  <si>
-    <t>5.95</t>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>6.35</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>30,310,558.00</t>
+    <t>30,360,558.00</t>
   </si>
   <si>
     <t>325,976,616.00</t>
   </si>
   <si>
-    <t>9.30</t>
+    <t>9.31</t>
   </si>
   <si>
     <t>2.54</t>
@@ -118,153 +121,156 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>21,828,477.00</t>
+    <t>24,063,135.00</t>
   </si>
   <si>
     <t>307,121,314.00</t>
   </si>
   <si>
+    <t>7.84</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>25,792,031.00</t>
+  </si>
+  <si>
+    <t>316,238,350.00</t>
+  </si>
+  <si>
+    <t>8.16</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>27,275,068.00</t>
+  </si>
+  <si>
+    <t>347,149,837.00</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>26,506,306.00</t>
+  </si>
+  <si>
+    <t>334,624,168.00</t>
+  </si>
+  <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>26,565,647.00</t>
+  </si>
+  <si>
+    <t>356,015,842.00</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>15,497,789.00</t>
+  </si>
+  <si>
+    <t>287,278,647.00</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>36,830,128.00</t>
+  </si>
+  <si>
+    <t>327,671,563.00</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>22,300,225.00</t>
+  </si>
+  <si>
+    <t>315,752,427.00</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>24,159,479.00</t>
+  </si>
+  <si>
+    <t>339,780,179.00</t>
+  </si>
+  <si>
     <t>7.11</t>
   </si>
   <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>24,744,998.00</t>
-  </si>
-  <si>
-    <t>316,238,350.00</t>
-  </si>
-  <si>
-    <t>7.82</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>26,441,061.00</t>
-  </si>
-  <si>
-    <t>347,149,837.00</t>
-  </si>
-  <si>
-    <t>7.62</t>
-  </si>
-  <si>
-    <t>4.32</t>
-  </si>
-  <si>
-    <t>4.72</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>25,620,519.00</t>
-  </si>
-  <si>
-    <t>334,624,168.00</t>
-  </si>
-  <si>
-    <t>7.66</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>4.42</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>26,036,206.00</t>
-  </si>
-  <si>
-    <t>356,015,842.00</t>
-  </si>
-  <si>
-    <t>7.31</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>15,497,789.00</t>
-  </si>
-  <si>
-    <t>287,278,647.00</t>
-  </si>
-  <si>
-    <t>5.39</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>35,896,272.00</t>
-  </si>
-  <si>
-    <t>327,671,563.00</t>
-  </si>
-  <si>
-    <t>10.95</t>
-  </si>
-  <si>
-    <t>8.51</t>
-  </si>
-  <si>
-    <t>6.80</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>22,300,225.00</t>
-  </si>
-  <si>
-    <t>315,752,427.00</t>
-  </si>
-  <si>
-    <t>7.06</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>24,159,479.00</t>
-  </si>
-  <si>
-    <t>339,780,179.00</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -310,13 +316,13 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>29,235,548.00</t>
+    <t>29,648,492.00</t>
   </si>
   <si>
     <t>317,215,129.00</t>
   </si>
   <si>
-    <t>9.22</t>
+    <t>9.35</t>
   </si>
   <si>
     <t>2.40</t>
@@ -346,13 +352,13 @@
     <t>Nuraini</t>
   </si>
   <si>
-    <t>22,127,315.00</t>
+    <t>23,051,905.00</t>
   </si>
   <si>
     <t>271,676,597.00</t>
   </si>
   <si>
-    <t>8.14</t>
+    <t>8.49</t>
   </si>
   <si>
     <t>2.83</t>
@@ -1262,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1274,24 +1280,24 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>13.885</v>
+        <v>14.542999999999999</v>
       </c>
       <c r="I2">
         <v>252</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1300,19 +1306,19 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>19.149999999999999</v>
+        <v>19.43</v>
       </c>
       <c r="I3">
         <v>252</v>
@@ -1321,15 +1327,15 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1341,16 +1347,16 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>10.73</v>
+        <v>11.13</v>
       </c>
       <c r="I4">
         <v>253</v>
@@ -1359,15 +1365,15 @@
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1376,36 +1382,36 @@
         <v>14</v>
       </c>
       <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>19.306999999999999</v>
+        <v>20.175999999999998</v>
       </c>
       <c r="I5">
         <v>222</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1414,19 +1420,19 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>13.500999999999999</v>
+        <v>14.106999999999999</v>
       </c>
       <c r="I6">
         <v>252</v>
@@ -1435,15 +1441,15 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1452,19 +1458,19 @@
         <v>14</v>
       </c>
       <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
       <c r="H7">
-        <v>9.9779999999999998</v>
+        <v>10.114000000000001</v>
       </c>
       <c r="I7">
         <v>254</v>
@@ -1473,15 +1479,15 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1490,36 +1496,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>19.701000000000001</v>
+        <v>19.992999999999999</v>
       </c>
       <c r="I8">
         <v>249</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1528,19 +1534,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>10.808999999999999</v>
+        <v>11.037000000000001</v>
       </c>
       <c r="I9">
         <v>255</v>
@@ -1549,15 +1555,15 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1569,16 +1575,16 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>10.16</v>
+        <v>10.574999999999999</v>
       </c>
       <c r="I10">
         <v>189</v>
@@ -1587,15 +1593,15 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1604,19 +1610,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>11.361000000000001</v>
+        <v>11.682</v>
       </c>
       <c r="I11">
         <v>250</v>
@@ -1625,15 +1631,15 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1645,16 +1651,16 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12">
-        <v>15.417999999999999</v>
+        <v>15.994999999999999</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -1663,15 +1669,15 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1683,16 +1689,16 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="H13">
-        <v>14.3</v>
+        <v>14.88</v>
       </c>
       <c r="I13">
         <v>250</v>
@@ -1701,15 +1707,15 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1721,16 +1727,16 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14">
-        <v>9.1259999999999994</v>
+        <v>9.2379999999999995</v>
       </c>
       <c r="I14">
         <v>250</v>
@@ -1739,15 +1745,15 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1759,16 +1765,16 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H15">
-        <v>8.2420000000000009</v>
+        <v>8.5459999999999994</v>
       </c>
       <c r="I15">
         <v>253</v>
@@ -1777,15 +1783,15 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1794,19 +1800,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>8.4809999999999999</v>
+        <v>8.6890000000000001</v>
       </c>
       <c r="I16">
         <v>254</v>
@@ -1815,15 +1821,15 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1835,16 +1841,16 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H17">
-        <v>17.812000000000001</v>
+        <v>18.349</v>
       </c>
       <c r="I17">
         <v>252</v>
@@ -1853,15 +1859,15 @@
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1870,19 +1876,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18">
-        <v>8.1679999999999993</v>
+        <v>8.6750000000000007</v>
       </c>
       <c r="I18">
         <v>155</v>
@@ -1891,15 +1897,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1911,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F38C70-5D07-4CE2-AB33-174649A441C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6804025-9D33-4A68-8ABC-22A41A748886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250915 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250915 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -121,13 +121,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>24,063,135.00</t>
+    <t>24,163,496.00</t>
   </si>
   <si>
     <t>307,121,314.00</t>
   </si>
   <si>
-    <t>7.84</t>
+    <t>7.87</t>
   </si>
   <si>
     <t>3.31</t>
@@ -175,13 +175,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>26,506,306.00</t>
+    <t>27,192,618.00</t>
   </si>
   <si>
     <t>334,624,168.00</t>
   </si>
   <si>
-    <t>7.92</t>
+    <t>8.13</t>
   </si>
   <si>
     <t>3.72</t>
@@ -280,13 +280,13 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>25,023,925.00</t>
+    <t>34,482,717.00</t>
   </si>
   <si>
     <t>324,168,619.00</t>
   </si>
   <si>
-    <t>7.72</t>
+    <t>10.64</t>
   </si>
   <si>
     <t>5.44</t>
@@ -1382,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6804025-9D33-4A68-8ABC-22A41A748886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45665F80-6B99-4949-B8B4-79F697A607E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250915 (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250915 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>34,104,902.00</t>
+    <t>34,486,339.00</t>
   </si>
   <si>
     <t>332,666,040.00</t>
   </si>
   <si>
-    <t>10.25</t>
+    <t>10.37</t>
   </si>
   <si>
     <t>10.13</t>
@@ -85,13 +85,13 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>30,360,558.00</t>
+    <t>31,032,801.00</t>
   </si>
   <si>
     <t>325,976,616.00</t>
   </si>
   <si>
-    <t>9.31</t>
+    <t>9.52</t>
   </si>
   <si>
     <t>2.54</t>
@@ -121,52 +121,52 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>24,163,496.00</t>
+    <t>26,609,103.00</t>
   </si>
   <si>
     <t>307,121,314.00</t>
   </si>
   <si>
+    <t>8.66</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>25,792,031.00</t>
+  </si>
+  <si>
+    <t>316,238,350.00</t>
+  </si>
+  <si>
+    <t>8.16</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>27,325,068.00</t>
+  </si>
+  <si>
+    <t>347,149,837.00</t>
+  </si>
+  <si>
     <t>7.87</t>
   </si>
   <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>25,792,031.00</t>
-  </si>
-  <si>
-    <t>316,238,350.00</t>
-  </si>
-  <si>
-    <t>8.16</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>27,275,068.00</t>
-  </si>
-  <si>
-    <t>347,149,837.00</t>
-  </si>
-  <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>4.32</t>
+    <t>4.34</t>
   </si>
   <si>
     <t>4.72</t>
@@ -193,13 +193,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>26,565,647.00</t>
+    <t>29,079,025.00</t>
   </si>
   <si>
     <t>356,015,842.00</t>
   </si>
   <si>
-    <t>7.46</t>
+    <t>8.17</t>
   </si>
   <si>
     <t>5.30</t>
@@ -226,19 +226,16 @@
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>36,830,128.00</t>
+    <t>41,716,879.00</t>
   </si>
   <si>
     <t>327,671,563.00</t>
   </si>
   <si>
-    <t>11.24</t>
-  </si>
-  <si>
-    <t>8.51</t>
-  </si>
-  <si>
-    <t>6.80</t>
+    <t>12.73</t>
+  </si>
+  <si>
+    <t>7.60</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
@@ -280,37 +277,34 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>34,482,717.00</t>
+    <t>40,286,824.00</t>
   </si>
   <si>
     <t>324,168,619.00</t>
   </si>
   <si>
-    <t>10.64</t>
-  </si>
-  <si>
-    <t>5.44</t>
-  </si>
-  <si>
-    <t>4.80</t>
+    <t>12.43</t>
+  </si>
+  <si>
+    <t>11.66</t>
+  </si>
+  <si>
+    <t>5.20</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>23,705,259.00</t>
+    <t>24,333,873.00</t>
   </si>
   <si>
     <t>331,674,751.00</t>
   </si>
   <si>
-    <t>7.15</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>3.56</t>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>3.27</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
@@ -325,10 +319,10 @@
     <t>9.35</t>
   </si>
   <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>3.94</t>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>4.33</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -1268,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1280,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>14.542999999999999</v>
+        <v>15.304</v>
       </c>
       <c r="I2">
         <v>252</v>
@@ -1306,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1318,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>19.43</v>
+        <v>20.085999999999999</v>
       </c>
       <c r="I3">
         <v>252</v>
@@ -1356,7 +1350,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>11.13</v>
+        <v>11.497999999999999</v>
       </c>
       <c r="I4">
         <v>253</v>
@@ -1382,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1394,13 +1388,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>20.175999999999998</v>
+        <v>20.207999999999998</v>
       </c>
       <c r="I5">
         <v>222</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1432,7 +1426,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>14.106999999999999</v>
+        <v>14.285</v>
       </c>
       <c r="I6">
         <v>252</v>
@@ -1458,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1470,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>10.114000000000001</v>
+        <v>10.462999999999999</v>
       </c>
       <c r="I7">
         <v>254</v>
@@ -1508,7 +1502,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>19.992999999999999</v>
+        <v>20.693000000000001</v>
       </c>
       <c r="I8">
         <v>249</v>
@@ -1534,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1546,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>11.037000000000001</v>
+        <v>11.396000000000001</v>
       </c>
       <c r="I9">
         <v>255</v>
@@ -1584,7 +1578,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>10.574999999999999</v>
+        <v>11.12</v>
       </c>
       <c r="I10">
         <v>189</v>
@@ -1610,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
@@ -1622,24 +1616,24 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <v>11.682</v>
+        <v>11.973000000000001</v>
       </c>
       <c r="I11">
         <v>250</v>
       </c>
       <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1651,16 +1645,16 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
       <c r="H12">
-        <v>15.994999999999999</v>
+        <v>16.427</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -1669,15 +1663,15 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1689,16 +1683,16 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
       <c r="H13">
-        <v>14.88</v>
+        <v>14.956</v>
       </c>
       <c r="I13">
         <v>250</v>
@@ -1707,15 +1701,15 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1724,36 +1718,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>87</v>
       </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
       <c r="H14">
-        <v>9.2379999999999995</v>
+        <v>9.2680000000000007</v>
       </c>
       <c r="I14">
         <v>250</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1762,36 +1756,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>93</v>
       </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
       <c r="H15">
-        <v>8.5459999999999994</v>
+        <v>8.7319999999999993</v>
       </c>
       <c r="I15">
         <v>253</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1803,33 +1797,33 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
       <c r="H16">
-        <v>8.6890000000000001</v>
+        <v>8.7949999999999999</v>
       </c>
       <c r="I16">
         <v>254</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1841,16 +1835,16 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
       <c r="H17">
-        <v>18.349</v>
+        <v>18.603999999999999</v>
       </c>
       <c r="I17">
         <v>252</v>
@@ -1859,15 +1853,15 @@
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1879,16 +1873,16 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
       <c r="H18">
-        <v>8.6750000000000007</v>
+        <v>8.9149999999999991</v>
       </c>
       <c r="I18">
         <v>155</v>
@@ -1897,15 +1891,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1917,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45665F80-6B99-4949-B8B4-79F697A607E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{961A44AE-0FA4-4116-BE87-E8029C8E141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250915 (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250916 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Collector</t>
   </si>
@@ -67,19 +67,19 @@
     <t>S2</t>
   </si>
   <si>
-    <t>34,486,339.00</t>
-  </si>
-  <si>
-    <t>332,666,040.00</t>
-  </si>
-  <si>
-    <t>10.37</t>
-  </si>
-  <si>
-    <t>10.13</t>
-  </si>
-  <si>
-    <t>6.35</t>
+    <t>34,748,778.00</t>
+  </si>
+  <si>
+    <t>341,892,945.00</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>9.72</t>
+  </si>
+  <si>
+    <t>6.02</t>
   </si>
   <si>
     <t>Romli</t>
@@ -88,190 +88,193 @@
     <t>31,032,801.00</t>
   </si>
   <si>
-    <t>325,976,616.00</t>
-  </si>
-  <si>
-    <t>9.52</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>3.17</t>
+    <t>335,755,173.00</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>3.01</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>22,568,848.00</t>
-  </si>
-  <si>
-    <t>344,627,951.00</t>
-  </si>
-  <si>
-    <t>6.55</t>
-  </si>
-  <si>
-    <t>5.37</t>
+    <t>23,648,532.00</t>
+  </si>
+  <si>
+    <t>354,114,049.00</t>
+  </si>
+  <si>
+    <t>6.68</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>6.34</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>27,597,133.00</t>
+  </si>
+  <si>
+    <t>315,737,797.00</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>26,306,910.00</t>
+  </si>
+  <si>
+    <t>324,518,843.00</t>
+  </si>
+  <si>
+    <t>8.11</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>27,816,628.00</t>
+  </si>
+  <si>
+    <t>360,218,661.00</t>
+  </si>
+  <si>
+    <t>7.72</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>30,262,476.00</t>
+  </si>
+  <si>
+    <t>342,367,394.00</t>
+  </si>
+  <si>
+    <t>8.84</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>30,316,641.00</t>
+  </si>
+  <si>
+    <t>374,326,651.00</t>
+  </si>
+  <si>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>15,618,789.00</t>
+  </si>
+  <si>
+    <t>296,079,966.00</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>41,716,879.00</t>
+  </si>
+  <si>
+    <t>341,063,822.00</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>9.76</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>24,639,241.00</t>
+  </si>
+  <si>
+    <t>332,107,238.00</t>
+  </si>
+  <si>
+    <t>7.42</t>
+  </si>
+  <si>
+    <t>5.67</t>
   </si>
   <si>
     <t>6.32</t>
   </si>
   <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>26,609,103.00</t>
-  </si>
-  <si>
-    <t>307,121,314.00</t>
-  </si>
-  <si>
-    <t>8.66</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>25,792,031.00</t>
-  </si>
-  <si>
-    <t>316,238,350.00</t>
-  </si>
-  <si>
-    <t>8.16</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>27,325,068.00</t>
-  </si>
-  <si>
-    <t>347,149,837.00</t>
-  </si>
-  <si>
-    <t>7.87</t>
-  </si>
-  <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>4.72</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>27,192,618.00</t>
-  </si>
-  <si>
-    <t>334,624,168.00</t>
-  </si>
-  <si>
-    <t>8.13</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>4.82</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>29,079,025.00</t>
-  </si>
-  <si>
-    <t>356,015,842.00</t>
-  </si>
-  <si>
-    <t>8.17</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>15,497,789.00</t>
-  </si>
-  <si>
-    <t>287,278,647.00</t>
-  </si>
-  <si>
-    <t>5.39</t>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>24,749,928.00</t>
+  </si>
+  <si>
+    <t>348,362,716.00</t>
+  </si>
+  <si>
+    <t>7.10</t>
   </si>
   <si>
     <t>3.47</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>41,716,879.00</t>
-  </si>
-  <si>
-    <t>327,671,563.00</t>
-  </si>
-  <si>
-    <t>12.73</t>
-  </si>
-  <si>
-    <t>7.60</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>22,300,225.00</t>
-  </si>
-  <si>
-    <t>315,752,427.00</t>
-  </si>
-  <si>
-    <t>7.06</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>24,159,479.00</t>
-  </si>
-  <si>
-    <t>339,780,179.00</t>
-  </si>
-  <si>
-    <t>7.11</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>3.60</t>
+    <t>3.41</t>
   </si>
   <si>
     <t>Nur Halim</t>
@@ -280,85 +283,85 @@
     <t>40,286,824.00</t>
   </si>
   <si>
-    <t>324,168,619.00</t>
-  </si>
-  <si>
-    <t>12.43</t>
-  </si>
-  <si>
-    <t>11.66</t>
-  </si>
-  <si>
-    <t>5.20</t>
+    <t>334,856,094.00</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>11.15</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>24,333,873.00</t>
-  </si>
-  <si>
-    <t>331,674,751.00</t>
-  </si>
-  <si>
-    <t>7.34</t>
-  </si>
-  <si>
-    <t>3.27</t>
+    <t>25,731,270.00</t>
+  </si>
+  <si>
+    <t>343,540,166.00</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.73</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>29,648,492.00</t>
-  </si>
-  <si>
-    <t>317,215,129.00</t>
-  </si>
-  <si>
-    <t>9.35</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>4.33</t>
+    <t>30,304,175.00</t>
+  </si>
+  <si>
+    <t>329,226,690.00</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>4.10</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>29,957,114.00</t>
-  </si>
-  <si>
-    <t>319,800,812.00</t>
-  </si>
-  <si>
-    <t>9.37</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>3.57</t>
+    <t>30,628,998.00</t>
+  </si>
+  <si>
+    <t>328,089,803.00</t>
+  </si>
+  <si>
+    <t>9.34</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>4.14</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>23,051,905.00</t>
-  </si>
-  <si>
-    <t>271,676,597.00</t>
+    <t>23,875,556.00</t>
+  </si>
+  <si>
+    <t>281,143,423.00</t>
   </si>
   <si>
     <t>8.49</t>
   </si>
   <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>1.94</t>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>1.78</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1262,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1274,10 +1277,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>15.304</v>
+        <v>15.519</v>
       </c>
       <c r="I2">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -1300,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1312,10 +1315,10 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>20.085999999999999</v>
+        <v>20.545999999999999</v>
       </c>
       <c r="I3">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -1338,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1350,13 +1353,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>11.497999999999999</v>
+        <v>12.352</v>
       </c>
       <c r="I4">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1376,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1388,13 +1391,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>20.207999999999998</v>
+        <v>20.452000000000002</v>
       </c>
       <c r="I5">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1414,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1426,24 +1429,24 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>14.285</v>
+        <v>14.304</v>
       </c>
       <c r="I6">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1452,36 +1455,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
       <c r="H7">
-        <v>10.462999999999999</v>
+        <v>10.685</v>
       </c>
       <c r="I7">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J7">
         <v>12</v>
       </c>
       <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1490,36 +1493,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>21.141999999999999</v>
+      </c>
+      <c r="I8">
+        <v>263</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="H8">
-        <v>20.693000000000001</v>
-      </c>
-      <c r="I8">
-        <v>249</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1528,36 +1531,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9">
-        <v>11.396000000000001</v>
+        <v>11.724</v>
       </c>
       <c r="I9">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1566,31 +1569,31 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
       <c r="H10">
-        <v>11.12</v>
+        <v>11.255000000000001</v>
       </c>
       <c r="I10">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1604,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
@@ -1616,24 +1619,24 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <v>11.973000000000001</v>
+        <v>12.179</v>
       </c>
       <c r="I11">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="J11">
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1642,36 +1645,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12">
-        <v>16.427</v>
+        <v>17.114999999999998</v>
       </c>
       <c r="I12">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="J12">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1680,36 +1683,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13">
-        <v>14.956</v>
+        <v>15.169</v>
       </c>
       <c r="I13">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1718,31 +1721,31 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14">
-        <v>9.2680000000000007</v>
+        <v>9.4019999999999992</v>
       </c>
       <c r="I14">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1756,7 +1759,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>91</v>
@@ -1768,10 +1771,10 @@
         <v>93</v>
       </c>
       <c r="H15">
-        <v>8.7319999999999993</v>
+        <v>9.11</v>
       </c>
       <c r="I15">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1780,12 +1783,12 @@
         <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1794,36 +1797,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16">
-        <v>8.7949999999999999</v>
+        <v>9.0890000000000004</v>
       </c>
       <c r="I16">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1832,36 +1835,36 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17">
-        <v>18.603999999999999</v>
+        <v>18.989000000000001</v>
       </c>
       <c r="I17">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1870,36 +1873,36 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18">
-        <v>8.9149999999999991</v>
+        <v>9.1880000000000006</v>
       </c>
       <c r="I18">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1911,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{961A44AE-0FA4-4116-BE87-E8029C8E141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C0BE78-BC91-4EF4-8B88-F8DA7F74D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250916 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250916 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Collector</t>
   </si>
@@ -112,22 +112,22 @@
     <t>6.68</t>
   </si>
   <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>6.34</t>
+    <t>5.46</t>
+  </si>
+  <si>
+    <t>6.72</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>27,597,133.00</t>
+    <t>27,970,638.00</t>
   </si>
   <si>
     <t>315,737,797.00</t>
   </si>
   <si>
-    <t>8.74</t>
+    <t>8.86</t>
   </si>
   <si>
     <t>5.23</t>
@@ -172,13 +172,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>30,262,476.00</t>
+    <t>30,635,217.00</t>
   </si>
   <si>
     <t>342,367,394.00</t>
   </si>
   <si>
-    <t>8.84</t>
+    <t>8.95</t>
   </si>
   <si>
     <t>3.76</t>
@@ -190,13 +190,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>30,316,641.00</t>
+    <t>32,632,337.00</t>
   </si>
   <si>
     <t>374,326,651.00</t>
   </si>
   <si>
-    <t>8.10</t>
+    <t>8.72</t>
   </si>
   <si>
     <t>4.92</t>
@@ -280,13 +280,13 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>40,286,824.00</t>
+    <t>40,827,602.00</t>
   </si>
   <si>
     <t>334,856,094.00</t>
   </si>
   <si>
-    <t>12.03</t>
+    <t>12.19</t>
   </si>
   <si>
     <t>11.15</t>
@@ -313,34 +313,28 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>30,304,175.00</t>
+    <t>30,527,818.00</t>
   </si>
   <si>
     <t>329,226,690.00</t>
   </si>
   <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>4.10</t>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>2.73</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>30,628,998.00</t>
+    <t>30,909,677.00</t>
   </si>
   <si>
     <t>328,089,803.00</t>
   </si>
   <si>
-    <t>9.34</t>
-  </si>
-  <si>
-    <t>2.98</t>
+    <t>9.42</t>
   </si>
   <si>
     <t>4.14</t>
@@ -1277,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>15.519</v>
+        <v>15.736000000000001</v>
       </c>
       <c r="I2">
         <v>266</v>
@@ -1315,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>20.545999999999999</v>
+        <v>20.645</v>
       </c>
       <c r="I3">
         <v>266</v>
@@ -1353,13 +1347,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>12.352</v>
+        <v>12.601000000000001</v>
       </c>
       <c r="I4">
         <v>268</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1379,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1391,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>20.452000000000002</v>
+        <v>20.835000000000001</v>
       </c>
       <c r="I5">
         <v>236</v>
@@ -1467,7 +1461,7 @@
         <v>46</v>
       </c>
       <c r="H7">
-        <v>10.685</v>
+        <v>10.94</v>
       </c>
       <c r="I7">
         <v>268</v>
@@ -1493,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -1505,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="H8">
-        <v>21.141999999999999</v>
+        <v>21.193999999999999</v>
       </c>
       <c r="I8">
         <v>263</v>
@@ -1531,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -1543,7 +1537,7 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>11.724</v>
+        <v>11.744999999999999</v>
       </c>
       <c r="I9">
         <v>270</v>
@@ -1581,7 +1575,7 @@
         <v>64</v>
       </c>
       <c r="H10">
-        <v>11.255000000000001</v>
+        <v>11.507999999999999</v>
       </c>
       <c r="I10">
         <v>203</v>
@@ -1619,7 +1613,7 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <v>12.179</v>
+        <v>12.257999999999999</v>
       </c>
       <c r="I11">
         <v>265</v>
@@ -1657,7 +1651,7 @@
         <v>76</v>
       </c>
       <c r="H12">
-        <v>17.114999999999998</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="I12">
         <v>269</v>
@@ -1695,7 +1689,7 @@
         <v>82</v>
       </c>
       <c r="H13">
-        <v>15.169</v>
+        <v>15.343999999999999</v>
       </c>
       <c r="I13">
         <v>264</v>
@@ -1721,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -1733,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="H14">
-        <v>9.4019999999999992</v>
+        <v>9.702</v>
       </c>
       <c r="I14">
         <v>264</v>
@@ -1771,7 +1765,7 @@
         <v>93</v>
       </c>
       <c r="H15">
-        <v>9.11</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="I15">
         <v>268</v>
@@ -1797,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>97</v>
@@ -1809,24 +1803,24 @@
         <v>99</v>
       </c>
       <c r="H16">
-        <v>9.0890000000000004</v>
+        <v>9.2870000000000008</v>
       </c>
       <c r="I16">
         <v>268</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
         <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1835,19 +1829,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>104</v>
       </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
       <c r="H17">
-        <v>18.989000000000001</v>
+        <v>19.056999999999999</v>
       </c>
       <c r="I17">
         <v>266</v>
@@ -1856,15 +1850,15 @@
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1876,16 +1870,16 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
         <v>109</v>
       </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
       <c r="H18">
-        <v>9.1880000000000006</v>
+        <v>9.2129999999999992</v>
       </c>
       <c r="I18">
         <v>169</v>
@@ -1894,15 +1888,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1914,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C0BE78-BC91-4EF4-8B88-F8DA7F74D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5ADA99-C015-4554-AC13-E0616A0B0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250916 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250916" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>Collector</t>
   </si>
@@ -67,16 +67,16 @@
     <t>S2</t>
   </si>
   <si>
-    <t>34,748,778.00</t>
+    <t>35,048,778.00</t>
   </si>
   <si>
     <t>341,892,945.00</t>
   </si>
   <si>
-    <t>10.16</t>
-  </si>
-  <si>
-    <t>9.72</t>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>9.84</t>
   </si>
   <si>
     <t>6.02</t>
@@ -121,13 +121,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>27,970,638.00</t>
+    <t>28,894,535.00</t>
   </si>
   <si>
     <t>315,737,797.00</t>
   </si>
   <si>
-    <t>8.86</t>
+    <t>9.15</t>
   </si>
   <si>
     <t>5.23</t>
@@ -154,13 +154,13 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>27,816,628.00</t>
+    <t>29,902,783.00</t>
   </si>
   <si>
     <t>360,218,661.00</t>
   </si>
   <si>
-    <t>7.72</t>
+    <t>8.30</t>
   </si>
   <si>
     <t>4.09</t>
@@ -172,31 +172,31 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>30,635,217.00</t>
+    <t>31,353,193.00</t>
   </si>
   <si>
     <t>342,367,394.00</t>
   </si>
   <si>
-    <t>8.95</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>4.94</t>
+    <t>9.16</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>5.32</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>32,632,337.00</t>
+    <t>35,590,649.00</t>
   </si>
   <si>
     <t>374,326,651.00</t>
   </si>
   <si>
-    <t>8.72</t>
+    <t>9.51</t>
   </si>
   <si>
     <t>4.92</t>
@@ -208,13 +208,13 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>15,618,789.00</t>
+    <t>16,206,457.00</t>
   </si>
   <si>
     <t>296,079,966.00</t>
   </si>
   <si>
-    <t>5.28</t>
+    <t>5.47</t>
   </si>
   <si>
     <t>3.29</t>
@@ -244,13 +244,13 @@
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>24,639,241.00</t>
+    <t>25,389,075.00</t>
   </si>
   <si>
     <t>332,107,238.00</t>
   </si>
   <si>
-    <t>7.42</t>
+    <t>7.64</t>
   </si>
   <si>
     <t>5.67</t>
@@ -280,61 +280,64 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>40,827,602.00</t>
+    <t>42,016,437.00</t>
   </si>
   <si>
     <t>334,856,094.00</t>
   </si>
   <si>
-    <t>12.19</t>
-  </si>
-  <si>
-    <t>11.15</t>
+    <t>12.55</t>
+  </si>
+  <si>
+    <t>11.36</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>25,731,270.00</t>
+    <t>26,362,971.00</t>
   </si>
   <si>
     <t>343,540,166.00</t>
   </si>
   <si>
-    <t>7.49</t>
+    <t>7.67</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>30,527,818.00</t>
+  </si>
+  <si>
+    <t>329,226,690.00</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>30,909,677.00</t>
+  </si>
+  <si>
+    <t>328,089,803.00</t>
+  </si>
+  <si>
+    <t>9.42</t>
   </si>
   <si>
     <t>3.11</t>
-  </si>
-  <si>
-    <t>3.73</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>30,527,818.00</t>
-  </si>
-  <si>
-    <t>329,226,690.00</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>30,909,677.00</t>
-  </si>
-  <si>
-    <t>328,089,803.00</t>
-  </si>
-  <si>
-    <t>9.42</t>
   </si>
   <si>
     <t>4.14</t>
@@ -1259,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1271,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>15.736000000000001</v>
+        <v>16.158000000000001</v>
       </c>
       <c r="I2">
         <v>266</v>
@@ -1309,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>20.645</v>
+        <v>21.718</v>
       </c>
       <c r="I3">
         <v>266</v>
@@ -1347,7 +1350,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>12.601000000000001</v>
+        <v>12.909000000000001</v>
       </c>
       <c r="I4">
         <v>268</v>
@@ -1373,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1385,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>20.835000000000001</v>
+        <v>20.989000000000001</v>
       </c>
       <c r="I5">
         <v>236</v>
@@ -1449,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -1461,7 +1464,7 @@
         <v>46</v>
       </c>
       <c r="H7">
-        <v>10.94</v>
+        <v>11.079000000000001</v>
       </c>
       <c r="I7">
         <v>268</v>
@@ -1487,7 +1490,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -1499,13 +1502,13 @@
         <v>52</v>
       </c>
       <c r="H8">
-        <v>21.193999999999999</v>
+        <v>22.113</v>
       </c>
       <c r="I8">
         <v>263</v>
       </c>
       <c r="J8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>53</v>
@@ -1525,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -1537,7 +1540,7 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>11.744999999999999</v>
+        <v>12.086</v>
       </c>
       <c r="I9">
         <v>270</v>
@@ -1563,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -1575,7 +1578,7 @@
         <v>64</v>
       </c>
       <c r="H10">
-        <v>11.507999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="I10">
         <v>203</v>
@@ -1613,7 +1616,7 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <v>12.257999999999999</v>
+        <v>12.531000000000001</v>
       </c>
       <c r="I11">
         <v>265</v>
@@ -1639,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -1651,7 +1654,7 @@
         <v>76</v>
       </c>
       <c r="H12">
-        <v>17.588000000000001</v>
+        <v>18.013000000000002</v>
       </c>
       <c r="I12">
         <v>269</v>
@@ -1689,7 +1692,7 @@
         <v>82</v>
       </c>
       <c r="H13">
-        <v>15.343999999999999</v>
+        <v>15.53</v>
       </c>
       <c r="I13">
         <v>264</v>
@@ -1715,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -1727,7 +1730,7 @@
         <v>88</v>
       </c>
       <c r="H14">
-        <v>9.702</v>
+        <v>9.8970000000000002</v>
       </c>
       <c r="I14">
         <v>264</v>
@@ -1753,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>91</v>
@@ -1765,13 +1768,13 @@
         <v>93</v>
       </c>
       <c r="H15">
-        <v>9.2100000000000009</v>
+        <v>9.6069999999999993</v>
       </c>
       <c r="I15">
         <v>268</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
         <v>94</v>
@@ -1803,7 +1806,7 @@
         <v>99</v>
       </c>
       <c r="H16">
-        <v>9.2870000000000008</v>
+        <v>9.6080000000000005</v>
       </c>
       <c r="I16">
         <v>268</v>
@@ -1841,7 +1844,7 @@
         <v>104</v>
       </c>
       <c r="H17">
-        <v>19.056999999999999</v>
+        <v>19.324999999999999</v>
       </c>
       <c r="I17">
         <v>266</v>
@@ -1850,15 +1853,15 @@
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1870,16 +1873,16 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18">
-        <v>9.2129999999999992</v>
+        <v>9.2750000000000004</v>
       </c>
       <c r="I18">
         <v>169</v>
@@ -1888,15 +1891,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1908,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5ADA99-C015-4554-AC13-E0616A0B0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4CC3E1-6B60-4E49-879C-57589EAA9BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250916" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250917" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Collector</t>
   </si>
@@ -67,19 +67,19 @@
     <t>S2</t>
   </si>
   <si>
-    <t>35,048,778.00</t>
-  </si>
-  <si>
-    <t>341,892,945.00</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>9.84</t>
-  </si>
-  <si>
-    <t>6.02</t>
+    <t>36,590,267.00</t>
+  </si>
+  <si>
+    <t>354,265,527.00</t>
+  </si>
+  <si>
+    <t>10.33</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>5.69</t>
   </si>
   <si>
     <t>Romli</t>
@@ -88,52 +88,52 @@
     <t>31,032,801.00</t>
   </si>
   <si>
-    <t>335,755,173.00</t>
+    <t>345,748,772.00</t>
+  </si>
+  <si>
+    <t>8.98</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>24,714,741.00</t>
+  </si>
+  <si>
+    <t>364,796,180.00</t>
+  </si>
+  <si>
+    <t>6.77</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>6.71</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>30,106,872.00</t>
+  </si>
+  <si>
+    <t>325,697,110.00</t>
   </si>
   <si>
     <t>9.24</t>
   </si>
   <si>
-    <t>2.43</t>
-  </si>
-  <si>
-    <t>3.01</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>23,648,532.00</t>
-  </si>
-  <si>
-    <t>354,114,049.00</t>
-  </si>
-  <si>
-    <t>6.68</t>
-  </si>
-  <si>
-    <t>5.46</t>
-  </si>
-  <si>
-    <t>6.72</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>28,894,535.00</t>
-  </si>
-  <si>
-    <t>315,737,797.00</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>5.23</t>
-  </si>
-  <si>
-    <t>5.08</t>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>5.58</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
@@ -142,85 +142,88 @@
     <t>26,306,910.00</t>
   </si>
   <si>
-    <t>324,518,843.00</t>
-  </si>
-  <si>
-    <t>8.11</t>
-  </si>
-  <si>
-    <t>2.80</t>
+    <t>333,845,725.00</t>
+  </si>
+  <si>
+    <t>7.88</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>2.84</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>29,902,783.00</t>
-  </si>
-  <si>
-    <t>360,218,661.00</t>
-  </si>
-  <si>
-    <t>8.30</t>
-  </si>
-  <si>
-    <t>4.09</t>
-  </si>
-  <si>
-    <t>4.48</t>
+    <t>31,328,949.00</t>
+  </si>
+  <si>
+    <t>371,275,419.00</t>
+  </si>
+  <si>
+    <t>8.44</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.95</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>31,353,193.00</t>
-  </si>
-  <si>
-    <t>342,367,394.00</t>
-  </si>
-  <si>
-    <t>9.16</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>5.32</t>
+    <t>33,309,730.00</t>
+  </si>
+  <si>
+    <t>352,204,423.00</t>
+  </si>
+  <si>
+    <t>9.46</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>5.04</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>35,590,649.00</t>
-  </si>
-  <si>
-    <t>374,326,651.00</t>
-  </si>
-  <si>
-    <t>9.51</t>
-  </si>
-  <si>
-    <t>4.92</t>
-  </si>
-  <si>
-    <t>2.59</t>
+    <t>35,948,956.00</t>
+  </si>
+  <si>
+    <t>382,521,389.00</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>2.81</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>16,206,457.00</t>
-  </si>
-  <si>
-    <t>296,079,966.00</t>
-  </si>
-  <si>
-    <t>5.47</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>2.96</t>
+    <t>16,608,104.00</t>
+  </si>
+  <si>
+    <t>306,953,613.00</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>2.75</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
@@ -229,16 +232,16 @@
     <t>41,716,879.00</t>
   </si>
   <si>
-    <t>341,063,822.00</t>
-  </si>
-  <si>
-    <t>12.23</t>
-  </si>
-  <si>
-    <t>9.76</t>
-  </si>
-  <si>
-    <t>7.17</t>
+    <t>353,225,284.00</t>
+  </si>
+  <si>
+    <t>11.81</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>6.76</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
@@ -247,16 +250,16 @@
     <t>25,389,075.00</t>
   </si>
   <si>
-    <t>332,107,238.00</t>
-  </si>
-  <si>
-    <t>7.64</t>
-  </si>
-  <si>
-    <t>5.67</t>
-  </si>
-  <si>
-    <t>6.32</t>
+    <t>341,222,410.00</t>
+  </si>
+  <si>
+    <t>7.44</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>5.99</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -265,100 +268,106 @@
     <t>24,749,928.00</t>
   </si>
   <si>
-    <t>348,362,716.00</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>3.41</t>
+    <t>358,079,562.00</t>
+  </si>
+  <si>
+    <t>6.91</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.23</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>42,016,437.00</t>
-  </si>
-  <si>
-    <t>334,856,094.00</t>
+    <t>43,490,920.00</t>
+  </si>
+  <si>
+    <t>346,496,189.00</t>
   </si>
   <si>
     <t>12.55</t>
   </si>
   <si>
-    <t>11.36</t>
+    <t>10.84</t>
+  </si>
+  <si>
+    <t>4.64</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>26,362,971.00</t>
-  </si>
-  <si>
-    <t>343,540,166.00</t>
-  </si>
-  <si>
-    <t>7.67</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>4.10</t>
+    <t>28,025,490.00</t>
+  </si>
+  <si>
+    <t>353,994,668.00</t>
+  </si>
+  <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.89</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>30,527,818.00</t>
-  </si>
-  <si>
-    <t>329,226,690.00</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>2.73</t>
+    <t>30,927,463.00</t>
+  </si>
+  <si>
+    <t>339,564,252.00</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>4.23</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>30,909,677.00</t>
-  </si>
-  <si>
-    <t>328,089,803.00</t>
-  </si>
-  <si>
-    <t>9.42</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>4.14</t>
+    <t>31,500,607.00</t>
+  </si>
+  <si>
+    <t>341,171,617.00</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>3.91</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>23,875,556.00</t>
-  </si>
-  <si>
-    <t>281,143,423.00</t>
-  </si>
-  <si>
-    <t>8.49</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>1.78</t>
+    <t>24,324,279.00</t>
+  </si>
+  <si>
+    <t>290,932,993.00</t>
+  </si>
+  <si>
+    <t>8.36</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>1.63</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1262,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1274,10 +1283,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>16.158000000000001</v>
+        <v>17.048999999999999</v>
       </c>
       <c r="I2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -1312,10 +1321,10 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>21.718</v>
+        <v>23.010999999999999</v>
       </c>
       <c r="I3">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -1338,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1350,13 +1359,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>12.909000000000001</v>
+        <v>13.404</v>
       </c>
       <c r="I4">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1376,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1388,13 +1397,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>20.989000000000001</v>
+        <v>21.295000000000002</v>
       </c>
       <c r="I5">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1426,10 +1435,10 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>14.304</v>
+        <v>15.058999999999999</v>
       </c>
       <c r="I6">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -1438,12 +1447,12 @@
         <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1452,36 +1461,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>11.079000000000001</v>
+        <v>11.477</v>
       </c>
       <c r="I7">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1490,36 +1499,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>22.113</v>
+        <v>23.423999999999999</v>
       </c>
       <c r="I8">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="J8">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1528,36 +1537,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>12.086</v>
+        <v>12.624000000000001</v>
       </c>
       <c r="I9">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1569,33 +1578,33 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>12.1</v>
+        <v>12.718</v>
       </c>
       <c r="I10">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1607,33 +1616,33 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11">
-        <v>12.531000000000001</v>
+        <v>13.057</v>
       </c>
       <c r="I11">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="J11">
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1642,36 +1651,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>18.013000000000002</v>
+        <v>18.893000000000001</v>
       </c>
       <c r="I12">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="J12">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1683,33 +1692,33 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>15.53</v>
+        <v>16.646999999999998</v>
       </c>
       <c r="I13">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1718,36 +1727,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>9.8970000000000002</v>
+        <v>10.484999999999999</v>
       </c>
       <c r="I14">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1759,33 +1768,33 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>9.6069999999999993</v>
+        <v>10.666</v>
       </c>
       <c r="I15">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1794,36 +1803,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16">
-        <v>9.6080000000000005</v>
+        <v>10.231</v>
       </c>
       <c r="I16">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1835,33 +1844,33 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H17">
-        <v>19.324999999999999</v>
+        <v>19.989000000000001</v>
       </c>
       <c r="I17">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="J17">
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1870,36 +1879,36 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H18">
-        <v>9.2750000000000004</v>
+        <v>10.369</v>
       </c>
       <c r="I18">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1911,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4CC3E1-6B60-4E49-879C-57589EAA9BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCD3D8C-08B4-43E3-8F61-F0C9A00AB18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250917" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250917 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Collector</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>24,714,741.00</t>
+    <t>24,923,826.00</t>
   </si>
   <si>
     <t>364,796,180.00</t>
   </si>
   <si>
-    <t>6.77</t>
+    <t>6.83</t>
   </si>
   <si>
     <t>5.63</t>
@@ -121,19 +121,19 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>30,106,872.00</t>
+    <t>30,156,872.00</t>
   </si>
   <si>
     <t>325,697,110.00</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>5.37</t>
-  </si>
-  <si>
-    <t>5.58</t>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>5.98</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
@@ -157,13 +157,13 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>31,328,949.00</t>
+    <t>31,887,424.00</t>
   </si>
   <si>
     <t>371,275,419.00</t>
   </si>
   <si>
-    <t>8.44</t>
+    <t>8.59</t>
   </si>
   <si>
     <t>4.10</t>
@@ -184,61 +184,58 @@
     <t>9.46</t>
   </si>
   <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>5.04</t>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>5.40</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>35,948,956.00</t>
+    <t>36,439,115.00</t>
   </si>
   <si>
     <t>382,521,389.00</t>
   </si>
   <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>4.87</t>
-  </si>
-  <si>
-    <t>2.81</t>
+    <t>9.53</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>3.16</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>16,608,104.00</t>
+    <t>17,483,715.00</t>
   </si>
   <si>
     <t>306,953,613.00</t>
   </si>
   <si>
-    <t>5.41</t>
-  </si>
-  <si>
-    <t>3.09</t>
-  </si>
-  <si>
-    <t>2.75</t>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.21</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>41,716,879.00</t>
+    <t>42,116,879.00</t>
   </si>
   <si>
     <t>353,225,284.00</t>
   </si>
   <si>
-    <t>11.81</t>
-  </si>
-  <si>
-    <t>9.26</t>
+    <t>11.92</t>
   </si>
   <si>
     <t>6.76</t>
@@ -301,19 +298,19 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>28,025,490.00</t>
+    <t>28,316,229.00</t>
   </si>
   <si>
     <t>353,994,668.00</t>
   </si>
   <si>
-    <t>7.92</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.89</t>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>4.24</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
@@ -337,13 +334,13 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>31,500,607.00</t>
+    <t>32,411,629.00</t>
   </si>
   <si>
     <t>341,171,617.00</t>
   </si>
   <si>
-    <t>9.23</t>
+    <t>9.50</t>
   </si>
   <si>
     <t>2.93</t>
@@ -1283,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>17.048999999999999</v>
+        <v>17.84</v>
       </c>
       <c r="I2">
         <v>281</v>
@@ -1321,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>23.010999999999999</v>
+        <v>24.265999999999998</v>
       </c>
       <c r="I3">
         <v>281</v>
@@ -1347,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1359,7 +1356,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>13.404</v>
+        <v>13.693</v>
       </c>
       <c r="I4">
         <v>283</v>
@@ -1385,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1397,13 +1394,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>21.295000000000002</v>
+        <v>21.375</v>
       </c>
       <c r="I5">
         <v>251</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1435,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>15.058999999999999</v>
+        <v>15.552</v>
       </c>
       <c r="I6">
         <v>282</v>
@@ -1461,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1473,7 +1470,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>11.477</v>
+        <v>12.106</v>
       </c>
       <c r="I7">
         <v>283</v>
@@ -1511,13 +1508,13 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>23.423999999999999</v>
+        <v>24.422999999999998</v>
       </c>
       <c r="I8">
         <v>278</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>54</v>
@@ -1537,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1549,13 +1546,13 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>12.624000000000001</v>
+        <v>12.930999999999999</v>
       </c>
       <c r="I9">
         <v>285</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
         <v>60</v>
@@ -1575,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1587,13 +1584,13 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>12.718</v>
+        <v>13.705</v>
       </c>
       <c r="I10">
         <v>218</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
         <v>66</v>
@@ -1613,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1625,7 +1622,7 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>13.057</v>
+        <v>13.712</v>
       </c>
       <c r="I11">
         <v>281</v>
@@ -1634,15 +1631,15 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1654,16 +1651,16 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
       <c r="H12">
-        <v>18.893000000000001</v>
+        <v>19.82</v>
       </c>
       <c r="I12">
         <v>284</v>
@@ -1672,15 +1669,15 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1692,16 +1689,16 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
       <c r="H13">
-        <v>16.646999999999998</v>
+        <v>17.297999999999998</v>
       </c>
       <c r="I13">
         <v>279</v>
@@ -1710,15 +1707,15 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
         <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1730,16 +1727,16 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
       <c r="H14">
-        <v>10.484999999999999</v>
+        <v>10.535</v>
       </c>
       <c r="I14">
         <v>280</v>
@@ -1748,15 +1745,15 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1765,36 +1762,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
       <c r="H15">
-        <v>10.666</v>
+        <v>11.661</v>
       </c>
       <c r="I15">
         <v>283</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
         <v>96</v>
-      </c>
-      <c r="L15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1806,16 +1803,16 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
         <v>99</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>100</v>
       </c>
-      <c r="G16" t="s">
-        <v>101</v>
-      </c>
       <c r="H16">
-        <v>10.231</v>
+        <v>10.638999999999999</v>
       </c>
       <c r="I16">
         <v>284</v>
@@ -1824,15 +1821,15 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1841,19 +1838,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>106</v>
       </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
       <c r="H17">
-        <v>19.989000000000001</v>
+        <v>20.623000000000001</v>
       </c>
       <c r="I17">
         <v>281</v>
@@ -1862,15 +1859,15 @@
         <v>11</v>
       </c>
       <c r="K17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1882,16 +1879,16 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>112</v>
       </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
       <c r="H18">
-        <v>10.369</v>
+        <v>11.128</v>
       </c>
       <c r="I18">
         <v>184</v>
@@ -1900,15 +1897,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" t="s">
         <v>114</v>
-      </c>
-      <c r="L18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1920,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCD3D8C-08B4-43E3-8F61-F0C9A00AB18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DA45DC-E5BE-4FA7-B007-777D5D30F99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250917 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250918" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -67,33 +67,33 @@
     <t>S2</t>
   </si>
   <si>
-    <t>36,590,267.00</t>
+    <t>38,650,042.00</t>
   </si>
   <si>
     <t>354,265,527.00</t>
   </si>
   <si>
-    <t>10.33</t>
+    <t>10.91</t>
+  </si>
+  <si>
+    <t>9.91</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>32,246,129.00</t>
+  </si>
+  <si>
+    <t>345,748,772.00</t>
   </si>
   <si>
     <t>9.33</t>
   </si>
   <si>
-    <t>5.69</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>31,032,801.00</t>
-  </si>
-  <si>
-    <t>345,748,772.00</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
     <t>2.32</t>
   </si>
   <si>
@@ -103,13 +103,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>24,923,826.00</t>
+    <t>25,405,221.00</t>
   </si>
   <si>
     <t>364,796,180.00</t>
   </si>
   <si>
-    <t>6.83</t>
+    <t>6.96</t>
   </si>
   <si>
     <t>5.63</t>
@@ -121,13 +121,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>30,156,872.00</t>
+    <t>30,536,872.00</t>
   </si>
   <si>
     <t>325,697,110.00</t>
   </si>
   <si>
-    <t>9.26</t>
+    <t>9.38</t>
   </si>
   <si>
     <t>5.57</t>
@@ -139,16 +139,16 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>26,306,910.00</t>
+    <t>26,920,163.00</t>
   </si>
   <si>
     <t>333,845,725.00</t>
   </si>
   <si>
-    <t>7.88</t>
-  </si>
-  <si>
-    <t>2.68</t>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>2.79</t>
   </si>
   <si>
     <t>2.84</t>
@@ -157,16 +157,16 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>31,887,424.00</t>
+    <t>32,448,271.00</t>
   </si>
   <si>
     <t>371,275,419.00</t>
   </si>
   <si>
-    <t>8.59</t>
-  </si>
-  <si>
-    <t>4.10</t>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>4.29</t>
   </si>
   <si>
     <t>4.95</t>
@@ -175,13 +175,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>33,309,730.00</t>
+    <t>34,638,015.00</t>
   </si>
   <si>
     <t>352,204,423.00</t>
   </si>
   <si>
-    <t>9.46</t>
+    <t>9.83</t>
   </si>
   <si>
     <t>3.87</t>
@@ -193,13 +193,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>36,439,115.00</t>
+    <t>36,589,115.00</t>
   </si>
   <si>
     <t>382,521,389.00</t>
   </si>
   <si>
-    <t>9.53</t>
+    <t>9.57</t>
   </si>
   <si>
     <t>5.05</t>
@@ -229,28 +229,28 @@
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>42,116,879.00</t>
+    <t>42,920,905.00</t>
   </si>
   <si>
     <t>353,225,284.00</t>
   </si>
   <si>
-    <t>11.92</t>
-  </si>
-  <si>
-    <t>6.76</t>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>7.12</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>25,389,075.00</t>
+    <t>28,549,564.00</t>
   </si>
   <si>
     <t>341,222,410.00</t>
   </si>
   <si>
-    <t>7.44</t>
+    <t>8.37</t>
   </si>
   <si>
     <t>5.45</t>
@@ -262,31 +262,31 @@
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>24,749,928.00</t>
+    <t>24,836,928.00</t>
   </si>
   <si>
     <t>358,079,562.00</t>
   </si>
   <si>
-    <t>6.91</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.23</t>
+    <t>6.94</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.58</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>43,490,920.00</t>
+    <t>45,488,457.00</t>
   </si>
   <si>
     <t>346,496,189.00</t>
   </si>
   <si>
-    <t>12.55</t>
+    <t>13.13</t>
   </si>
   <si>
     <t>10.84</t>
@@ -298,13 +298,13 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>28,316,229.00</t>
+    <t>29,212,679.00</t>
   </si>
   <si>
     <t>353,994,668.00</t>
   </si>
   <si>
-    <t>8.00</t>
+    <t>8.25</t>
   </si>
   <si>
     <t>3.83</t>
@@ -316,16 +316,16 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>30,927,463.00</t>
+    <t>31,150,222.00</t>
   </si>
   <si>
     <t>339,564,252.00</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
-    <t>2.61</t>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>2.65</t>
   </si>
   <si>
     <t>4.23</t>
@@ -334,13 +334,13 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>32,411,629.00</t>
+    <t>32,860,352.00</t>
   </si>
   <si>
     <t>341,171,617.00</t>
   </si>
   <si>
-    <t>9.50</t>
+    <t>9.63</t>
   </si>
   <si>
     <t>2.93</t>
@@ -1268,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1280,13 +1280,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>17.84</v>
+        <v>17.890999999999998</v>
       </c>
       <c r="I2">
         <v>281</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1306,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>24.265999999999998</v>
+        <v>24.28</v>
       </c>
       <c r="I3">
         <v>281</v>
@@ -1344,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1356,7 +1356,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>13.693</v>
+        <v>13.797000000000001</v>
       </c>
       <c r="I4">
         <v>283</v>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>21.375</v>
+        <v>21.536999999999999</v>
       </c>
       <c r="I5">
         <v>251</v>
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1432,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>15.552</v>
+        <v>15.734999999999999</v>
       </c>
       <c r="I6">
         <v>282</v>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1470,7 +1470,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>12.106</v>
+        <v>12.147</v>
       </c>
       <c r="I7">
         <v>283</v>
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1508,7 +1508,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>24.422999999999998</v>
+        <v>24.507999999999999</v>
       </c>
       <c r="I8">
         <v>278</v>
@@ -1534,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1546,7 +1546,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>12.930999999999999</v>
+        <v>13.031000000000001</v>
       </c>
       <c r="I9">
         <v>285</v>
@@ -1584,7 +1584,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>13.705</v>
+        <v>13.920999999999999</v>
       </c>
       <c r="I10">
         <v>218</v>
@@ -1610,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1622,16 +1622,16 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>13.712</v>
+        <v>13.785</v>
       </c>
       <c r="I11">
         <v>281</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>72</v>
@@ -1648,7 +1648,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -1686,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>80</v>
@@ -1698,13 +1698,13 @@
         <v>82</v>
       </c>
       <c r="H13">
-        <v>17.297999999999998</v>
+        <v>17.335000000000001</v>
       </c>
       <c r="I13">
         <v>279</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
         <v>83</v>
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -1736,7 +1736,7 @@
         <v>88</v>
       </c>
       <c r="H14">
-        <v>10.535</v>
+        <v>10.561999999999999</v>
       </c>
       <c r="I14">
         <v>280</v>
@@ -1762,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
@@ -1774,7 +1774,7 @@
         <v>94</v>
       </c>
       <c r="H15">
-        <v>11.661</v>
+        <v>11.71</v>
       </c>
       <c r="I15">
         <v>283</v>
@@ -1800,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
@@ -1812,7 +1812,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>10.638999999999999</v>
+        <v>10.776999999999999</v>
       </c>
       <c r="I16">
         <v>284</v>
@@ -1838,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>104</v>
@@ -1850,7 +1850,7 @@
         <v>106</v>
       </c>
       <c r="H17">
-        <v>20.623000000000001</v>
+        <v>20.672000000000001</v>
       </c>
       <c r="I17">
         <v>281</v>
@@ -1876,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>110</v>
@@ -1888,7 +1888,7 @@
         <v>112</v>
       </c>
       <c r="H18">
-        <v>11.128</v>
+        <v>11.244999999999999</v>
       </c>
       <c r="I18">
         <v>184</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DA45DC-E5BE-4FA7-B007-777D5D30F99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8577DCBC-3A88-4368-BAB7-E7BB44A42419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250918" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250918 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Collector</t>
   </si>
@@ -67,19 +67,19 @@
     <t>S2</t>
   </si>
   <si>
-    <t>38,650,042.00</t>
-  </si>
-  <si>
-    <t>354,265,527.00</t>
-  </si>
-  <si>
-    <t>10.91</t>
-  </si>
-  <si>
-    <t>9.91</t>
-  </si>
-  <si>
-    <t>6.05</t>
+    <t>38,963,042.00</t>
+  </si>
+  <si>
+    <t>362,295,166.00</t>
+  </si>
+  <si>
+    <t>10.75</t>
+  </si>
+  <si>
+    <t>9.66</t>
+  </si>
+  <si>
+    <t>6.08</t>
   </si>
   <si>
     <t>Romli</t>
@@ -88,283 +88,280 @@
     <t>32,246,129.00</t>
   </si>
   <si>
-    <t>345,748,772.00</t>
+    <t>359,626,543.00</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>25,405,221.00</t>
+  </si>
+  <si>
+    <t>375,191,938.00</t>
+  </si>
+  <si>
+    <t>6.77</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>6.35</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>30,536,872.00</t>
+  </si>
+  <si>
+    <t>336,549,859.00</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>27,491,939.00</t>
+  </si>
+  <si>
+    <t>350,383,964.00</t>
+  </si>
+  <si>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>36,162,324.00</t>
+  </si>
+  <si>
+    <t>387,667,945.00</t>
   </si>
   <si>
     <t>9.33</t>
   </si>
   <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>40,906,348.00</t>
+  </si>
+  <si>
+    <t>360,659,991.00</t>
+  </si>
+  <si>
+    <t>11.34</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>37,089,115.00</t>
+  </si>
+  <si>
+    <t>393,178,726.00</t>
+  </si>
+  <si>
+    <t>9.43</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>17,719,094.00</t>
+  </si>
+  <si>
+    <t>316,203,621.00</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>42,920,905.00</t>
+  </si>
+  <si>
+    <t>363,694,630.00</t>
+  </si>
+  <si>
+    <t>11.80</t>
+  </si>
+  <si>
+    <t>9.16</t>
+  </si>
+  <si>
+    <t>6.76</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>28,549,564.00</t>
+  </si>
+  <si>
+    <t>351,465,727.00</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>25,458,966.00</t>
+  </si>
+  <si>
+    <t>368,217,726.00</t>
+  </si>
+  <si>
+    <t>6.91</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>47,155,630.00</t>
+  </si>
+  <si>
+    <t>357,098,175.00</t>
+  </si>
+  <si>
+    <t>13.21</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>29,212,679.00</t>
+  </si>
+  <si>
+    <t>368,605,956.00</t>
+  </si>
+  <si>
+    <t>7.93</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>31,872,821.00</t>
+  </si>
+  <si>
+    <t>362,616,675.00</t>
+  </si>
+  <si>
+    <t>8.79</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>33,003,475.00</t>
+  </si>
+  <si>
+    <t>349,396,802.00</t>
+  </si>
+  <si>
+    <t>9.45</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>24,839,943.00</t>
+  </si>
+  <si>
+    <t>299,936,928.00</t>
+  </si>
+  <si>
+    <t>8.28</t>
+  </si>
+  <si>
     <t>2.32</t>
   </si>
   <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>25,405,221.00</t>
-  </si>
-  <si>
-    <t>364,796,180.00</t>
-  </si>
-  <si>
-    <t>6.96</t>
-  </si>
-  <si>
-    <t>5.63</t>
-  </si>
-  <si>
-    <t>6.71</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>30,536,872.00</t>
-  </si>
-  <si>
-    <t>325,697,110.00</t>
-  </si>
-  <si>
-    <t>9.38</t>
-  </si>
-  <si>
-    <t>5.57</t>
-  </si>
-  <si>
-    <t>5.98</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>26,920,163.00</t>
-  </si>
-  <si>
-    <t>333,845,725.00</t>
-  </si>
-  <si>
-    <t>8.06</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>32,448,271.00</t>
-  </si>
-  <si>
-    <t>371,275,419.00</t>
-  </si>
-  <si>
-    <t>8.74</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>34,638,015.00</t>
-  </si>
-  <si>
-    <t>352,204,423.00</t>
-  </si>
-  <si>
-    <t>9.83</t>
-  </si>
-  <si>
-    <t>3.87</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>36,589,115.00</t>
-  </si>
-  <si>
-    <t>382,521,389.00</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>17,483,715.00</t>
-  </si>
-  <si>
-    <t>306,953,613.00</t>
-  </si>
-  <si>
-    <t>5.70</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>42,920,905.00</t>
-  </si>
-  <si>
-    <t>353,225,284.00</t>
-  </si>
-  <si>
-    <t>12.15</t>
-  </si>
-  <si>
-    <t>7.12</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>28,549,564.00</t>
-  </si>
-  <si>
-    <t>341,222,410.00</t>
-  </si>
-  <si>
-    <t>8.37</t>
-  </si>
-  <si>
-    <t>5.45</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>24,836,928.00</t>
-  </si>
-  <si>
-    <t>358,079,562.00</t>
-  </si>
-  <si>
-    <t>6.94</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>45,488,457.00</t>
-  </si>
-  <si>
-    <t>346,496,189.00</t>
-  </si>
-  <si>
-    <t>13.13</t>
-  </si>
-  <si>
-    <t>10.84</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>29,212,679.00</t>
-  </si>
-  <si>
-    <t>353,994,668.00</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>4.24</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>31,150,222.00</t>
-  </si>
-  <si>
-    <t>339,564,252.00</t>
-  </si>
-  <si>
-    <t>9.17</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>32,860,352.00</t>
-  </si>
-  <si>
-    <t>341,171,617.00</t>
-  </si>
-  <si>
-    <t>9.63</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>24,324,279.00</t>
-  </si>
-  <si>
-    <t>290,932,993.00</t>
-  </si>
-  <si>
-    <t>8.36</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
-    <t>1.63</t>
+    <t>1.51</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1268,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1280,13 +1277,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>17.890999999999998</v>
+        <v>19.190999999999999</v>
       </c>
       <c r="I2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1318,10 +1315,10 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>24.28</v>
+        <v>24.628</v>
       </c>
       <c r="I3">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -1356,10 +1353,10 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>13.797000000000001</v>
+        <v>15.01</v>
       </c>
       <c r="I4">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="J4">
         <v>19</v>
@@ -1394,10 +1391,10 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>21.536999999999999</v>
+        <v>21.981999999999999</v>
       </c>
       <c r="I5">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="J5">
         <v>15</v>
@@ -1420,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1432,10 +1429,10 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>15.734999999999999</v>
+        <v>16.137</v>
       </c>
       <c r="I6">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -1444,12 +1441,12 @@
         <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1458,36 +1455,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
       <c r="H7">
-        <v>12.147</v>
+        <v>12.411</v>
       </c>
       <c r="I7">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="J7">
         <v>14</v>
       </c>
       <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1496,36 +1493,36 @@
         <v>14</v>
       </c>
       <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8">
-        <v>24.507999999999999</v>
+        <v>25.422000000000001</v>
       </c>
       <c r="I8">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="J8">
         <v>15</v>
       </c>
       <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1534,36 +1531,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9">
-        <v>13.031000000000001</v>
+        <v>13.645</v>
       </c>
       <c r="I9">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1572,36 +1569,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
       <c r="H10">
-        <v>13.920999999999999</v>
+        <v>14.332000000000001</v>
       </c>
       <c r="I10">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1613,25 +1610,25 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
       <c r="H11">
-        <v>13.785</v>
+        <v>14.058999999999999</v>
       </c>
       <c r="I11">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
         <v>72</v>
@@ -1660,10 +1657,10 @@
         <v>76</v>
       </c>
       <c r="H12">
-        <v>19.82</v>
+        <v>20.515000000000001</v>
       </c>
       <c r="I12">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="J12">
         <v>17</v>
@@ -1686,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>80</v>
@@ -1698,13 +1695,13 @@
         <v>82</v>
       </c>
       <c r="H13">
-        <v>17.335000000000001</v>
+        <v>17.773</v>
       </c>
       <c r="I13">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
         <v>83</v>
@@ -1724,7 +1721,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -1736,10 +1733,10 @@
         <v>88</v>
       </c>
       <c r="H14">
-        <v>10.561999999999999</v>
+        <v>11.587999999999999</v>
       </c>
       <c r="I14">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1774,10 +1771,10 @@
         <v>94</v>
       </c>
       <c r="H15">
-        <v>11.71</v>
+        <v>12.099</v>
       </c>
       <c r="I15">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -1800,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
@@ -1812,10 +1809,10 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>10.776999999999999</v>
+        <v>11.25</v>
       </c>
       <c r="I16">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -1838,7 +1835,7 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>104</v>
@@ -1850,10 +1847,10 @@
         <v>106</v>
       </c>
       <c r="H17">
-        <v>20.672000000000001</v>
+        <v>21.684000000000001</v>
       </c>
       <c r="I17">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -1862,12 +1859,12 @@
         <v>107</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1876,36 +1873,36 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
       <c r="H18">
-        <v>11.244999999999999</v>
+        <v>12.259</v>
       </c>
       <c r="I18">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1917,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8577DCBC-3A88-4368-BAB7-E7BB44A42419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52465983-C78B-4C79-80D1-757BD43BF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250918 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250918 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Collector</t>
   </si>
@@ -121,13 +121,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>30,536,872.00</t>
+    <t>31,414,185.00</t>
   </si>
   <si>
     <t>336,549,859.00</t>
   </si>
   <si>
-    <t>9.07</t>
+    <t>9.33</t>
   </si>
   <si>
     <t>5.30</t>
@@ -139,13 +139,13 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>27,491,939.00</t>
+    <t>29,021,986.00</t>
   </si>
   <si>
     <t>350,383,964.00</t>
   </si>
   <si>
-    <t>7.85</t>
+    <t>8.28</t>
   </si>
   <si>
     <t>2.59</t>
@@ -160,9 +160,6 @@
     <t>387,667,945.00</t>
   </si>
   <si>
-    <t>9.33</t>
-  </si>
-  <si>
     <t>4.17</t>
   </si>
   <si>
@@ -172,13 +169,13 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>40,906,348.00</t>
+    <t>41,197,087.00</t>
   </si>
   <si>
     <t>360,659,991.00</t>
   </si>
   <si>
-    <t>11.34</t>
+    <t>11.42</t>
   </si>
   <si>
     <t>3.72</t>
@@ -226,13 +223,13 @@
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>42,920,905.00</t>
+    <t>44,106,636.00</t>
   </si>
   <si>
     <t>363,694,630.00</t>
   </si>
   <si>
-    <t>11.80</t>
+    <t>12.13</t>
   </si>
   <si>
     <t>9.16</t>
@@ -316,13 +313,13 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>31,872,821.00</t>
+    <t>32,176,238.00</t>
   </si>
   <si>
     <t>362,616,675.00</t>
   </si>
   <si>
-    <t>8.79</t>
+    <t>8.87</t>
   </si>
   <si>
     <t>2.41</t>
@@ -334,13 +331,13 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>33,003,475.00</t>
+    <t>33,338,944.00</t>
   </si>
   <si>
     <t>349,396,802.00</t>
   </si>
   <si>
-    <t>9.45</t>
+    <t>9.54</t>
   </si>
   <si>
     <t>2.83</t>
@@ -353,9 +350,6 @@
   </si>
   <si>
     <t>299,936,928.00</t>
-  </si>
-  <si>
-    <t>8.28</t>
   </si>
   <si>
     <t>2.32</t>
@@ -1277,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>19.190999999999999</v>
+        <v>19.483000000000001</v>
       </c>
       <c r="I2">
         <v>296</v>
@@ -1315,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>24.628</v>
+        <v>25.158999999999999</v>
       </c>
       <c r="I3">
         <v>297</v>
@@ -1353,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>15.01</v>
+        <v>15.428000000000001</v>
       </c>
       <c r="I4">
         <v>299</v>
@@ -1379,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1391,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>21.981999999999999</v>
+        <v>22.131</v>
       </c>
       <c r="I5">
         <v>266</v>
@@ -1417,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1429,7 +1423,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>16.137</v>
+        <v>16.190999999999999</v>
       </c>
       <c r="I6">
         <v>297</v>
@@ -1464,10 +1458,10 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>12.411</v>
+        <v>12.834</v>
       </c>
       <c r="I7">
         <v>299</v>
@@ -1476,15 +1470,15 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
         <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1493,19 +1487,19 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
       <c r="H8">
-        <v>25.422000000000001</v>
+        <v>25.597999999999999</v>
       </c>
       <c r="I8">
         <v>293</v>
@@ -1514,15 +1508,15 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1534,16 +1528,16 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
       <c r="H9">
-        <v>13.645</v>
+        <v>13.742000000000001</v>
       </c>
       <c r="I9">
         <v>301</v>
@@ -1552,15 +1546,15 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1572,16 +1566,16 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10">
-        <v>14.332000000000001</v>
+        <v>14.651</v>
       </c>
       <c r="I10">
         <v>233</v>
@@ -1590,15 +1584,15 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1607,19 +1601,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
       <c r="H11">
-        <v>14.058999999999999</v>
+        <v>14.093</v>
       </c>
       <c r="I11">
         <v>296</v>
@@ -1628,15 +1622,15 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1648,16 +1642,16 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
       <c r="H12">
-        <v>20.515000000000001</v>
+        <v>20.692</v>
       </c>
       <c r="I12">
         <v>299</v>
@@ -1666,15 +1660,15 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1686,16 +1680,16 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
       <c r="H13">
-        <v>17.773</v>
+        <v>17.847000000000001</v>
       </c>
       <c r="I13">
         <v>294</v>
@@ -1704,15 +1698,15 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1724,13 +1718,13 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
       </c>
       <c r="H14">
         <v>11.587999999999999</v>
@@ -1742,15 +1736,15 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1762,16 +1756,16 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>93</v>
       </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
       <c r="H15">
-        <v>12.099</v>
+        <v>12.191000000000001</v>
       </c>
       <c r="I15">
         <v>299</v>
@@ -1780,15 +1774,15 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
         <v>95</v>
-      </c>
-      <c r="L15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1797,19 +1791,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
       <c r="H16">
-        <v>11.25</v>
+        <v>11.395</v>
       </c>
       <c r="I16">
         <v>300</v>
@@ -1818,15 +1812,15 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1835,19 +1829,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
       <c r="H17">
-        <v>21.684000000000001</v>
+        <v>21.704000000000001</v>
       </c>
       <c r="I17">
         <v>296</v>
@@ -1856,15 +1850,15 @@
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1876,16 +1870,16 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>12.259</v>
+        <v>12.416</v>
       </c>
       <c r="I18">
         <v>199</v>
@@ -1894,15 +1888,15 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1914,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,54 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52465983-C78B-4C79-80D1-757BD43BF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BA9A931-8A03-451F-B6A9-2C73798C96D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250918 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250919" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
-  <si>
-    <t>Collector</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Repayment_collections</t>
-  </si>
-  <si>
-    <t>Repayment_amount</t>
-  </si>
-  <si>
-    <t>Pending Amount</t>
-  </si>
-  <si>
-    <t>Pending Amount Recovery</t>
-  </si>
-  <si>
-    <t>Talk_time</t>
-  </si>
-  <si>
-    <t>New_collections</t>
-  </si>
-  <si>
-    <t>Repayment_new_collections</t>
-  </si>
-  <si>
-    <t>New_collection_amount_rate</t>
-  </si>
-  <si>
-    <t>New_collection_count_rate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+  <si>
+    <t>Collector,Team,Cycle,Repayment_collections,Repayment_amount,Pending Amount,Pending Amount Recovery,Talk_time,New_collections,Repayment_new_collections,New_collection_amount_rate,New_collection_count_rate</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
@@ -67,295 +34,298 @@
     <t>S2</t>
   </si>
   <si>
-    <t>38,963,042.00</t>
-  </si>
-  <si>
-    <t>362,295,166.00</t>
-  </si>
-  <si>
-    <t>10.75</t>
-  </si>
-  <si>
-    <t>9.66</t>
-  </si>
-  <si>
-    <t>6.08</t>
+    <t>39,782,340.00</t>
+  </si>
+  <si>
+    <t>378,951,070.00</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>6.11</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>32,246,129.00</t>
-  </si>
-  <si>
-    <t>359,626,543.00</t>
-  </si>
-  <si>
-    <t>8.97</t>
-  </si>
-  <si>
-    <t>2.20</t>
+    <t>34,819,297.00</t>
+  </si>
+  <si>
+    <t>368,404,513.00</t>
+  </si>
+  <si>
+    <t>9.45</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>26,573,038.00</t>
+  </si>
+  <si>
+    <t>383,723,392.00</t>
+  </si>
+  <si>
+    <t>6.93</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>31,821,717.00</t>
+  </si>
+  <si>
+    <t>346,953,619.00</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>31,416,669.00</t>
+  </si>
+  <si>
+    <t>358,303,100.00</t>
+  </si>
+  <si>
+    <t>8.77</t>
   </si>
   <si>
     <t>2.69</t>
   </si>
   <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>25,405,221.00</t>
-  </si>
-  <si>
-    <t>375,191,938.00</t>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>38,943,709.00</t>
+  </si>
+  <si>
+    <t>395,256,649.00</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>41,197,087.00</t>
+  </si>
+  <si>
+    <t>370,284,925.00</t>
+  </si>
+  <si>
+    <t>11.13</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>38,217,343.00</t>
+  </si>
+  <si>
+    <t>404,559,168.00</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>18,013,225.00</t>
+  </si>
+  <si>
+    <t>327,448,790.00</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>44,106,636.00</t>
+  </si>
+  <si>
+    <t>371,201,917.00</t>
+  </si>
+  <si>
+    <t>11.88</t>
+  </si>
+  <si>
+    <t>9.32</t>
   </si>
   <si>
     <t>6.77</t>
   </si>
   <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>30,381,661.00</t>
+  </si>
+  <si>
+    <t>360,085,140.00</t>
+  </si>
+  <si>
+    <t>8.44</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
     <t>5.41</t>
   </si>
   <si>
-    <t>6.35</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>31,414,185.00</t>
-  </si>
-  <si>
-    <t>336,549,859.00</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>5.64</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>29,021,986.00</t>
-  </si>
-  <si>
-    <t>350,383,964.00</t>
-  </si>
-  <si>
-    <t>8.28</t>
-  </si>
-  <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>36,162,324.00</t>
-  </si>
-  <si>
-    <t>387,667,945.00</t>
-  </si>
-  <si>
-    <t>4.17</t>
-  </si>
-  <si>
-    <t>4.68</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>41,197,087.00</t>
-  </si>
-  <si>
-    <t>360,659,991.00</t>
-  </si>
-  <si>
-    <t>11.42</t>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>31,875,138.00</t>
+  </si>
+  <si>
+    <t>377,958,998.00</t>
+  </si>
+  <si>
+    <t>8.43</t>
   </si>
   <si>
     <t>3.72</t>
   </si>
   <si>
-    <t>5.12</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>37,089,115.00</t>
-  </si>
-  <si>
-    <t>393,178,726.00</t>
-  </si>
-  <si>
-    <t>9.43</t>
-  </si>
-  <si>
-    <t>4.86</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>17,719,094.00</t>
-  </si>
-  <si>
-    <t>316,203,621.00</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>3.24</t>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>47,843,957.00</t>
+  </si>
+  <si>
+    <t>365,793,306.00</t>
+  </si>
+  <si>
+    <t>13.08</t>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>29,212,679.00</t>
+  </si>
+  <si>
+    <t>379,718,111.00</t>
+  </si>
+  <si>
+    <t>7.69</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>32,607,966.00</t>
+  </si>
+  <si>
+    <t>371,746,571.00</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>33,711,685.00</t>
+  </si>
+  <si>
+    <t>358,559,851.00</t>
+  </si>
+  <si>
+    <t>9.40</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>44,106,636.00</t>
-  </si>
-  <si>
-    <t>363,694,630.00</t>
-  </si>
-  <si>
-    <t>12.13</t>
-  </si>
-  <si>
-    <t>9.16</t>
-  </si>
-  <si>
-    <t>6.76</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>28,549,564.00</t>
-  </si>
-  <si>
-    <t>351,465,727.00</t>
-  </si>
-  <si>
-    <t>8.12</t>
-  </si>
-  <si>
-    <t>5.23</t>
-  </si>
-  <si>
-    <t>5.69</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>25,458,966.00</t>
-  </si>
-  <si>
-    <t>368,217,726.00</t>
-  </si>
-  <si>
-    <t>6.91</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>47,155,630.00</t>
-  </si>
-  <si>
-    <t>357,098,175.00</t>
-  </si>
-  <si>
-    <t>13.21</t>
-  </si>
-  <si>
-    <t>10.51</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>29,212,679.00</t>
-  </si>
-  <si>
-    <t>368,605,956.00</t>
-  </si>
-  <si>
-    <t>7.93</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>32,176,238.00</t>
-  </si>
-  <si>
-    <t>362,616,675.00</t>
-  </si>
-  <si>
-    <t>8.87</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>33,338,944.00</t>
-  </si>
-  <si>
-    <t>349,396,802.00</t>
-  </si>
-  <si>
-    <t>9.54</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>24,839,943.00</t>
-  </si>
-  <si>
-    <t>299,936,928.00</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>1.51</t>
+    <t>25,645,436.00</t>
+  </si>
+  <si>
+    <t>307,576,128.00</t>
+  </si>
+  <si>
+    <t>8.34</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>1.87</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1214,704 +1184,671 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>19.483000000000001</v>
+        <v>20.486999999999998</v>
       </c>
       <c r="I2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>25.446000000000002</v>
+      </c>
+      <c r="I3">
+        <v>312</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="L3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>25.158999999999999</v>
-      </c>
-      <c r="I3">
-        <v>297</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>15.428000000000001</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="J4">
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>22.131</v>
+        <v>22.689</v>
       </c>
       <c r="I5">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="J5">
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>16.190999999999999</v>
+        <v>17.071999999999999</v>
       </c>
       <c r="I6">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>12.834</v>
+        <v>13.083</v>
       </c>
       <c r="I7">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J7">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>25.597999999999999</v>
+        <v>26.140999999999998</v>
       </c>
       <c r="I8">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>13.742000000000001</v>
+        <v>14.442</v>
       </c>
       <c r="I9">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>14.651</v>
+        <v>15.503</v>
       </c>
       <c r="I10">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>14.093</v>
+        <v>14.555999999999999</v>
       </c>
       <c r="I11">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H12">
-        <v>20.692</v>
+        <v>21.640999999999998</v>
       </c>
       <c r="I12">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="J12">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H13">
-        <v>17.847000000000001</v>
+        <v>18.856000000000002</v>
       </c>
       <c r="I13">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="J13">
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H14">
-        <v>11.587999999999999</v>
+        <v>11.773999999999999</v>
       </c>
       <c r="I14">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H15">
-        <v>12.191000000000001</v>
+        <v>13.278</v>
       </c>
       <c r="I15">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J15">
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>11.395</v>
+        <v>11.895</v>
       </c>
       <c r="I16">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H17">
-        <v>21.704000000000001</v>
+        <v>23.056999999999999</v>
       </c>
       <c r="I17">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="H18">
-        <v>12.416</v>
+        <v>13.334</v>
       </c>
       <c r="I18">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8042F46F-8254-4D92-B154-A15C73BC6818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F7E1FB-CE55-4A9A-A5B0-389E07EA278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250919 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250920" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Collector</t>
   </si>
@@ -67,262 +67,259 @@
     <t>S2</t>
   </si>
   <si>
-    <t>39,782,340.00</t>
+    <t>41,014,803.00</t>
   </si>
   <si>
     <t>378,951,070.00</t>
   </si>
   <si>
-    <t>10.50</t>
+    <t>10.82</t>
+  </si>
+  <si>
+    <t>9.58</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>36,638,161.00</t>
+  </si>
+  <si>
+    <t>368,404,513.00</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>26,573,038.00</t>
+  </si>
+  <si>
+    <t>383,723,392.00</t>
+  </si>
+  <si>
+    <t>6.93</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>33,225,605.00</t>
+  </si>
+  <si>
+    <t>346,953,619.00</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>32,500,458.00</t>
+  </si>
+  <si>
+    <t>358,303,100.00</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>39,202,887.00</t>
+  </si>
+  <si>
+    <t>395,256,649.00</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>45,453,945.00</t>
+  </si>
+  <si>
+    <t>370,284,925.00</t>
+  </si>
+  <si>
+    <t>12.28</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>38,639,329.00</t>
+  </si>
+  <si>
+    <t>404,559,168.00</t>
+  </si>
+  <si>
+    <t>9.55</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>18,923,984.00</t>
+  </si>
+  <si>
+    <t>327,448,790.00</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>48,209,748.00</t>
+  </si>
+  <si>
+    <t>371,201,917.00</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>30,381,661.00</t>
+  </si>
+  <si>
+    <t>360,085,140.00</t>
+  </si>
+  <si>
+    <t>8.44</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>32,908,908.00</t>
+  </si>
+  <si>
+    <t>377,958,998.00</t>
+  </si>
+  <si>
+    <t>8.71</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>48,194,795.00</t>
+  </si>
+  <si>
+    <t>365,793,306.00</t>
+  </si>
+  <si>
+    <t>13.18</t>
+  </si>
+  <si>
+    <t>10.29</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>29,368,835.00</t>
+  </si>
+  <si>
+    <t>379,718,111.00</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>34,693,959.00</t>
+  </si>
+  <si>
+    <t>371,746,571.00</t>
   </si>
   <si>
     <t>9.33</t>
   </si>
   <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>34,819,297.00</t>
-  </si>
-  <si>
-    <t>368,404,513.00</t>
-  </si>
-  <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>26,573,038.00</t>
-  </si>
-  <si>
-    <t>383,723,392.00</t>
-  </si>
-  <si>
-    <t>6.93</t>
-  </si>
-  <si>
-    <t>5.24</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>31,821,717.00</t>
-  </si>
-  <si>
-    <t>346,953,619.00</t>
-  </si>
-  <si>
-    <t>9.17</t>
-  </si>
-  <si>
-    <t>5.12</t>
-  </si>
-  <si>
-    <t>5.36</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>31,416,669.00</t>
-  </si>
-  <si>
-    <t>358,303,100.00</t>
-  </si>
-  <si>
-    <t>8.77</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>38,943,709.00</t>
-  </si>
-  <si>
-    <t>395,256,649.00</t>
-  </si>
-  <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.47</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>41,197,087.00</t>
-  </si>
-  <si>
-    <t>370,284,925.00</t>
-  </si>
-  <si>
-    <t>11.13</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>38,217,343.00</t>
-  </si>
-  <si>
-    <t>404,559,168.00</t>
-  </si>
-  <si>
-    <t>4.66</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>18,013,225.00</t>
-  </si>
-  <si>
-    <t>327,448,790.00</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>44,106,636.00</t>
-  </si>
-  <si>
-    <t>371,201,917.00</t>
-  </si>
-  <si>
-    <t>11.88</t>
-  </si>
-  <si>
-    <t>9.32</t>
-  </si>
-  <si>
-    <t>6.77</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>30,381,661.00</t>
-  </si>
-  <si>
-    <t>360,085,140.00</t>
-  </si>
-  <si>
-    <t>8.44</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>5.41</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>31,875,138.00</t>
-  </si>
-  <si>
-    <t>377,958,998.00</t>
-  </si>
-  <si>
-    <t>8.43</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>48,043,957.00</t>
-  </si>
-  <si>
-    <t>365,793,306.00</t>
-  </si>
-  <si>
-    <t>13.13</t>
-  </si>
-  <si>
-    <t>10.17</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>29,212,679.00</t>
-  </si>
-  <si>
-    <t>379,718,111.00</t>
-  </si>
-  <si>
-    <t>7.69</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>32,607,966.00</t>
-  </si>
-  <si>
-    <t>371,746,571.00</t>
-  </si>
-  <si>
-    <t>2.32</t>
+    <t>2.76</t>
   </si>
   <si>
     <t>3.82</t>
@@ -331,13 +328,13 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>33,711,685.00</t>
+    <t>35,780,349.00</t>
   </si>
   <si>
     <t>358,559,851.00</t>
   </si>
   <si>
-    <t>9.40</t>
+    <t>9.98</t>
   </si>
   <si>
     <t>3.00</t>
@@ -346,13 +343,13 @@
     <t>Nuraini</t>
   </si>
   <si>
-    <t>25,645,436.00</t>
+    <t>26,408,642.00</t>
   </si>
   <si>
     <t>307,576,128.00</t>
   </si>
   <si>
-    <t>8.34</t>
+    <t>8.59</t>
   </si>
   <si>
     <t>2.65</t>
@@ -1262,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1274,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>20.486999999999998</v>
+        <v>22.117000000000001</v>
       </c>
       <c r="I2">
         <v>311</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1300,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1312,13 +1309,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>25.446000000000002</v>
+        <v>26.513000000000002</v>
       </c>
       <c r="I3">
         <v>312</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1350,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>16.98</v>
       </c>
       <c r="I4">
         <v>314</v>
@@ -1376,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1385,27 +1382,27 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>22.689</v>
+        <v>23.597999999999999</v>
       </c>
       <c r="I5">
         <v>280</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1414,19 +1411,19 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6">
-        <v>17.071999999999999</v>
+        <v>17.689</v>
       </c>
       <c r="I6">
         <v>312</v>
@@ -1435,15 +1432,15 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1452,36 +1449,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
       <c r="H7">
-        <v>13.083</v>
+        <v>13.474</v>
       </c>
       <c r="I7">
         <v>313</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1490,36 +1487,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8">
-        <v>26.140999999999998</v>
+        <v>26.733000000000001</v>
       </c>
       <c r="I8">
         <v>308</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1528,19 +1525,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
       <c r="H9">
-        <v>14.442</v>
+        <v>15.196</v>
       </c>
       <c r="I9">
         <v>315</v>
@@ -1549,15 +1546,15 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1566,19 +1563,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10">
-        <v>15.503</v>
+        <v>16.376000000000001</v>
       </c>
       <c r="I10">
         <v>247</v>
@@ -1587,15 +1584,15 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1604,36 +1601,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
       <c r="H11">
-        <v>14.555999999999999</v>
+        <v>14.907999999999999</v>
       </c>
       <c r="I11">
         <v>310</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1642,19 +1639,19 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
       <c r="H12">
-        <v>21.640999999999998</v>
+        <v>22.414000000000001</v>
       </c>
       <c r="I12">
         <v>314</v>
@@ -1663,15 +1660,15 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1680,19 +1677,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
       <c r="H13">
-        <v>18.856000000000002</v>
+        <v>19.346</v>
       </c>
       <c r="I13">
         <v>308</v>
@@ -1701,15 +1698,15 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1721,16 +1718,16 @@
         <v>53</v>
       </c>
       <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
       <c r="H14">
-        <v>11.773999999999999</v>
+        <v>11.984</v>
       </c>
       <c r="I14">
         <v>310</v>
@@ -1739,15 +1736,15 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1756,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
       <c r="H15">
-        <v>13.278</v>
+        <v>15.186</v>
       </c>
       <c r="I15">
         <v>313</v>
@@ -1777,15 +1774,15 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1797,16 +1794,16 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
       <c r="H16">
-        <v>11.895</v>
+        <v>12.147</v>
       </c>
       <c r="I16">
         <v>314</v>
@@ -1815,15 +1812,15 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1832,19 +1829,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>104</v>
       </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
       <c r="H17">
-        <v>23.056999999999999</v>
+        <v>23.498000000000001</v>
       </c>
       <c r="I17">
         <v>310</v>
@@ -1853,15 +1850,15 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1870,19 +1867,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
         <v>108</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>109</v>
       </c>
-      <c r="G18" t="s">
-        <v>110</v>
-      </c>
       <c r="H18">
-        <v>13.334</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="I18">
         <v>214</v>
@@ -1891,15 +1888,15 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s">
         <v>111</v>
-      </c>
-      <c r="L18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1911,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F7E1FB-CE55-4A9A-A5B0-389E07EA278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ABFE25F-C2AB-406A-9472-AA3792019971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250920" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250920 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Collector</t>
   </si>
@@ -67,67 +67,73 @@
     <t>S2</t>
   </si>
   <si>
-    <t>41,014,803.00</t>
-  </si>
-  <si>
-    <t>378,951,070.00</t>
-  </si>
-  <si>
-    <t>10.82</t>
-  </si>
-  <si>
-    <t>9.58</t>
-  </si>
-  <si>
-    <t>6.43</t>
+    <t>41,259,415.00</t>
+  </si>
+  <si>
+    <t>389,618,385.00</t>
+  </si>
+  <si>
+    <t>10.59</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>6.12</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>36,638,161.00</t>
-  </si>
-  <si>
-    <t>368,404,513.00</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>3.85</t>
+    <t>36,671,431.00</t>
+  </si>
+  <si>
+    <t>383,088,000.00</t>
+  </si>
+  <si>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>3.94</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>26,573,038.00</t>
-  </si>
-  <si>
-    <t>383,723,392.00</t>
-  </si>
-  <si>
-    <t>6.93</t>
-  </si>
-  <si>
-    <t>5.24</t>
-  </si>
-  <si>
-    <t>6.05</t>
+    <t>26,880,737.00</t>
+  </si>
+  <si>
+    <t>395,616,117.00</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>5.74</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>33,225,605.00</t>
-  </si>
-  <si>
-    <t>346,953,619.00</t>
-  </si>
-  <si>
-    <t>5.71</t>
+    <t>33,400,674.00</t>
+  </si>
+  <si>
+    <t>358,267,731.00</t>
+  </si>
+  <si>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>5.72</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
@@ -136,52 +142,52 @@
     <t>32,500,458.00</t>
   </si>
   <si>
-    <t>358,303,100.00</t>
-  </si>
-  <si>
-    <t>9.07</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>2.88</t>
+    <t>370,220,959.00</t>
+  </si>
+  <si>
+    <t>8.78</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>3.04</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>39,202,887.00</t>
-  </si>
-  <si>
-    <t>395,256,649.00</t>
-  </si>
-  <si>
-    <t>9.92</t>
-  </si>
-  <si>
-    <t>4.14</t>
-  </si>
-  <si>
-    <t>4.79</t>
+    <t>41,871,931.00</t>
+  </si>
+  <si>
+    <t>406,214,480.00</t>
+  </si>
+  <si>
+    <t>10.31</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>4.56</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>45,453,945.00</t>
-  </si>
-  <si>
-    <t>370,284,925.00</t>
-  </si>
-  <si>
-    <t>12.28</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>5.52</t>
+    <t>45,786,096.00</t>
+  </si>
+  <si>
+    <t>381,376,141.00</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>5.25</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
@@ -190,16 +196,16 @@
     <t>38,639,329.00</t>
   </si>
   <si>
-    <t>404,559,168.00</t>
-  </si>
-  <si>
-    <t>9.55</t>
-  </si>
-  <si>
-    <t>4.66</t>
-  </si>
-  <si>
-    <t>2.86</t>
+    <t>427,498,587.00</t>
+  </si>
+  <si>
+    <t>9.04</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>2.71</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
@@ -208,16 +214,16 @@
     <t>18,923,984.00</t>
   </si>
   <si>
-    <t>327,448,790.00</t>
-  </si>
-  <si>
-    <t>5.78</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>2.83</t>
+    <t>341,191,913.00</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>2.65</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
@@ -226,13 +232,16 @@
     <t>48,209,748.00</t>
   </si>
   <si>
-    <t>371,201,917.00</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>7.10</t>
+    <t>383,910,226.00</t>
+  </si>
+  <si>
+    <t>12.56</t>
+  </si>
+  <si>
+    <t>9.46</t>
+  </si>
+  <si>
+    <t>6.73</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
@@ -241,16 +250,16 @@
     <t>30,381,661.00</t>
   </si>
   <si>
-    <t>360,085,140.00</t>
-  </si>
-  <si>
-    <t>8.44</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>5.41</t>
+    <t>376,834,676.00</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>5.14</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -259,34 +268,34 @@
     <t>32,908,908.00</t>
   </si>
   <si>
-    <t>377,958,998.00</t>
-  </si>
-  <si>
-    <t>8.71</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>3.57</t>
+    <t>390,335,562.00</t>
+  </si>
+  <si>
+    <t>8.43</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.38</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>48,194,795.00</t>
-  </si>
-  <si>
-    <t>365,793,306.00</t>
-  </si>
-  <si>
-    <t>13.18</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>4.19</t>
+    <t>48,655,390.00</t>
+  </si>
+  <si>
+    <t>376,779,839.00</t>
+  </si>
+  <si>
+    <t>12.91</t>
+  </si>
+  <si>
+    <t>9.89</t>
+  </si>
+  <si>
+    <t>3.99</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
@@ -295,34 +304,34 @@
     <t>29,368,835.00</t>
   </si>
   <si>
-    <t>379,718,111.00</t>
-  </si>
-  <si>
-    <t>7.73</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>3.83</t>
+    <t>390,760,194.00</t>
+  </si>
+  <si>
+    <t>7.52</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.65</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>34,693,959.00</t>
-  </si>
-  <si>
-    <t>371,746,571.00</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>3.82</t>
+    <t>34,919,292.00</t>
+  </si>
+  <si>
+    <t>383,189,468.00</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>3.63</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -331,13 +340,16 @@
     <t>35,780,349.00</t>
   </si>
   <si>
-    <t>358,559,851.00</t>
-  </si>
-  <si>
-    <t>9.98</t>
-  </si>
-  <si>
-    <t>3.00</t>
+    <t>369,862,031.00</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>4.29</t>
   </si>
   <si>
     <t>Nuraini</t>
@@ -346,16 +358,16 @@
     <t>26,408,642.00</t>
   </si>
   <si>
-    <t>307,576,128.00</t>
-  </si>
-  <si>
-    <t>8.59</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>1.87</t>
+    <t>320,145,256.00</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>1.74</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1259,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1271,10 +1283,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>22.117000000000001</v>
+        <v>22.542999999999999</v>
       </c>
       <c r="I2">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="J2">
         <v>20</v>
@@ -1297,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1309,13 +1321,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>26.513000000000002</v>
+        <v>26.824999999999999</v>
       </c>
       <c r="I3">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1335,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1347,10 +1359,10 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>16.98</v>
+        <v>17.329000000000001</v>
       </c>
       <c r="I4">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="J4">
         <v>19</v>
@@ -1373,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1382,27 +1394,27 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>23.597999999999999</v>
+        <v>23.777000000000001</v>
       </c>
       <c r="I5">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1414,33 +1426,33 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>17.689</v>
+        <v>17.896000000000001</v>
       </c>
       <c r="I6">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1449,36 +1461,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>13.474</v>
+        <v>13.56</v>
       </c>
       <c r="I7">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="J7">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1487,36 +1499,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>26.733000000000001</v>
+        <v>27.533000000000001</v>
       </c>
       <c r="I8">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J8">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1528,33 +1540,33 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>15.196</v>
+        <v>15.49</v>
       </c>
       <c r="I9">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1566,33 +1578,33 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10">
         <v>16.376000000000001</v>
       </c>
       <c r="I10">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1604,33 +1616,33 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11">
-        <v>14.907999999999999</v>
+        <v>15.321999999999999</v>
       </c>
       <c r="I11">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="J11">
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1642,33 +1654,33 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>22.414000000000001</v>
+        <v>23.04</v>
       </c>
       <c r="I12">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="J12">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1680,33 +1692,33 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>19.346</v>
+        <v>19.608000000000001</v>
       </c>
       <c r="I13">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="J13">
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1715,36 +1727,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>11.984</v>
+        <v>12.061999999999999</v>
       </c>
       <c r="I14">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1756,33 +1768,33 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>15.186</v>
+        <v>15.43</v>
       </c>
       <c r="I15">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="J15">
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1791,36 +1803,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H16">
-        <v>12.147</v>
+        <v>12.459</v>
       </c>
       <c r="I16">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1832,33 +1844,33 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H17">
-        <v>23.498000000000001</v>
+        <v>24.027000000000001</v>
       </c>
       <c r="I17">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1870,33 +1882,33 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H18">
-        <v>14.321999999999999</v>
+        <v>14.779</v>
       </c>
       <c r="I18">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1908,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ABFE25F-C2AB-406A-9472-AA3792019971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D098FD7A-3864-4B96-B353-4DA2FB513C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250920 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250922 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Collector</t>
   </si>
@@ -67,142 +67,142 @@
     <t>S2</t>
   </si>
   <si>
-    <t>41,259,415.00</t>
-  </si>
-  <si>
-    <t>389,618,385.00</t>
-  </si>
-  <si>
-    <t>10.59</t>
-  </si>
-  <si>
-    <t>9.21</t>
-  </si>
-  <si>
-    <t>6.12</t>
+    <t>41,294,237.00</t>
+  </si>
+  <si>
+    <t>411,245,373.00</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>8.54</t>
+  </si>
+  <si>
+    <t>5.51</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>36,671,431.00</t>
-  </si>
-  <si>
-    <t>383,088,000.00</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>2.49</t>
-  </si>
-  <si>
-    <t>3.94</t>
+    <t>39,526,835.00</t>
+  </si>
+  <si>
+    <t>405,827,233.00</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>3.54</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>26,880,737.00</t>
-  </si>
-  <si>
-    <t>395,616,117.00</t>
-  </si>
-  <si>
-    <t>6.79</t>
-  </si>
-  <si>
-    <t>5.03</t>
-  </si>
-  <si>
-    <t>5.74</t>
+    <t>27,068,237.00</t>
+  </si>
+  <si>
+    <t>422,894,194.00</t>
+  </si>
+  <si>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>4.59</t>
+  </si>
+  <si>
+    <t>5.16</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>33,400,674.00</t>
-  </si>
-  <si>
-    <t>358,267,731.00</t>
-  </si>
-  <si>
-    <t>9.32</t>
-  </si>
-  <si>
-    <t>5.06</t>
-  </si>
-  <si>
-    <t>5.72</t>
+    <t>33,738,100.00</t>
+  </si>
+  <si>
+    <t>387,536,941.00</t>
+  </si>
+  <si>
+    <t>8.71</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>5.09</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>32,500,458.00</t>
-  </si>
-  <si>
-    <t>370,220,959.00</t>
-  </si>
-  <si>
-    <t>8.78</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.04</t>
+    <t>32,837,976.00</t>
+  </si>
+  <si>
+    <t>396,760,776.00</t>
+  </si>
+  <si>
+    <t>8.28</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.73</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>41,871,931.00</t>
-  </si>
-  <si>
-    <t>406,214,480.00</t>
-  </si>
-  <si>
-    <t>10.31</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>4.56</t>
+    <t>43,325,547.00</t>
+  </si>
+  <si>
+    <t>434,677,457.00</t>
+  </si>
+  <si>
+    <t>9.97</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>4.36</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>45,786,096.00</t>
-  </si>
-  <si>
-    <t>381,376,141.00</t>
-  </si>
-  <si>
-    <t>12.01</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>5.25</t>
+    <t>46,989,782.00</t>
+  </si>
+  <si>
+    <t>404,280,298.00</t>
+  </si>
+  <si>
+    <t>11.62</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>4.71</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>38,639,329.00</t>
-  </si>
-  <si>
-    <t>427,498,587.00</t>
-  </si>
-  <si>
-    <t>9.04</t>
-  </si>
-  <si>
-    <t>4.32</t>
+    <t>41,054,027.00</t>
+  </si>
+  <si>
+    <t>452,036,345.00</t>
+  </si>
+  <si>
+    <t>9.08</t>
+  </si>
+  <si>
+    <t>4.11</t>
   </si>
   <si>
     <t>2.71</t>
@@ -211,145 +211,142 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>18,923,984.00</t>
-  </si>
-  <si>
-    <t>341,191,913.00</t>
-  </si>
-  <si>
-    <t>5.55</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>2.65</t>
+    <t>21,016,495.00</t>
+  </si>
+  <si>
+    <t>362,278,337.00</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.33</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>48,209,748.00</t>
-  </si>
-  <si>
-    <t>383,910,226.00</t>
-  </si>
-  <si>
-    <t>12.56</t>
-  </si>
-  <si>
-    <t>9.46</t>
-  </si>
-  <si>
-    <t>6.73</t>
+    <t>53,995,747.00</t>
+  </si>
+  <si>
+    <t>417,825,945.00</t>
+  </si>
+  <si>
+    <t>12.92</t>
+  </si>
+  <si>
+    <t>8.72</t>
+  </si>
+  <si>
+    <t>6.59</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>30,381,661.00</t>
-  </si>
-  <si>
-    <t>376,834,676.00</t>
-  </si>
-  <si>
-    <t>8.06</t>
-  </si>
-  <si>
-    <t>4.74</t>
-  </si>
-  <si>
-    <t>5.14</t>
+    <t>31,879,325.00</t>
+  </si>
+  <si>
+    <t>405,599,379.00</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>4.61</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>32,908,908.00</t>
-  </si>
-  <si>
-    <t>390,335,562.00</t>
-  </si>
-  <si>
-    <t>8.43</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.38</t>
+    <t>35,221,322.00</t>
+  </si>
+  <si>
+    <t>416,713,765.00</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.05</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>48,655,390.00</t>
-  </si>
-  <si>
-    <t>376,779,839.00</t>
-  </si>
-  <si>
-    <t>12.91</t>
-  </si>
-  <si>
-    <t>9.89</t>
-  </si>
-  <si>
-    <t>3.99</t>
+    <t>50,503,182.00</t>
+  </si>
+  <si>
+    <t>403,541,958.00</t>
+  </si>
+  <si>
+    <t>12.51</t>
+  </si>
+  <si>
+    <t>9.05</t>
+  </si>
+  <si>
+    <t>3.57</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>29,368,835.00</t>
-  </si>
-  <si>
-    <t>390,760,194.00</t>
-  </si>
-  <si>
-    <t>7.52</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.65</t>
+    <t>30,316,144.00</t>
+  </si>
+  <si>
+    <t>418,308,269.00</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>3.28</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>34,919,292.00</t>
-  </si>
-  <si>
-    <t>383,189,468.00</t>
-  </si>
-  <si>
-    <t>9.11</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>3.63</t>
+    <t>35,940,644.00</t>
+  </si>
+  <si>
+    <t>413,630,004.00</t>
+  </si>
+  <si>
+    <t>8.69</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>3.26</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>35,780,349.00</t>
-  </si>
-  <si>
-    <t>369,862,031.00</t>
-  </si>
-  <si>
-    <t>9.67</t>
-  </si>
-  <si>
-    <t>3.66</t>
-  </si>
-  <si>
-    <t>4.29</t>
+    <t>36,618,633.00</t>
+  </si>
+  <si>
+    <t>403,648,691.00</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>3.86</t>
   </si>
   <si>
     <t>Nuraini</t>
@@ -358,16 +355,16 @@
     <t>26,408,642.00</t>
   </si>
   <si>
-    <t>320,145,256.00</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>2.47</t>
-  </si>
-  <si>
-    <t>1.74</t>
+    <t>350,680,507.00</t>
+  </si>
+  <si>
+    <t>7.53</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>1.50</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1271,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1283,10 +1280,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>22.542999999999999</v>
+        <v>23.137</v>
       </c>
       <c r="I2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="J2">
         <v>20</v>
@@ -1309,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1321,10 +1318,10 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>26.824999999999999</v>
+        <v>26.97</v>
       </c>
       <c r="I3">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -1347,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1359,10 +1356,10 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>17.329000000000001</v>
+        <v>17.763999999999999</v>
       </c>
       <c r="I4">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J4">
         <v>19</v>
@@ -1385,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1397,10 +1394,10 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>23.777000000000001</v>
+        <v>23.954999999999998</v>
       </c>
       <c r="I5">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J5">
         <v>17</v>
@@ -1423,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1435,10 +1432,10 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>17.896000000000001</v>
+        <v>18.266999999999999</v>
       </c>
       <c r="I6">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1461,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1473,13 +1470,13 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>13.56</v>
+        <v>13.863</v>
       </c>
       <c r="I7">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1499,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1511,10 +1508,10 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>27.533000000000001</v>
+        <v>28.106999999999999</v>
       </c>
       <c r="I8">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="J8">
         <v>17</v>
@@ -1537,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1549,13 +1546,13 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>15.49</v>
+        <v>15.877000000000001</v>
       </c>
       <c r="I9">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
         <v>60</v>
@@ -1575,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1587,10 +1584,10 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>16.376000000000001</v>
+        <v>16.553000000000001</v>
       </c>
       <c r="I10">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -1613,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1625,13 +1622,13 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>15.321999999999999</v>
+        <v>15.552</v>
       </c>
       <c r="I11">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
         <v>72</v>
@@ -1651,7 +1648,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1663,10 +1660,10 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>23.04</v>
+        <v>23.591000000000001</v>
       </c>
       <c r="I12">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="J12">
         <v>17</v>
@@ -1689,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
@@ -1701,10 +1698,10 @@
         <v>83</v>
       </c>
       <c r="H13">
-        <v>19.608000000000001</v>
+        <v>19.905999999999999</v>
       </c>
       <c r="I13">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="J13">
         <v>11</v>
@@ -1727,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1739,10 +1736,10 @@
         <v>89</v>
       </c>
       <c r="H14">
-        <v>12.061999999999999</v>
+        <v>12.093</v>
       </c>
       <c r="I14">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1765,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1777,10 +1774,10 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>15.43</v>
+        <v>15.638999999999999</v>
       </c>
       <c r="I15">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -1803,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>99</v>
@@ -1815,10 +1812,10 @@
         <v>101</v>
       </c>
       <c r="H16">
-        <v>12.459</v>
+        <v>12.648999999999999</v>
       </c>
       <c r="I16">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -1841,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>105</v>
@@ -1853,24 +1850,24 @@
         <v>107</v>
       </c>
       <c r="H17">
-        <v>24.027000000000001</v>
+        <v>24.39</v>
       </c>
       <c r="I17">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="J17">
         <v>14</v>
       </c>
       <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1882,33 +1879,33 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>112</v>
       </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
       <c r="H18">
-        <v>14.779</v>
+        <v>14.805</v>
       </c>
       <c r="I18">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
       <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" t="s">
         <v>114</v>
-      </c>
-      <c r="L18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1920,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D098FD7A-3864-4B96-B353-4DA2FB513C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFABEE4-30C6-4691-9E07-5BF9046ED8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250922 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250922 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -85,16 +85,16 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>39,526,835.00</t>
+    <t>41,872,816.00</t>
   </si>
   <si>
     <t>405,827,233.00</t>
   </si>
   <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>2.30</t>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>2.71</t>
   </si>
   <si>
     <t>3.54</t>
@@ -103,13 +103,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>27,068,237.00</t>
+    <t>27,483,487.00</t>
   </si>
   <si>
     <t>422,894,194.00</t>
   </si>
   <si>
-    <t>6.40</t>
+    <t>6.50</t>
   </si>
   <si>
     <t>4.59</t>
@@ -121,34 +121,34 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>33,738,100.00</t>
+    <t>34,125,756.00</t>
   </si>
   <si>
     <t>387,536,941.00</t>
   </si>
   <si>
-    <t>8.71</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>5.09</t>
+    <t>8.81</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>5.39</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>32,837,976.00</t>
+    <t>33,239,390.00</t>
   </si>
   <si>
     <t>396,760,776.00</t>
   </si>
   <si>
-    <t>8.28</t>
-  </si>
-  <si>
-    <t>2.53</t>
+    <t>8.38</t>
+  </si>
+  <si>
+    <t>2.67</t>
   </si>
   <si>
     <t>2.73</t>
@@ -157,211 +157,211 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>43,325,547.00</t>
+    <t>44,421,609.00</t>
   </si>
   <si>
     <t>434,677,457.00</t>
   </si>
   <si>
-    <t>9.97</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>4.36</t>
+    <t>10.22</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>4.63</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>46,989,782.00</t>
+    <t>47,825,808.00</t>
   </si>
   <si>
     <t>404,280,298.00</t>
   </si>
   <si>
-    <t>11.62</t>
+    <t>11.83</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>41,209,531.00</t>
+  </si>
+  <si>
+    <t>452,036,345.00</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>21,774,054.00</t>
+  </si>
+  <si>
+    <t>362,278,337.00</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>53,995,747.00</t>
+  </si>
+  <si>
+    <t>417,825,945.00</t>
+  </si>
+  <si>
+    <t>12.92</t>
+  </si>
+  <si>
+    <t>8.72</t>
+  </si>
+  <si>
+    <t>6.59</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>32,086,670.00</t>
+  </si>
+  <si>
+    <t>405,599,379.00</t>
+  </si>
+  <si>
+    <t>7.91</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>35,720,024.00</t>
+  </si>
+  <si>
+    <t>416,713,765.00</t>
+  </si>
+  <si>
+    <t>8.57</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>51,645,672.00</t>
+  </si>
+  <si>
+    <t>403,541,958.00</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>9.22</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>31,328,643.00</t>
+  </si>
+  <si>
+    <t>418,308,269.00</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>36,869,469.00</t>
+  </si>
+  <si>
+    <t>413,630,004.00</t>
+  </si>
+  <si>
+    <t>8.91</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>36,618,633.00</t>
+  </si>
+  <si>
+    <t>403,648,691.00</t>
+  </si>
+  <si>
+    <t>9.07</t>
   </si>
   <si>
     <t>3.23</t>
   </si>
   <si>
-    <t>4.71</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>41,054,027.00</t>
-  </si>
-  <si>
-    <t>452,036,345.00</t>
-  </si>
-  <si>
-    <t>9.08</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>21,016,495.00</t>
-  </si>
-  <si>
-    <t>362,278,337.00</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>53,995,747.00</t>
-  </si>
-  <si>
-    <t>417,825,945.00</t>
-  </si>
-  <si>
-    <t>12.92</t>
-  </si>
-  <si>
-    <t>8.72</t>
-  </si>
-  <si>
-    <t>6.59</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>31,879,325.00</t>
-  </si>
-  <si>
-    <t>405,599,379.00</t>
-  </si>
-  <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
-    <t>4.61</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>35,221,322.00</t>
-  </si>
-  <si>
-    <t>416,713,765.00</t>
-  </si>
-  <si>
-    <t>8.45</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>50,503,182.00</t>
-  </si>
-  <si>
-    <t>403,541,958.00</t>
-  </si>
-  <si>
-    <t>12.51</t>
-  </si>
-  <si>
-    <t>9.05</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>30,316,144.00</t>
-  </si>
-  <si>
-    <t>418,308,269.00</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>3.02</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>35,940,644.00</t>
-  </si>
-  <si>
-    <t>413,630,004.00</t>
-  </si>
-  <si>
-    <t>8.69</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>36,618,633.00</t>
-  </si>
-  <si>
-    <t>403,648,691.00</t>
-  </si>
-  <si>
-    <t>9.07</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>26,408,642.00</t>
+    <t>29,726,602.00</t>
   </si>
   <si>
     <t>350,680,507.00</t>
   </si>
   <si>
-    <t>7.53</t>
-  </si>
-  <si>
-    <t>2.11</t>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>2.21</t>
   </si>
   <si>
     <t>1.50</t>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>23.137</v>
+        <v>23.837</v>
       </c>
       <c r="I2">
         <v>363</v>
@@ -1306,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>26.97</v>
+        <v>27.132999999999999</v>
       </c>
       <c r="I3">
         <v>367</v>
@@ -1344,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1356,7 +1356,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>17.763999999999999</v>
+        <v>20.283999999999999</v>
       </c>
       <c r="I4">
         <v>368</v>
@@ -1382,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1394,13 +1394,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>23.954999999999998</v>
+        <v>24.484000000000002</v>
       </c>
       <c r="I5">
         <v>334</v>
       </c>
       <c r="J5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1432,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>18.266999999999999</v>
+        <v>18.635999999999999</v>
       </c>
       <c r="I6">
         <v>366</v>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1470,13 +1470,13 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>13.863</v>
+        <v>14.108000000000001</v>
       </c>
       <c r="I7">
         <v>367</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1508,13 +1508,13 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>28.106999999999999</v>
+        <v>28.977</v>
       </c>
       <c r="I8">
         <v>361</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>54</v>
@@ -1534,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1546,13 +1546,13 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>15.877000000000001</v>
+        <v>16.196999999999999</v>
       </c>
       <c r="I9">
         <v>369</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
         <v>60</v>
@@ -1572,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1584,7 +1584,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>16.553000000000001</v>
+        <v>16.794</v>
       </c>
       <c r="I10">
         <v>301</v>
@@ -1622,7 +1622,7 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>15.552</v>
+        <v>15.571</v>
       </c>
       <c r="I11">
         <v>364</v>
@@ -1648,7 +1648,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1660,13 +1660,13 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>23.591000000000001</v>
+        <v>24.073</v>
       </c>
       <c r="I12">
         <v>369</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
         <v>78</v>
@@ -1686,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
@@ -1698,7 +1698,7 @@
         <v>83</v>
       </c>
       <c r="H13">
-        <v>19.905999999999999</v>
+        <v>20.161000000000001</v>
       </c>
       <c r="I13">
         <v>361</v>
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1736,7 +1736,7 @@
         <v>89</v>
       </c>
       <c r="H14">
-        <v>12.093</v>
+        <v>12.326000000000001</v>
       </c>
       <c r="I14">
         <v>364</v>
@@ -1762,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1774,13 +1774,13 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>15.638999999999999</v>
+        <v>16.184000000000001</v>
       </c>
       <c r="I15">
         <v>366</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
         <v>96</v>
@@ -1800,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
         <v>99</v>
@@ -1812,24 +1812,24 @@
         <v>101</v>
       </c>
       <c r="H16">
-        <v>12.648999999999999</v>
+        <v>12.946999999999999</v>
       </c>
       <c r="I16">
         <v>368</v>
       </c>
       <c r="J16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
         <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1841,16 +1841,16 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>106</v>
       </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
       <c r="H17">
-        <v>24.39</v>
+        <v>25.045000000000002</v>
       </c>
       <c r="I17">
         <v>363</v>
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s">
         <v>108</v>
@@ -1876,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>110</v>
@@ -1888,7 +1888,7 @@
         <v>112</v>
       </c>
       <c r="H18">
-        <v>14.805</v>
+        <v>15.343</v>
       </c>
       <c r="I18">
         <v>267</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFABEE4-30C6-4691-9E07-5BF9046ED8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B3BBEF-BD1B-47EB-8555-DCA8C54854F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250922 (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250922 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -139,19 +139,19 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>33,239,390.00</t>
+    <t>33,923,378.00</t>
   </si>
   <si>
     <t>396,760,776.00</t>
   </si>
   <si>
-    <t>8.38</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.73</t>
+    <t>8.55</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>3.01</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
@@ -211,19 +211,19 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>21,774,054.00</t>
+    <t>22,161,710.00</t>
   </si>
   <si>
     <t>362,278,337.00</t>
   </si>
   <si>
-    <t>6.01</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>2.33</t>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>2.66</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
@@ -283,70 +283,70 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>51,645,672.00</t>
+    <t>56,183,871.00</t>
   </si>
   <si>
     <t>403,541,958.00</t>
   </si>
   <si>
-    <t>12.80</t>
-  </si>
-  <si>
-    <t>9.22</t>
-  </si>
-  <si>
-    <t>3.57</t>
+    <t>13.92</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>3.85</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>31,328,643.00</t>
+    <t>31,484,147.00</t>
   </si>
   <si>
     <t>418,308,269.00</t>
   </si>
   <si>
-    <t>7.49</t>
+    <t>7.53</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>36,869,469.00</t>
+  </si>
+  <si>
+    <t>413,630,004.00</t>
+  </si>
+  <si>
+    <t>8.91</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>36,941,991.00</t>
+  </si>
+  <si>
+    <t>403,648,691.00</t>
+  </si>
+  <si>
+    <t>9.15</t>
   </si>
   <si>
     <t>3.34</t>
   </si>
   <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>36,869,469.00</t>
-  </si>
-  <si>
-    <t>413,630,004.00</t>
-  </si>
-  <si>
-    <t>8.91</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>36,618,633.00</t>
-  </si>
-  <si>
-    <t>403,648,691.00</t>
-  </si>
-  <si>
-    <t>9.07</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>3.86</t>
+    <t>4.13</t>
   </si>
   <si>
     <t>Nuraini</t>
@@ -361,10 +361,10 @@
     <t>8.48</t>
   </si>
   <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>1.50</t>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>2.25</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>23.837</v>
+        <v>24.861000000000001</v>
       </c>
       <c r="I2">
         <v>363</v>
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>27.132999999999999</v>
+        <v>27.838000000000001</v>
       </c>
       <c r="I3">
         <v>367</v>
@@ -1356,7 +1356,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>20.283999999999999</v>
+        <v>21.486999999999998</v>
       </c>
       <c r="I4">
         <v>368</v>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>24.484000000000002</v>
+        <v>24.879000000000001</v>
       </c>
       <c r="I5">
         <v>334</v>
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1432,13 +1432,13 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>18.635999999999999</v>
+        <v>19.175999999999998</v>
       </c>
       <c r="I6">
         <v>366</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -1470,7 +1470,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>14.108000000000001</v>
+        <v>14.586</v>
       </c>
       <c r="I7">
         <v>367</v>
@@ -1508,7 +1508,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>28.977</v>
+        <v>29.952000000000002</v>
       </c>
       <c r="I8">
         <v>361</v>
@@ -1546,7 +1546,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>16.196999999999999</v>
+        <v>16.343</v>
       </c>
       <c r="I9">
         <v>369</v>
@@ -1572,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1584,13 +1584,13 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>16.794</v>
+        <v>17.731999999999999</v>
       </c>
       <c r="I10">
         <v>301</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
         <v>66</v>
@@ -1622,7 +1622,7 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>15.571</v>
+        <v>15.988</v>
       </c>
       <c r="I11">
         <v>364</v>
@@ -1660,7 +1660,7 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>24.073</v>
+        <v>24.817</v>
       </c>
       <c r="I12">
         <v>369</v>
@@ -1698,7 +1698,7 @@
         <v>83</v>
       </c>
       <c r="H13">
-        <v>20.161000000000001</v>
+        <v>20.555</v>
       </c>
       <c r="I13">
         <v>361</v>
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1736,13 +1736,13 @@
         <v>89</v>
       </c>
       <c r="H14">
-        <v>12.326000000000001</v>
+        <v>12.579000000000001</v>
       </c>
       <c r="I14">
         <v>364</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
         <v>90</v>
@@ -1762,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1774,13 +1774,13 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>16.184000000000001</v>
+        <v>16.283999999999999</v>
       </c>
       <c r="I15">
         <v>366</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
         <v>96</v>
@@ -1812,7 +1812,7 @@
         <v>101</v>
       </c>
       <c r="H16">
-        <v>12.946999999999999</v>
+        <v>13.106999999999999</v>
       </c>
       <c r="I16">
         <v>368</v>
@@ -1838,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>104</v>
@@ -1850,13 +1850,13 @@
         <v>106</v>
       </c>
       <c r="H17">
-        <v>25.045000000000002</v>
+        <v>25.387</v>
       </c>
       <c r="I17">
         <v>363</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
         <v>107</v>
@@ -1888,13 +1888,13 @@
         <v>112</v>
       </c>
       <c r="H18">
-        <v>15.343</v>
+        <v>16.238</v>
       </c>
       <c r="I18">
         <v>267</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
         <v>113</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B3BBEF-BD1B-47EB-8555-DCA8C54854F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC1EAF8-36F4-496E-83B2-7845F6A3C72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250922 (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250923" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>41,294,237.00</t>
+    <t>43,403,887.00</t>
   </si>
   <si>
     <t>411,245,373.00</t>
   </si>
   <si>
-    <t>10.04</t>
+    <t>10.55</t>
   </si>
   <si>
     <t>8.54</t>
@@ -85,13 +85,13 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>41,872,816.00</t>
+    <t>43,873,397.00</t>
   </si>
   <si>
     <t>405,827,233.00</t>
   </si>
   <si>
-    <t>10.32</t>
+    <t>10.81</t>
   </si>
   <si>
     <t>2.71</t>
@@ -103,37 +103,37 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>27,483,487.00</t>
+    <t>28,345,210.00</t>
   </si>
   <si>
     <t>422,894,194.00</t>
   </si>
   <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>5.16</t>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>5.43</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>34,125,756.00</t>
+    <t>35,130,384.00</t>
   </si>
   <si>
     <t>387,536,941.00</t>
   </si>
   <si>
-    <t>8.81</t>
-  </si>
-  <si>
-    <t>4.66</t>
-  </si>
-  <si>
-    <t>5.39</t>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>5.69</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
@@ -157,34 +157,34 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>44,421,609.00</t>
+    <t>45,216,429.00</t>
   </si>
   <si>
     <t>434,677,457.00</t>
   </si>
   <si>
-    <t>10.22</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>4.63</t>
+    <t>10.40</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>4.90</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>47,825,808.00</t>
+    <t>48,832,401.00</t>
   </si>
   <si>
     <t>404,280,298.00</t>
   </si>
   <si>
-    <t>11.83</t>
-  </si>
-  <si>
-    <t>3.53</t>
+    <t>12.08</t>
+  </si>
+  <si>
+    <t>3.61</t>
   </si>
   <si>
     <t>4.99</t>
@@ -193,13 +193,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>41,209,531.00</t>
+    <t>41,504,223.00</t>
   </si>
   <si>
     <t>452,036,345.00</t>
   </si>
   <si>
-    <t>9.12</t>
+    <t>9.18</t>
   </si>
   <si>
     <t>4.15</t>
@@ -211,13 +211,13 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>22,161,710.00</t>
+    <t>24,747,676.00</t>
   </si>
   <si>
     <t>362,278,337.00</t>
   </si>
   <si>
-    <t>6.12</t>
+    <t>6.83</t>
   </si>
   <si>
     <t>3.03</t>
@@ -247,19 +247,19 @@
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>32,086,670.00</t>
+    <t>34,024,953.00</t>
   </si>
   <si>
     <t>405,599,379.00</t>
   </si>
   <si>
-    <t>7.91</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>4.88</t>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>5.15</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -283,13 +283,13 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>56,183,871.00</t>
+    <t>56,632,594.00</t>
   </si>
   <si>
     <t>403,541,958.00</t>
   </si>
   <si>
-    <t>13.92</t>
+    <t>14.03</t>
   </si>
   <si>
     <t>9.27</t>
@@ -319,16 +319,19 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>36,869,469.00</t>
+    <t>37,171,494.00</t>
   </si>
   <si>
     <t>413,630,004.00</t>
   </si>
   <si>
-    <t>8.91</t>
-  </si>
-  <si>
-    <t>2.68</t>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>3.80</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -352,16 +355,16 @@
     <t>Nuraini</t>
   </si>
   <si>
-    <t>29,726,602.00</t>
+    <t>29,826,602.00</t>
   </si>
   <si>
     <t>350,680,507.00</t>
   </si>
   <si>
-    <t>8.48</t>
-  </si>
-  <si>
-    <t>3.63</t>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>3.67</t>
   </si>
   <si>
     <t>2.25</t>
@@ -1268,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1280,7 +1283,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>24.861000000000001</v>
+        <v>25.071000000000002</v>
       </c>
       <c r="I2">
         <v>363</v>
@@ -1306,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1318,7 +1321,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>27.838000000000001</v>
+        <v>27.951000000000001</v>
       </c>
       <c r="I3">
         <v>367</v>
@@ -1344,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1356,13 +1359,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>21.486999999999998</v>
+        <v>21.809000000000001</v>
       </c>
       <c r="I4">
         <v>368</v>
       </c>
       <c r="J4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1382,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1394,13 +1397,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>24.879000000000001</v>
+        <v>24.911999999999999</v>
       </c>
       <c r="I5">
         <v>334</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1432,7 +1435,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>19.175999999999998</v>
+        <v>19.428999999999998</v>
       </c>
       <c r="I6">
         <v>366</v>
@@ -1458,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1470,13 +1473,13 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>14.586</v>
+        <v>14.664</v>
       </c>
       <c r="I7">
         <v>367</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1496,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1508,7 +1511,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>29.952000000000002</v>
+        <v>30.324000000000002</v>
       </c>
       <c r="I8">
         <v>361</v>
@@ -1534,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1546,7 +1549,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>16.343</v>
+        <v>16.431999999999999</v>
       </c>
       <c r="I9">
         <v>369</v>
@@ -1572,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1584,7 +1587,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>17.731999999999999</v>
+        <v>17.896999999999998</v>
       </c>
       <c r="I10">
         <v>301</v>
@@ -1622,7 +1625,7 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>15.988</v>
+        <v>16.228000000000002</v>
       </c>
       <c r="I11">
         <v>364</v>
@@ -1660,13 +1663,13 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>24.817</v>
+        <v>25.081</v>
       </c>
       <c r="I12">
         <v>369</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
         <v>78</v>
@@ -1698,7 +1701,7 @@
         <v>83</v>
       </c>
       <c r="H13">
-        <v>20.555</v>
+        <v>20.81</v>
       </c>
       <c r="I13">
         <v>361</v>
@@ -1724,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1762,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1774,7 +1777,7 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>16.283999999999999</v>
+        <v>16.532</v>
       </c>
       <c r="I15">
         <v>366</v>
@@ -1800,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>99</v>
@@ -1812,24 +1815,24 @@
         <v>101</v>
       </c>
       <c r="H16">
-        <v>13.106999999999999</v>
+        <v>13.183999999999999</v>
       </c>
       <c r="I16">
         <v>368</v>
       </c>
       <c r="J16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
         <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1841,13 +1844,13 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17">
         <v>25.387</v>
@@ -1859,15 +1862,15 @@
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1876,19 +1879,19 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18">
-        <v>16.238</v>
+        <v>16.669</v>
       </c>
       <c r="I18">
         <v>267</v>
@@ -1897,15 +1900,15 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1917,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC1EAF8-36F4-496E-83B2-7845F6A3C72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{500E93C3-E48D-473B-AEB0-7BEB2D6D4479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250923" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250923 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Collector</t>
   </si>
@@ -67,271 +67,271 @@
     <t>S2</t>
   </si>
   <si>
-    <t>43,403,887.00</t>
-  </si>
-  <si>
-    <t>411,245,373.00</t>
-  </si>
-  <si>
-    <t>10.55</t>
-  </si>
-  <si>
-    <t>8.54</t>
-  </si>
-  <si>
-    <t>5.51</t>
+    <t>43,883,506.00</t>
+  </si>
+  <si>
+    <t>422,804,876.00</t>
+  </si>
+  <si>
+    <t>10.38</t>
+  </si>
+  <si>
+    <t>8.22</t>
+  </si>
+  <si>
+    <t>5.26</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>43,873,397.00</t>
-  </si>
-  <si>
-    <t>405,827,233.00</t>
-  </si>
-  <si>
-    <t>10.81</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>3.54</t>
+    <t>44,620,548.00</t>
+  </si>
+  <si>
+    <t>416,855,079.00</t>
+  </si>
+  <si>
+    <t>10.70</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>3.39</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>28,345,210.00</t>
-  </si>
-  <si>
-    <t>422,894,194.00</t>
-  </si>
-  <si>
-    <t>6.70</t>
+    <t>32,236,598.00</t>
+  </si>
+  <si>
+    <t>440,269,658.00</t>
+  </si>
+  <si>
+    <t>7.32</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>35,655,384.00</t>
+  </si>
+  <si>
+    <t>398,922,975.00</t>
+  </si>
+  <si>
+    <t>8.94</t>
+  </si>
+  <si>
+    <t>4.67</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>33,923,378.00</t>
+  </si>
+  <si>
+    <t>413,417,208.00</t>
+  </si>
+  <si>
+    <t>8.21</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>45,216,429.00</t>
+  </si>
+  <si>
+    <t>445,762,687.00</t>
+  </si>
+  <si>
+    <t>10.14</t>
+  </si>
+  <si>
+    <t>4.16</t>
   </si>
   <si>
     <t>4.68</t>
   </si>
   <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>35,130,384.00</t>
-  </si>
-  <si>
-    <t>387,536,941.00</t>
-  </si>
-  <si>
-    <t>9.07</t>
-  </si>
-  <si>
-    <t>4.86</t>
-  </si>
-  <si>
-    <t>5.69</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>33,923,378.00</t>
-  </si>
-  <si>
-    <t>396,760,776.00</t>
-  </si>
-  <si>
-    <t>8.55</t>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>48,832,401.00</t>
+  </si>
+  <si>
+    <t>417,983,847.00</t>
+  </si>
+  <si>
+    <t>11.68</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>41,504,223.00</t>
+  </si>
+  <si>
+    <t>465,851,727.00</t>
+  </si>
+  <si>
+    <t>8.91</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>25,762,213.00</t>
+  </si>
+  <si>
+    <t>375,977,817.00</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>54,448,258.00</t>
+  </si>
+  <si>
+    <t>431,004,003.00</t>
+  </si>
+  <si>
+    <t>12.63</t>
+  </si>
+  <si>
+    <t>8.36</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>35,629,650.00</t>
+  </si>
+  <si>
+    <t>418,564,715.00</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>36,170,024.00</t>
+  </si>
+  <si>
+    <t>429,733,887.00</t>
+  </si>
+  <si>
+    <t>8.42</t>
+  </si>
+  <si>
+    <t>3.32</t>
   </si>
   <si>
     <t>2.91</t>
   </si>
   <si>
-    <t>3.01</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>45,216,429.00</t>
-  </si>
-  <si>
-    <t>434,677,457.00</t>
-  </si>
-  <si>
-    <t>10.40</t>
-  </si>
-  <si>
-    <t>4.32</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>48,832,401.00</t>
-  </si>
-  <si>
-    <t>404,280,298.00</t>
-  </si>
-  <si>
-    <t>12.08</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>41,504,223.00</t>
-  </si>
-  <si>
-    <t>452,036,345.00</t>
-  </si>
-  <si>
-    <t>9.18</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>24,747,676.00</t>
-  </si>
-  <si>
-    <t>362,278,337.00</t>
-  </si>
-  <si>
-    <t>6.83</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>53,995,747.00</t>
-  </si>
-  <si>
-    <t>417,825,945.00</t>
-  </si>
-  <si>
-    <t>12.92</t>
-  </si>
-  <si>
-    <t>8.72</t>
-  </si>
-  <si>
-    <t>6.59</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>34,024,953.00</t>
-  </si>
-  <si>
-    <t>405,599,379.00</t>
-  </si>
-  <si>
-    <t>8.39</t>
-  </si>
-  <si>
-    <t>4.96</t>
-  </si>
-  <si>
-    <t>5.15</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>35,720,024.00</t>
-  </si>
-  <si>
-    <t>416,713,765.00</t>
-  </si>
-  <si>
-    <t>8.57</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>56,632,594.00</t>
-  </si>
-  <si>
-    <t>403,541,958.00</t>
-  </si>
-  <si>
-    <t>14.03</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>3.85</t>
+    <t>56,976,654.00</t>
+  </si>
+  <si>
+    <t>419,621,226.00</t>
+  </si>
+  <si>
+    <t>13.58</t>
+  </si>
+  <si>
+    <t>8.82</t>
+  </si>
+  <si>
+    <t>3.67</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>31,484,147.00</t>
-  </si>
-  <si>
-    <t>418,308,269.00</t>
-  </si>
-  <si>
-    <t>7.53</t>
-  </si>
-  <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>3.83</t>
+    <t>32,210,838.00</t>
+  </si>
+  <si>
+    <t>429,764,570.00</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.66</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>37,171,494.00</t>
-  </si>
-  <si>
-    <t>413,630,004.00</t>
-  </si>
-  <si>
-    <t>8.99</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>3.80</t>
+    <t>37,698,549.00</t>
+  </si>
+  <si>
+    <t>425,383,372.00</t>
+  </si>
+  <si>
+    <t>8.86</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>3.64</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
@@ -340,16 +340,13 @@
     <t>36,941,991.00</t>
   </si>
   <si>
-    <t>403,648,691.00</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>4.13</t>
+    <t>418,768,511.00</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>3.95</t>
   </si>
   <si>
     <t>Nuraini</t>
@@ -358,16 +355,16 @@
     <t>29,826,602.00</t>
   </si>
   <si>
-    <t>350,680,507.00</t>
-  </si>
-  <si>
-    <t>8.51</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>2.25</t>
+    <t>361,771,764.00</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>2.11</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1217,10 +1214,24 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1271,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1283,10 +1294,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>25.071000000000002</v>
+        <v>25.734999999999999</v>
       </c>
       <c r="I2">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="J2">
         <v>20</v>
@@ -1309,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1321,10 +1332,10 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>27.951000000000001</v>
+        <v>28.766999999999999</v>
       </c>
       <c r="I3">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -1347,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1359,13 +1370,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>21.809000000000001</v>
+        <v>22.446000000000002</v>
       </c>
       <c r="I4">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1385,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1397,10 +1408,10 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>24.911999999999999</v>
+        <v>24.966000000000001</v>
       </c>
       <c r="I5">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="J5">
         <v>19</v>
@@ -1435,10 +1446,10 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>19.428999999999998</v>
+        <v>19.526</v>
       </c>
       <c r="I6">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J6">
         <v>11</v>
@@ -1473,10 +1484,10 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>14.664</v>
+        <v>15.157</v>
       </c>
       <c r="I7">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="J7">
         <v>18</v>
@@ -1511,10 +1522,10 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>30.324000000000002</v>
+        <v>31.472999999999999</v>
       </c>
       <c r="I8">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="J8">
         <v>18</v>
@@ -1549,10 +1560,10 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>16.431999999999999</v>
+        <v>16.658999999999999</v>
       </c>
       <c r="I9">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="J9">
         <v>11</v>
@@ -1575,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1587,10 +1598,10 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>17.896999999999998</v>
+        <v>17.948</v>
       </c>
       <c r="I10">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1613,7 +1624,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1625,10 +1636,10 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>16.228000000000002</v>
+        <v>16.463000000000001</v>
       </c>
       <c r="I11">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="J11">
         <v>24</v>
@@ -1651,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1663,13 +1674,13 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>25.081</v>
+        <v>26.434999999999999</v>
       </c>
       <c r="I12">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="J12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
         <v>78</v>
@@ -1689,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
@@ -1701,10 +1712,10 @@
         <v>83</v>
       </c>
       <c r="H13">
-        <v>20.81</v>
+        <v>21.181000000000001</v>
       </c>
       <c r="I13">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="J13">
         <v>11</v>
@@ -1727,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1739,10 +1750,10 @@
         <v>89</v>
       </c>
       <c r="H14">
-        <v>12.579000000000001</v>
+        <v>12.688000000000001</v>
       </c>
       <c r="I14">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="J14">
         <v>14</v>
@@ -1765,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
@@ -1777,10 +1788,10 @@
         <v>95</v>
       </c>
       <c r="H15">
-        <v>16.532</v>
+        <v>16.576000000000001</v>
       </c>
       <c r="I15">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1803,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>99</v>
@@ -1815,10 +1826,10 @@
         <v>101</v>
       </c>
       <c r="H16">
-        <v>13.183999999999999</v>
+        <v>13.221</v>
       </c>
       <c r="I16">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="J16">
         <v>14</v>
@@ -1850,27 +1861,27 @@
         <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H17">
-        <v>25.387</v>
+        <v>25.658999999999999</v>
       </c>
       <c r="I17">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="J17">
         <v>15</v>
       </c>
       <c r="K17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1882,33 +1893,33 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>112</v>
       </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
       <c r="H18">
-        <v>16.669</v>
+        <v>16.928000000000001</v>
       </c>
       <c r="I18">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" t="s">
         <v>114</v>
-      </c>
-      <c r="L18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1920,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{500E93C3-E48D-473B-AEB0-7BEB2D6D4479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ECE8132-0421-4803-9526-2768AB5F205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250923 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250924 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Collector</t>
   </si>
@@ -67,31 +67,31 @@
     <t>S2</t>
   </si>
   <si>
-    <t>43,883,506.00</t>
+    <t>44,878,013.00</t>
   </si>
   <si>
     <t>422,804,876.00</t>
   </si>
   <si>
-    <t>10.38</t>
-  </si>
-  <si>
-    <t>8.22</t>
-  </si>
-  <si>
-    <t>5.26</t>
+    <t>10.61</t>
+  </si>
+  <si>
+    <t>8.36</t>
+  </si>
+  <si>
+    <t>5.53</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>44,620,548.00</t>
+    <t>44,885,154.00</t>
   </si>
   <si>
     <t>416,855,079.00</t>
   </si>
   <si>
-    <t>10.70</t>
+    <t>10.77</t>
   </si>
   <si>
     <t>2.62</t>
@@ -103,169 +103,160 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>32,236,598.00</t>
+    <t>36,670,562.00</t>
   </si>
   <si>
     <t>440,269,658.00</t>
   </si>
   <si>
-    <t>7.32</t>
-  </si>
-  <si>
-    <t>4.60</t>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>5.96</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>39,595,968.00</t>
+  </si>
+  <si>
+    <t>398,922,975.00</t>
+  </si>
+  <si>
+    <t>9.93</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>34,698,691.00</t>
+  </si>
+  <si>
+    <t>413,417,208.00</t>
+  </si>
+  <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>47,231,148.00</t>
+  </si>
+  <si>
+    <t>445,762,687.00</t>
+  </si>
+  <si>
+    <t>10.60</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>49,521,981.00</t>
+  </si>
+  <si>
+    <t>417,983,847.00</t>
+  </si>
+  <si>
+    <t>11.85</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>43,460,662.00</t>
+  </si>
+  <si>
+    <t>465,851,727.00</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>30,231,020.00</t>
+  </si>
+  <si>
+    <t>375,977,817.00</t>
+  </si>
+  <si>
+    <t>8.04</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>54,448,258.00</t>
+  </si>
+  <si>
+    <t>431,004,003.00</t>
+  </si>
+  <si>
+    <t>12.63</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>36,842,595.00</t>
+  </si>
+  <si>
+    <t>418,564,715.00</t>
+  </si>
+  <si>
+    <t>8.80</t>
   </si>
   <si>
     <t>5.44</t>
   </si>
   <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>35,655,384.00</t>
-  </si>
-  <si>
-    <t>398,922,975.00</t>
-  </si>
-  <si>
-    <t>8.94</t>
-  </si>
-  <si>
-    <t>4.67</t>
-  </si>
-  <si>
-    <t>5.41</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>33,923,378.00</t>
-  </si>
-  <si>
-    <t>413,417,208.00</t>
-  </si>
-  <si>
-    <t>8.21</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>45,216,429.00</t>
-  </si>
-  <si>
-    <t>445,762,687.00</t>
-  </si>
-  <si>
-    <t>10.14</t>
-  </si>
-  <si>
-    <t>4.16</t>
-  </si>
-  <si>
-    <t>4.68</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>48,832,401.00</t>
-  </si>
-  <si>
-    <t>417,983,847.00</t>
-  </si>
-  <si>
-    <t>11.68</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>41,504,223.00</t>
-  </si>
-  <si>
-    <t>465,851,727.00</t>
-  </si>
-  <si>
-    <t>8.91</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>25,762,213.00</t>
-  </si>
-  <si>
-    <t>375,977,817.00</t>
-  </si>
-  <si>
-    <t>6.85</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>54,448,258.00</t>
-  </si>
-  <si>
-    <t>431,004,003.00</t>
-  </si>
-  <si>
-    <t>12.63</t>
-  </si>
-  <si>
-    <t>8.36</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>35,629,650.00</t>
-  </si>
-  <si>
-    <t>418,564,715.00</t>
-  </si>
-  <si>
-    <t>8.51</t>
-  </si>
-  <si>
-    <t>5.24</t>
-  </si>
-  <si>
-    <t>5.18</t>
-  </si>
-  <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>36,170,024.00</t>
+    <t>36,205,024.00</t>
   </si>
   <si>
     <t>429,733,887.00</t>
@@ -283,13 +274,13 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>56,976,654.00</t>
+    <t>57,384,087.00</t>
   </si>
   <si>
     <t>419,621,226.00</t>
   </si>
   <si>
-    <t>13.58</t>
+    <t>13.68</t>
   </si>
   <si>
     <t>8.82</t>
@@ -301,13 +292,13 @@
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>32,210,838.00</t>
+    <t>33,078,255.00</t>
   </si>
   <si>
     <t>429,764,570.00</t>
   </si>
   <si>
-    <t>7.49</t>
+    <t>7.70</t>
   </si>
   <si>
     <t>3.27</t>
@@ -319,52 +310,52 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>37,698,549.00</t>
+    <t>39,064,444.00</t>
   </si>
   <si>
     <t>425,383,372.00</t>
   </si>
   <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>36,941,991.00</t>
+  </si>
+  <si>
+    <t>418,768,511.00</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>32,035,472.00</t>
+  </si>
+  <si>
+    <t>361,771,764.00</t>
+  </si>
+  <si>
     <t>8.86</t>
   </si>
   <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>36,941,991.00</t>
-  </si>
-  <si>
-    <t>418,768,511.00</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>29,826,602.00</t>
-  </si>
-  <si>
-    <t>361,771,764.00</t>
-  </si>
-  <si>
-    <t>8.24</t>
-  </si>
-  <si>
-    <t>3.49</t>
-  </si>
-  <si>
-    <t>2.11</t>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>2.46</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1214,24 +1205,10 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1282,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1294,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>25.734999999999999</v>
+        <v>27.126000000000001</v>
       </c>
       <c r="I2">
         <v>380</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1320,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1332,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>28.766999999999999</v>
+        <v>30.163</v>
       </c>
       <c r="I3">
         <v>384</v>
@@ -1358,7 +1335,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1370,13 +1347,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>22.446000000000002</v>
+        <v>23.53</v>
       </c>
       <c r="I4">
         <v>386</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1396,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1408,13 +1385,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>24.966000000000001</v>
+        <v>25.602</v>
       </c>
       <c r="I5">
         <v>351</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1434,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1446,13 +1423,13 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>19.526</v>
+        <v>19.835000000000001</v>
       </c>
       <c r="I6">
         <v>383</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -1472,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1484,13 +1461,13 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>15.157</v>
+        <v>16.306000000000001</v>
       </c>
       <c r="I7">
         <v>385</v>
       </c>
       <c r="J7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1510,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1522,7 +1499,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>31.472999999999999</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="I8">
         <v>379</v>
@@ -1534,12 +1511,12 @@
         <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1548,19 +1525,19 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9">
-        <v>16.658999999999999</v>
+        <v>17.263000000000002</v>
       </c>
       <c r="I9">
         <v>386</v>
@@ -1569,15 +1546,15 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1586,19 +1563,19 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
       <c r="H10">
-        <v>17.948</v>
+        <v>18.449000000000002</v>
       </c>
       <c r="I10">
         <v>318</v>
@@ -1607,15 +1584,15 @@
         <v>8</v>
       </c>
       <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1624,19 +1601,19 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
       <c r="H11">
-        <v>16.463000000000001</v>
+        <v>17.006</v>
       </c>
       <c r="I11">
         <v>381</v>
@@ -1645,15 +1622,15 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1662,36 +1639,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
       <c r="H12">
-        <v>26.434999999999999</v>
+        <v>30.823</v>
       </c>
       <c r="I12">
         <v>386</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1700,19 +1677,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>21.181000000000001</v>
+        <v>21.866</v>
       </c>
       <c r="I13">
         <v>378</v>
@@ -1721,15 +1698,15 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1738,19 +1715,19 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14">
-        <v>12.688000000000001</v>
+        <v>13.839</v>
       </c>
       <c r="I14">
         <v>381</v>
@@ -1759,15 +1736,15 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1776,19 +1753,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H15">
-        <v>16.576000000000001</v>
+        <v>17.492999999999999</v>
       </c>
       <c r="I15">
         <v>383</v>
@@ -1797,15 +1774,15 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1814,19 +1791,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16">
-        <v>13.221</v>
+        <v>13.845000000000001</v>
       </c>
       <c r="I16">
         <v>385</v>
@@ -1835,15 +1812,15 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1855,16 +1832,16 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H17">
-        <v>25.658999999999999</v>
+        <v>26.846</v>
       </c>
       <c r="I17">
         <v>380</v>
@@ -1873,15 +1850,15 @@
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1890,36 +1867,36 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H18">
-        <v>16.928000000000001</v>
+        <v>17.212</v>
       </c>
       <c r="I18">
         <v>285</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1931,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ECE8132-0421-4803-9526-2768AB5F205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7355DBD6-BEB9-489C-9581-78E727E78588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250924 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250924 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -70,292 +70,292 @@
     <t>44,878,013.00</t>
   </si>
   <si>
-    <t>422,804,876.00</t>
-  </si>
-  <si>
-    <t>10.61</t>
+    <t>433,789,101.00</t>
+  </si>
+  <si>
+    <t>10.35</t>
+  </si>
+  <si>
+    <t>8.08</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>44,929,878.00</t>
+  </si>
+  <si>
+    <t>429,318,277.00</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>36,670,562.00</t>
+  </si>
+  <si>
+    <t>453,979,367.00</t>
+  </si>
+  <si>
+    <t>4.57</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>42,344,083.00</t>
+  </si>
+  <si>
+    <t>414,864,706.00</t>
+  </si>
+  <si>
+    <t>10.21</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>34,698,691.00</t>
+  </si>
+  <si>
+    <t>427,445,584.00</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>47,451,335.00</t>
+  </si>
+  <si>
+    <t>458,665,999.00</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>49,521,981.00</t>
+  </si>
+  <si>
+    <t>428,672,316.00</t>
+  </si>
+  <si>
+    <t>11.55</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>44,651,679.00</t>
+  </si>
+  <si>
+    <t>477,286,718.00</t>
+  </si>
+  <si>
+    <t>9.36</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>30,463,791.00</t>
+  </si>
+  <si>
+    <t>387,767,676.00</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>54,448,258.00</t>
+  </si>
+  <si>
+    <t>449,119,003.00</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>7.91</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>40,313,064.00</t>
+  </si>
+  <si>
+    <t>430,422,347.00</t>
+  </si>
+  <si>
+    <t>9.37</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>5.46</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>39,696,917.00</t>
+  </si>
+  <si>
+    <t>438,140,747.00</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>58,207,251.00</t>
+  </si>
+  <si>
+    <t>437,569,036.00</t>
+  </si>
+  <si>
+    <t>13.30</t>
   </si>
   <si>
     <t>8.36</t>
   </si>
   <si>
-    <t>5.53</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>44,885,154.00</t>
-  </si>
-  <si>
-    <t>416,855,079.00</t>
-  </si>
-  <si>
-    <t>10.77</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>36,670,562.00</t>
-  </si>
-  <si>
-    <t>440,269,658.00</t>
-  </si>
-  <si>
-    <t>8.33</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>5.96</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>39,595,968.00</t>
-  </si>
-  <si>
-    <t>398,922,975.00</t>
-  </si>
-  <si>
-    <t>9.93</t>
-  </si>
-  <si>
-    <t>5.39</t>
-  </si>
-  <si>
-    <t>5.70</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>34,698,691.00</t>
-  </si>
-  <si>
-    <t>413,417,208.00</t>
-  </si>
-  <si>
-    <t>8.39</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>47,231,148.00</t>
-  </si>
-  <si>
-    <t>445,762,687.00</t>
-  </si>
-  <si>
-    <t>10.60</t>
-  </si>
-  <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>4.94</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>49,521,981.00</t>
-  </si>
-  <si>
-    <t>417,983,847.00</t>
-  </si>
-  <si>
-    <t>11.85</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>43,460,662.00</t>
-  </si>
-  <si>
-    <t>465,851,727.00</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>30,231,020.00</t>
-  </si>
-  <si>
-    <t>375,977,817.00</t>
-  </si>
-  <si>
-    <t>8.04</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>54,448,258.00</t>
-  </si>
-  <si>
-    <t>431,004,003.00</t>
-  </si>
-  <si>
-    <t>12.63</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>36,842,595.00</t>
-  </si>
-  <si>
-    <t>418,564,715.00</t>
-  </si>
-  <si>
-    <t>8.80</t>
-  </si>
-  <si>
-    <t>5.44</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>36,205,024.00</t>
-  </si>
-  <si>
-    <t>429,733,887.00</t>
-  </si>
-  <si>
-    <t>8.42</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>57,384,087.00</t>
-  </si>
-  <si>
-    <t>419,621,226.00</t>
-  </si>
-  <si>
-    <t>13.68</t>
-  </si>
-  <si>
-    <t>8.82</t>
-  </si>
-  <si>
-    <t>3.67</t>
+    <t>3.52</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>33,078,255.00</t>
-  </si>
-  <si>
-    <t>429,764,570.00</t>
-  </si>
-  <si>
-    <t>7.70</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>3.66</t>
+    <t>34,886,141.00</t>
+  </si>
+  <si>
+    <t>440,422,803.00</t>
+  </si>
+  <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.51</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>39,064,444.00</t>
-  </si>
-  <si>
-    <t>425,383,372.00</t>
-  </si>
-  <si>
-    <t>9.18</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>3.64</t>
+    <t>39,823,486.00</t>
+  </si>
+  <si>
+    <t>441,493,055.00</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>3.47</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>36,941,991.00</t>
-  </si>
-  <si>
-    <t>418,768,511.00</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>3.95</t>
+    <t>42,893,562.00</t>
+  </si>
+  <si>
+    <t>429,723,447.00</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>4.03</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>32,035,472.00</t>
-  </si>
-  <si>
-    <t>361,771,764.00</t>
-  </si>
-  <si>
-    <t>8.86</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>2.46</t>
+    <t>32,283,393.00</t>
+  </si>
+  <si>
+    <t>376,566,063.00</t>
+  </si>
+  <si>
+    <t>8.57</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>2.65</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1271,10 +1271,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>27.126000000000001</v>
+        <v>28.376000000000001</v>
       </c>
       <c r="I2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="J2">
         <v>21</v>
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1309,13 +1309,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>30.163</v>
+        <v>31.042000000000002</v>
       </c>
       <c r="I3">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1344,27 +1344,27 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>23.53</v>
+        <v>23.986999999999998</v>
       </c>
       <c r="I4">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="J4">
         <v>23</v>
       </c>
       <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
         <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1373,36 +1373,36 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5">
+        <v>26.468</v>
+      </c>
+      <c r="I5">
+        <v>368</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="H5">
-        <v>25.602</v>
-      </c>
-      <c r="I5">
-        <v>351</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1414,33 +1414,33 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6">
-        <v>19.835000000000001</v>
+        <v>22.367999999999999</v>
       </c>
       <c r="I6">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="J6">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1449,36 +1449,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>16.306000000000001</v>
+        <v>16.838000000000001</v>
       </c>
       <c r="I7">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="J7">
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1490,33 +1490,33 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>34.549999999999997</v>
+        <v>36.124000000000002</v>
       </c>
       <c r="I8">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="J8">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1525,36 +1525,36 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
         <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
       </c>
       <c r="H9">
         <v>17.263000000000002</v>
       </c>
       <c r="I9">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="J9">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1563,36 +1563,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10">
-        <v>18.449000000000002</v>
+        <v>18.768000000000001</v>
       </c>
       <c r="I10">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1604,33 +1604,33 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11">
-        <v>17.006</v>
+        <v>17.652999999999999</v>
       </c>
       <c r="I11">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="J11">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1639,36 +1639,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12">
+        <v>31.687999999999999</v>
+      </c>
+      <c r="I12">
+        <v>403</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
         <v>75</v>
-      </c>
-      <c r="H12">
-        <v>30.823</v>
-      </c>
-      <c r="I12">
-        <v>386</v>
-      </c>
-      <c r="J12">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1677,36 +1677,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>79</v>
       </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
       <c r="H13">
-        <v>21.866</v>
+        <v>22.277999999999999</v>
       </c>
       <c r="I13">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="J13">
         <v>11</v>
       </c>
       <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1715,36 +1715,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
       </c>
       <c r="H14">
         <v>13.839</v>
       </c>
       <c r="I14">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="J14">
         <v>14</v>
       </c>
       <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
         <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1753,36 +1753,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>91</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>18.855</v>
+      </c>
+      <c r="I15">
+        <v>399</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>92</v>
       </c>
-      <c r="H15">
-        <v>17.492999999999999</v>
-      </c>
-      <c r="I15">
-        <v>383</v>
-      </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>93</v>
-      </c>
-      <c r="L15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1791,36 +1791,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
         <v>96</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>97</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>14.288</v>
+      </c>
+      <c r="I16">
+        <v>403</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>98</v>
       </c>
-      <c r="H16">
-        <v>13.845000000000001</v>
-      </c>
-      <c r="I16">
-        <v>385</v>
-      </c>
-      <c r="J16">
-        <v>14</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1829,25 +1829,25 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
         <v>102</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>103</v>
       </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
       <c r="H17">
-        <v>26.846</v>
+        <v>27.66</v>
       </c>
       <c r="I17">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
         <v>104</v>
@@ -1867,7 +1867,7 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>107</v>
@@ -1879,13 +1879,13 @@
         <v>109</v>
       </c>
       <c r="H18">
-        <v>17.212</v>
+        <v>18.285</v>
       </c>
       <c r="I18">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
         <v>110</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7355DBD6-BEB9-489C-9581-78E727E78588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BF541F-E78B-4399-B2BA-F564DB56A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250924 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250925" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Collector</t>
   </si>
@@ -67,13 +67,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>44,878,013.00</t>
+    <t>45,399,675.00</t>
   </si>
   <si>
     <t>433,789,101.00</t>
   </si>
   <si>
-    <t>10.35</t>
+    <t>10.47</t>
   </si>
   <si>
     <t>8.08</t>
@@ -85,30 +85,33 @@
     <t>Romli</t>
   </si>
   <si>
-    <t>44,929,878.00</t>
+    <t>45,823,550.00</t>
   </si>
   <si>
     <t>429,318,277.00</t>
   </si>
   <si>
-    <t>10.47</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>3.50</t>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>3.75</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>36,670,562.00</t>
+    <t>38,124,271.00</t>
   </si>
   <si>
     <t>453,979,367.00</t>
   </si>
   <si>
+    <t>8.40</t>
+  </si>
+  <si>
     <t>4.57</t>
   </si>
   <si>
@@ -118,13 +121,13 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>42,344,083.00</t>
+    <t>43,649,927.00</t>
   </si>
   <si>
     <t>414,864,706.00</t>
   </si>
   <si>
-    <t>10.21</t>
+    <t>10.52</t>
   </si>
   <si>
     <t>5.20</t>
@@ -133,13 +136,13 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>34,698,691.00</t>
+    <t>36,738,527.00</t>
   </si>
   <si>
     <t>427,445,584.00</t>
   </si>
   <si>
-    <t>8.12</t>
+    <t>8.59</t>
   </si>
   <si>
     <t>2.86</t>
@@ -151,13 +154,16 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>47,451,335.00</t>
+    <t>51,701,150.00</t>
   </si>
   <si>
     <t>458,665,999.00</t>
   </si>
   <si>
-    <t>4.17</t>
+    <t>11.27</t>
+  </si>
+  <si>
+    <t>4.26</t>
   </si>
   <si>
     <t>4.74</t>
@@ -166,16 +172,16 @@
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>49,521,981.00</t>
+    <t>54,044,477.00</t>
   </si>
   <si>
     <t>428,672,316.00</t>
   </si>
   <si>
-    <t>11.55</t>
-  </si>
-  <si>
-    <t>3.57</t>
+    <t>12.61</t>
+  </si>
+  <si>
+    <t>3.58</t>
   </si>
   <si>
     <t>4.55</t>
@@ -184,13 +190,13 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>44,651,679.00</t>
+    <t>45,593,790.00</t>
   </si>
   <si>
     <t>477,286,718.00</t>
   </si>
   <si>
-    <t>9.36</t>
+    <t>9.55</t>
   </si>
   <si>
     <t>4.05</t>
@@ -202,67 +208,67 @@
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>30,463,791.00</t>
+    <t>34,123,042.00</t>
   </si>
   <si>
     <t>387,767,676.00</t>
   </si>
   <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>2.39</t>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>2.69</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>54,448,258.00</t>
+    <t>54,560,078.00</t>
   </si>
   <si>
     <t>449,119,003.00</t>
   </si>
   <si>
-    <t>12.12</t>
-  </si>
-  <si>
-    <t>7.91</t>
-  </si>
-  <si>
-    <t>6.03</t>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>7.94</t>
+  </si>
+  <si>
+    <t>6.28</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>40,313,064.00</t>
+    <t>41,472,290.00</t>
   </si>
   <si>
     <t>430,422,347.00</t>
   </si>
   <si>
-    <t>9.37</t>
-  </si>
-  <si>
-    <t>5.34</t>
-  </si>
-  <si>
-    <t>5.46</t>
+    <t>9.64</t>
+  </si>
+  <si>
+    <t>5.43</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>39,696,917.00</t>
+    <t>39,861,917.00</t>
   </si>
   <si>
     <t>438,140,747.00</t>
   </si>
   <si>
-    <t>9.06</t>
-  </si>
-  <si>
-    <t>3.27</t>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>3.29</t>
   </si>
   <si>
     <t>2.78</t>
@@ -271,19 +277,19 @@
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>58,207,251.00</t>
+    <t>66,599,665.00</t>
   </si>
   <si>
     <t>437,569,036.00</t>
   </si>
   <si>
-    <t>13.30</t>
-  </si>
-  <si>
-    <t>8.36</t>
-  </si>
-  <si>
-    <t>3.52</t>
+    <t>15.22</t>
+  </si>
+  <si>
+    <t>8.41</t>
+  </si>
+  <si>
+    <t>3.77</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
@@ -307,13 +313,13 @@
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>39,823,486.00</t>
+    <t>40,311,850.00</t>
   </si>
   <si>
     <t>441,493,055.00</t>
   </si>
   <si>
-    <t>9.02</t>
+    <t>9.13</t>
   </si>
   <si>
     <t>2.54</t>
@@ -325,37 +331,37 @@
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>42,893,562.00</t>
+    <t>43,029,562.00</t>
   </si>
   <si>
     <t>429,723,447.00</t>
   </si>
   <si>
-    <t>9.98</t>
+    <t>10.01</t>
   </si>
   <si>
     <t>3.09</t>
   </si>
   <si>
-    <t>4.03</t>
+    <t>4.28</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>32,283,393.00</t>
+    <t>37,478,264.00</t>
   </si>
   <si>
     <t>376,566,063.00</t>
   </si>
   <si>
-    <t>8.57</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>2.65</t>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>2.98</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1259,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1271,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>28.376000000000001</v>
+        <v>29.628</v>
       </c>
       <c r="I2">
         <v>397</v>
@@ -1297,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1309,13 +1315,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>31.042000000000002</v>
+        <v>31.497</v>
       </c>
       <c r="I3">
         <v>400</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1335,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1344,10 +1350,10 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>23.986999999999998</v>
+        <v>24.398</v>
       </c>
       <c r="I4">
         <v>403</v>
@@ -1356,15 +1362,15 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1373,19 +1379,19 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>26.468</v>
+        <v>26.545999999999999</v>
       </c>
       <c r="I5">
         <v>368</v>
@@ -1394,15 +1400,15 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1411,19 +1417,19 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>22.367999999999999</v>
+        <v>23.760999999999999</v>
       </c>
       <c r="I6">
         <v>400</v>
@@ -1432,15 +1438,15 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1449,19 +1455,19 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>16.838000000000001</v>
+        <v>17.463000000000001</v>
       </c>
       <c r="I7">
         <v>401</v>
@@ -1470,15 +1476,15 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1487,19 +1493,19 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>36.124000000000002</v>
+        <v>37.347000000000001</v>
       </c>
       <c r="I8">
         <v>396</v>
@@ -1508,15 +1514,15 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1525,16 +1531,16 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>17.263000000000002</v>
@@ -1546,15 +1552,15 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1563,36 +1569,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>18.768000000000001</v>
+        <v>18.995000000000001</v>
       </c>
       <c r="I10">
         <v>335</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1601,36 +1607,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>17.652999999999999</v>
+        <v>17.754000000000001</v>
       </c>
       <c r="I11">
         <v>398</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1639,36 +1645,36 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12">
-        <v>31.687999999999999</v>
+        <v>32.609000000000002</v>
       </c>
       <c r="I12">
         <v>403</v>
       </c>
       <c r="J12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1677,19 +1683,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>22.277999999999999</v>
+        <v>22.516999999999999</v>
       </c>
       <c r="I13">
         <v>395</v>
@@ -1698,15 +1704,15 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1715,16 +1721,16 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14">
         <v>13.839</v>
@@ -1733,18 +1739,18 @@
         <v>398</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1753,19 +1759,19 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H15">
-        <v>18.855</v>
+        <v>20.236999999999998</v>
       </c>
       <c r="I15">
         <v>399</v>
@@ -1774,15 +1780,15 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1791,19 +1797,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16">
-        <v>14.288</v>
+        <v>14.407</v>
       </c>
       <c r="I16">
         <v>403</v>
@@ -1812,15 +1818,15 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1829,36 +1835,36 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H17">
-        <v>27.66</v>
+        <v>28.396000000000001</v>
       </c>
       <c r="I17">
         <v>397</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1867,36 +1873,36 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H18">
-        <v>18.285</v>
+        <v>18.774999999999999</v>
       </c>
       <c r="I18">
         <v>302</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1908,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BF541F-E78B-4399-B2BA-F564DB56A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1A2BE4-466E-48FE-AAFE-D4C25D7A4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250925" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250925 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -67,37 +67,37 @@
     <t>S2</t>
   </si>
   <si>
-    <t>45,399,675.00</t>
-  </si>
-  <si>
-    <t>433,789,101.00</t>
-  </si>
-  <si>
-    <t>10.47</t>
-  </si>
-  <si>
-    <t>8.08</t>
-  </si>
-  <si>
-    <t>5.29</t>
+    <t>46,291,219.00</t>
+  </si>
+  <si>
+    <t>445,355,085.00</t>
+  </si>
+  <si>
+    <t>10.39</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t>5.07</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>45,823,550.00</t>
-  </si>
-  <si>
-    <t>429,318,277.00</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>3.75</t>
+    <t>46,881,788.00</t>
+  </si>
+  <si>
+    <t>438,902,305.00</t>
+  </si>
+  <si>
+    <t>10.68</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>3.84</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
@@ -106,244 +106,244 @@
     <t>38,124,271.00</t>
   </si>
   <si>
-    <t>453,979,367.00</t>
-  </si>
-  <si>
-    <t>8.40</t>
-  </si>
-  <si>
-    <t>4.57</t>
+    <t>463,511,104.00</t>
+  </si>
+  <si>
+    <t>8.23</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>44,997,116.00</t>
+  </si>
+  <si>
+    <t>425,996,984.00</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>5.42</t>
   </si>
   <si>
     <t>5.71</t>
   </si>
   <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>43,649,927.00</t>
-  </si>
-  <si>
-    <t>414,864,706.00</t>
-  </si>
-  <si>
-    <t>10.52</t>
-  </si>
-  <si>
-    <t>5.20</t>
-  </si>
-  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
     <t>36,738,527.00</t>
   </si>
   <si>
-    <t>427,445,584.00</t>
-  </si>
-  <si>
-    <t>8.59</t>
+    <t>436,702,202.00</t>
+  </si>
+  <si>
+    <t>8.41</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>55,095,113.00</t>
+  </si>
+  <si>
+    <t>468,998,907.00</t>
+  </si>
+  <si>
+    <t>11.75</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>54,972,189.00</t>
+  </si>
+  <si>
+    <t>438,554,186.00</t>
+  </si>
+  <si>
+    <t>12.53</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>4.37</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>48,161,032.00</t>
+  </si>
+  <si>
+    <t>486,886,562.00</t>
+  </si>
+  <si>
+    <t>9.89</t>
+  </si>
+  <si>
+    <t>3.96</t>
   </si>
   <si>
     <t>2.86</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>51,701,150.00</t>
-  </si>
-  <si>
-    <t>458,665,999.00</t>
-  </si>
-  <si>
-    <t>11.27</t>
-  </si>
-  <si>
-    <t>4.26</t>
-  </si>
-  <si>
-    <t>4.74</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>54,044,477.00</t>
-  </si>
-  <si>
-    <t>428,672,316.00</t>
-  </si>
-  <si>
-    <t>12.61</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>45,593,790.00</t>
-  </si>
-  <si>
-    <t>477,286,718.00</t>
-  </si>
-  <si>
-    <t>9.55</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>34,123,042.00</t>
-  </si>
-  <si>
-    <t>387,767,676.00</t>
-  </si>
-  <si>
-    <t>8.80</t>
-  </si>
-  <si>
-    <t>2.94</t>
-  </si>
-  <si>
-    <t>2.69</t>
+    <t>34,385,483.00</t>
+  </si>
+  <si>
+    <t>397,563,836.00</t>
+  </si>
+  <si>
+    <t>8.65</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.84</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>54,560,078.00</t>
-  </si>
-  <si>
-    <t>449,119,003.00</t>
-  </si>
-  <si>
-    <t>12.15</t>
-  </si>
-  <si>
-    <t>7.94</t>
-  </si>
-  <si>
-    <t>6.28</t>
+    <t>55,760,078.00</t>
+  </si>
+  <si>
+    <t>460,708,419.00</t>
+  </si>
+  <si>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>6.04</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>41,472,290.00</t>
-  </si>
-  <si>
-    <t>430,422,347.00</t>
-  </si>
-  <si>
-    <t>9.64</t>
-  </si>
-  <si>
-    <t>5.43</t>
+    <t>43,303,101.00</t>
+  </si>
+  <si>
+    <t>441,238,382.00</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>5.38</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>39,861,917.00</t>
-  </si>
-  <si>
-    <t>438,140,747.00</t>
-  </si>
-  <si>
-    <t>9.10</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>2.78</t>
+    <t>39,911,917.00</t>
+  </si>
+  <si>
+    <t>449,627,247.00</t>
+  </si>
+  <si>
+    <t>8.88</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>2.68</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>66,599,665.00</t>
-  </si>
-  <si>
-    <t>437,569,036.00</t>
-  </si>
-  <si>
-    <t>15.22</t>
-  </si>
-  <si>
-    <t>8.41</t>
-  </si>
-  <si>
-    <t>3.77</t>
+    <t>68,513,874.00</t>
+  </si>
+  <si>
+    <t>448,283,180.00</t>
+  </si>
+  <si>
+    <t>15.28</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>3.86</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>34,886,141.00</t>
-  </si>
-  <si>
-    <t>440,422,803.00</t>
-  </si>
-  <si>
-    <t>7.92</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>3.51</t>
+    <t>37,056,661.00</t>
+  </si>
+  <si>
+    <t>449,538,073.00</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.37</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>40,311,850.00</t>
-  </si>
-  <si>
-    <t>441,493,055.00</t>
-  </si>
-  <si>
-    <t>9.13</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>3.47</t>
+    <t>40,580,850.00</t>
+  </si>
+  <si>
+    <t>452,486,643.00</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>3.33</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>43,029,562.00</t>
-  </si>
-  <si>
-    <t>429,723,447.00</t>
-  </si>
-  <si>
-    <t>10.01</t>
-  </si>
-  <si>
-    <t>3.09</t>
-  </si>
-  <si>
-    <t>4.28</t>
+    <t>43,586,856.00</t>
+  </si>
+  <si>
+    <t>439,444,412.00</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>4.35</t>
   </si>
   <si>
     <t>Nuraini</t>
@@ -352,16 +352,16 @@
     <t>37,478,264.00</t>
   </si>
   <si>
-    <t>376,566,063.00</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>2.98</t>
+    <t>386,639,988.00</t>
+  </si>
+  <si>
+    <t>9.69</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>2.83</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1265,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1277,10 +1277,10 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>29.628</v>
+        <v>30.338000000000001</v>
       </c>
       <c r="I2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="J2">
         <v>21</v>
@@ -1303,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1315,13 +1315,13 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>31.497</v>
+        <v>31.812000000000001</v>
       </c>
       <c r="I3">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1353,13 +1353,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>24.398</v>
+        <v>24.661000000000001</v>
       </c>
       <c r="I4">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -1379,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1391,24 +1391,24 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>26.545999999999999</v>
+        <v>26.821000000000002</v>
       </c>
       <c r="I5">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1420,33 +1420,33 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>23.760999999999999</v>
+        <v>24.452999999999999</v>
       </c>
       <c r="I6">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="J6">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1455,36 +1455,36 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>17.463000000000001</v>
+        <v>17.71</v>
       </c>
       <c r="I7">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1493,36 +1493,36 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>37.347000000000001</v>
+        <v>38.286999999999999</v>
       </c>
       <c r="I8">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="J8">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1531,36 +1531,36 @@
         <v>14</v>
       </c>
       <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
       <c r="H9">
-        <v>17.263000000000002</v>
+        <v>17.747</v>
       </c>
       <c r="I9">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1569,36 +1569,36 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>18.995000000000001</v>
+        <v>19.402000000000001</v>
       </c>
       <c r="I10">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1607,36 +1607,36 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11">
-        <v>17.754000000000001</v>
+        <v>18.858000000000001</v>
       </c>
       <c r="I11">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="J11">
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1645,28 +1645,28 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>32.609000000000002</v>
+        <v>35.402999999999999</v>
       </c>
       <c r="I12">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
         <v>31</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1683,36 +1683,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13">
-        <v>22.516999999999999</v>
+        <v>22.981999999999999</v>
       </c>
       <c r="I13">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="J13">
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1721,36 +1721,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14">
-        <v>13.839</v>
+        <v>14.195</v>
       </c>
       <c r="I14">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1759,36 +1759,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15">
-        <v>20.236999999999998</v>
+        <v>20.545000000000002</v>
       </c>
       <c r="I15">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1797,36 +1797,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>14.407</v>
+        <v>14.741</v>
       </c>
       <c r="I16">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="J16">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1835,28 +1835,28 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17">
-        <v>28.396000000000001</v>
+        <v>29.036000000000001</v>
       </c>
       <c r="I17">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s">
         <v>107</v>
@@ -1885,10 +1885,10 @@
         <v>111</v>
       </c>
       <c r="H18">
-        <v>18.774999999999999</v>
+        <v>19.021999999999998</v>
       </c>
       <c r="I18">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="J18">
         <v>9</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1A2BE4-466E-48FE-AAFE-D4C25D7A4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{976A0B1A-2567-4418-82AF-E12F0AB8D64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250925 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250926" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -67,31 +67,31 @@
     <t>S2</t>
   </si>
   <si>
-    <t>46,291,219.00</t>
+    <t>51,587,267.00</t>
   </si>
   <si>
     <t>445,355,085.00</t>
   </si>
   <si>
-    <t>10.39</t>
-  </si>
-  <si>
-    <t>7.98</t>
-  </si>
-  <si>
-    <t>5.07</t>
+    <t>11.58</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>5.31</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>46,881,788.00</t>
+    <t>47,627,660.00</t>
   </si>
   <si>
     <t>438,902,305.00</t>
   </si>
   <si>
-    <t>10.68</t>
+    <t>10.85</t>
   </si>
   <si>
     <t>2.73</t>
@@ -103,13 +103,13 @@
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>38,124,271.00</t>
+    <t>39,587,893.00</t>
   </si>
   <si>
     <t>463,511,104.00</t>
   </si>
   <si>
-    <t>8.23</t>
+    <t>8.54</t>
   </si>
   <si>
     <t>4.83</t>
@@ -121,34 +121,34 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>44,997,116.00</t>
+    <t>49,822,435.00</t>
   </si>
   <si>
     <t>425,996,984.00</t>
   </si>
   <si>
-    <t>10.56</t>
-  </si>
-  <si>
-    <t>5.42</t>
-  </si>
-  <si>
-    <t>5.71</t>
+    <t>11.70</t>
+  </si>
+  <si>
+    <t>5.51</t>
+  </si>
+  <si>
+    <t>5.97</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>36,738,527.00</t>
+    <t>40,700,276.00</t>
   </si>
   <si>
     <t>436,702,202.00</t>
   </si>
   <si>
-    <t>8.41</t>
-  </si>
-  <si>
-    <t>2.78</t>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>2.87</t>
   </si>
   <si>
     <t>2.88</t>
@@ -157,31 +157,31 @@
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>55,095,113.00</t>
+    <t>57,374,493.00</t>
   </si>
   <si>
     <t>468,998,907.00</t>
   </si>
   <si>
-    <t>11.75</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>4.80</t>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>5.28</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>54,972,189.00</t>
+    <t>57,713,944.00</t>
   </si>
   <si>
     <t>438,554,186.00</t>
   </si>
   <si>
-    <t>12.53</t>
+    <t>13.16</t>
   </si>
   <si>
     <t>3.47</t>
@@ -193,169 +193,169 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>48,161,032.00</t>
+    <t>49,569,385.00</t>
   </si>
   <si>
     <t>486,886,562.00</t>
   </si>
   <si>
+    <t>10.18</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>34,597,319.00</t>
+  </si>
+  <si>
+    <t>397,563,836.00</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>56,061,755.00</t>
+  </si>
+  <si>
+    <t>460,708,419.00</t>
+  </si>
+  <si>
+    <t>12.17</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>43,601,161.00</t>
+  </si>
+  <si>
+    <t>441,238,382.00</t>
+  </si>
+  <si>
+    <t>9.88</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>40,816,725.00</t>
+  </si>
+  <si>
+    <t>449,627,247.00</t>
+  </si>
+  <si>
+    <t>9.08</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>69,983,773.00</t>
+  </si>
+  <si>
+    <t>448,283,180.00</t>
+  </si>
+  <si>
+    <t>15.61</t>
+  </si>
+  <si>
+    <t>8.38</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>38,423,831.00</t>
+  </si>
+  <si>
+    <t>449,538,073.00</t>
+  </si>
+  <si>
+    <t>8.55</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>41,773,083.00</t>
+  </si>
+  <si>
+    <t>452,486,643.00</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>44,485,160.00</t>
+  </si>
+  <si>
+    <t>439,444,412.00</t>
+  </si>
+  <si>
+    <t>10.12</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>38,229,259.00</t>
+  </si>
+  <si>
+    <t>386,639,988.00</t>
+  </si>
+  <si>
     <t>9.89</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>34,385,483.00</t>
-  </si>
-  <si>
-    <t>397,563,836.00</t>
-  </si>
-  <si>
-    <t>8.65</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>55,760,078.00</t>
-  </si>
-  <si>
-    <t>460,708,419.00</t>
-  </si>
-  <si>
-    <t>12.10</t>
-  </si>
-  <si>
-    <t>7.68</t>
-  </si>
-  <si>
-    <t>6.04</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>43,303,101.00</t>
-  </si>
-  <si>
-    <t>441,238,382.00</t>
-  </si>
-  <si>
-    <t>9.81</t>
-  </si>
-  <si>
-    <t>5.38</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>39,911,917.00</t>
-  </si>
-  <si>
-    <t>449,627,247.00</t>
-  </si>
-  <si>
-    <t>8.88</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>68,513,874.00</t>
-  </si>
-  <si>
-    <t>448,283,180.00</t>
-  </si>
-  <si>
-    <t>15.28</t>
-  </si>
-  <si>
-    <t>8.26</t>
-  </si>
-  <si>
-    <t>3.86</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>37,056,661.00</t>
-  </si>
-  <si>
-    <t>449,538,073.00</t>
-  </si>
-  <si>
-    <t>8.24</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>40,580,850.00</t>
-  </si>
-  <si>
-    <t>452,486,643.00</t>
-  </si>
-  <si>
-    <t>8.97</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>43,586,856.00</t>
-  </si>
-  <si>
-    <t>439,444,412.00</t>
-  </si>
-  <si>
-    <t>9.92</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>37,478,264.00</t>
-  </si>
-  <si>
-    <t>386,639,988.00</t>
-  </si>
-  <si>
-    <t>9.69</t>
   </si>
   <si>
     <t>3.63</t>
@@ -1265,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1277,13 +1277,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>30.338000000000001</v>
+        <v>31.199000000000002</v>
       </c>
       <c r="I2">
         <v>414</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1303,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1315,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>31.812000000000001</v>
+        <v>33.759</v>
       </c>
       <c r="I3">
         <v>417</v>
@@ -1341,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1353,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>24.661000000000001</v>
+        <v>25.213999999999999</v>
       </c>
       <c r="I4">
         <v>419</v>
@@ -1379,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1391,13 +1391,13 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>26.821000000000002</v>
+        <v>27.707999999999998</v>
       </c>
       <c r="I5">
         <v>385</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1429,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>24.452999999999999</v>
+        <v>27.216000000000001</v>
       </c>
       <c r="I6">
         <v>416</v>
@@ -1455,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1467,13 +1467,13 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>17.71</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I7">
         <v>417</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1493,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1505,7 +1505,7 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>38.286999999999999</v>
+        <v>40.222999999999999</v>
       </c>
       <c r="I8">
         <v>412</v>
@@ -1531,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1543,13 +1543,13 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>17.747</v>
+        <v>18.123999999999999</v>
       </c>
       <c r="I9">
         <v>419</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>60</v>
@@ -1569,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1581,7 +1581,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>19.402000000000001</v>
+        <v>19.963999999999999</v>
       </c>
       <c r="I10">
         <v>352</v>
@@ -1607,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1619,7 +1619,7 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>18.858000000000001</v>
+        <v>19.266999999999999</v>
       </c>
       <c r="I11">
         <v>414</v>
@@ -1645,7 +1645,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1657,7 +1657,7 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>35.402999999999999</v>
+        <v>36.587000000000003</v>
       </c>
       <c r="I12">
         <v>419</v>
@@ -1683,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>80</v>
@@ -1695,7 +1695,7 @@
         <v>82</v>
       </c>
       <c r="H13">
-        <v>22.981999999999999</v>
+        <v>23.716000000000001</v>
       </c>
       <c r="I13">
         <v>411</v>
@@ -1721,7 +1721,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -1733,7 +1733,7 @@
         <v>88</v>
       </c>
       <c r="H14">
-        <v>14.195</v>
+        <v>14.457000000000001</v>
       </c>
       <c r="I14">
         <v>414</v>
@@ -1759,7 +1759,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
@@ -1771,7 +1771,7 @@
         <v>94</v>
       </c>
       <c r="H15">
-        <v>20.545000000000002</v>
+        <v>20.984000000000002</v>
       </c>
       <c r="I15">
         <v>416</v>
@@ -1797,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
@@ -1809,13 +1809,13 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>14.741</v>
+        <v>15.092000000000001</v>
       </c>
       <c r="I16">
         <v>420</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
         <v>101</v>
@@ -1835,7 +1835,7 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>104</v>
@@ -1847,7 +1847,7 @@
         <v>106</v>
       </c>
       <c r="H17">
-        <v>29.036000000000001</v>
+        <v>29.507000000000001</v>
       </c>
       <c r="I17">
         <v>414</v>
@@ -1873,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>109</v>
@@ -1885,7 +1885,7 @@
         <v>111</v>
       </c>
       <c r="H18">
-        <v>19.021999999999998</v>
+        <v>19.623999999999999</v>
       </c>
       <c r="I18">
         <v>318</v>

--- a/nurlita.xlsx
+++ b/nurlita.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976A0B1A-2567-4418-82AF-E12F0AB8D64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F219BD1A-EB1B-4161-A03B-C93E74CF21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="repayment_20250901_20250926" sheetId="1" r:id="rId1"/>
+    <sheet name="repayment_20250901_20250926 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Collector</t>
   </si>
@@ -67,19 +67,19 @@
     <t>S2</t>
   </si>
   <si>
-    <t>51,587,267.00</t>
-  </si>
-  <si>
-    <t>445,355,085.00</t>
-  </si>
-  <si>
-    <t>11.58</t>
-  </si>
-  <si>
-    <t>8.74</t>
-  </si>
-  <si>
-    <t>5.31</t>
+    <t>51,874,572.00</t>
+  </si>
+  <si>
+    <t>456,202,429.00</t>
+  </si>
+  <si>
+    <t>11.37</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>5.37</t>
   </si>
   <si>
     <t>Romli</t>
@@ -88,34 +88,34 @@
     <t>47,627,660.00</t>
   </si>
   <si>
-    <t>438,902,305.00</t>
-  </si>
-  <si>
-    <t>10.85</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>3.84</t>
+    <t>452,866,125.00</t>
+  </si>
+  <si>
+    <t>10.52</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>3.70</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>39,587,893.00</t>
-  </si>
-  <si>
-    <t>463,511,104.00</t>
-  </si>
-  <si>
-    <t>8.54</t>
-  </si>
-  <si>
-    <t>4.83</t>
-  </si>
-  <si>
-    <t>5.73</t>
+    <t>39,701,017.00</t>
+  </si>
+  <si>
+    <t>476,592,254.00</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>5.52</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
@@ -124,157 +124,160 @@
     <t>49,822,435.00</t>
   </si>
   <si>
-    <t>425,996,984.00</t>
-  </si>
-  <si>
-    <t>11.70</t>
-  </si>
-  <si>
-    <t>5.51</t>
-  </si>
-  <si>
-    <t>5.97</t>
+    <t>436,083,917.00</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>5.76</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>40,700,276.00</t>
-  </si>
-  <si>
-    <t>436,702,202.00</t>
-  </si>
-  <si>
-    <t>9.32</t>
+    <t>41,152,964.00</t>
+  </si>
+  <si>
+    <t>446,800,030.00</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>57,491,529.00</t>
+  </si>
+  <si>
+    <t>479,096,089.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>62,146,480.00</t>
+  </si>
+  <si>
+    <t>449,844,006.00</t>
+  </si>
+  <si>
+    <t>13.82</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>49,569,385.00</t>
+  </si>
+  <si>
+    <t>495,287,512.00</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>36,432,286.00</t>
+  </si>
+  <si>
+    <t>406,558,531.00</t>
+  </si>
+  <si>
+    <t>8.96</t>
   </si>
   <si>
     <t>2.87</t>
   </si>
   <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>57,374,493.00</t>
-  </si>
-  <si>
-    <t>468,998,907.00</t>
-  </si>
-  <si>
-    <t>12.23</t>
-  </si>
-  <si>
-    <t>4.53</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>57,713,944.00</t>
-  </si>
-  <si>
-    <t>438,554,186.00</t>
-  </si>
-  <si>
-    <t>13.16</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>4.37</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>49,569,385.00</t>
-  </si>
-  <si>
-    <t>486,886,562.00</t>
-  </si>
-  <si>
-    <t>10.18</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>34,597,319.00</t>
-  </si>
-  <si>
-    <t>397,563,836.00</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>2.84</t>
+    <t>2.72</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>56,061,755.00</t>
-  </si>
-  <si>
-    <t>460,708,419.00</t>
-  </si>
-  <si>
-    <t>12.17</t>
-  </si>
-  <si>
-    <t>7.68</t>
-  </si>
-  <si>
-    <t>6.04</t>
+    <t>56,842,656.00</t>
+  </si>
+  <si>
+    <t>469,117,883.00</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>7.70</t>
+  </si>
+  <si>
+    <t>6.07</t>
   </si>
   <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>43,601,161.00</t>
-  </si>
-  <si>
-    <t>441,238,382.00</t>
-  </si>
-  <si>
-    <t>9.88</t>
-  </si>
-  <si>
-    <t>5.38</t>
+    <t>44,240,379.00</t>
+  </si>
+  <si>
+    <t>457,605,418.00</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>5.53</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>40,816,725.00</t>
-  </si>
-  <si>
-    <t>449,627,247.00</t>
-  </si>
-  <si>
-    <t>9.08</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>2.68</t>
+    <t>41,322,620.00</t>
+  </si>
+  <si>
+    <t>458,586,625.00</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.59</t>
   </si>
   <si>
     <t>Nur Halim</t>
@@ -283,85 +286,88 @@
     <t>69,983,773.00</t>
   </si>
   <si>
-    <t>448,283,180.00</t>
-  </si>
-  <si>
-    <t>15.61</t>
-  </si>
-  <si>
-    <t>8.38</t>
-  </si>
-  <si>
-    <t>3.86</t>
+    <t>461,168,770.00</t>
+  </si>
+  <si>
+    <t>15.18</t>
+  </si>
+  <si>
+    <t>8.09</t>
+  </si>
+  <si>
+    <t>3.73</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>38,423,831.00</t>
-  </si>
-  <si>
-    <t>449,538,073.00</t>
-  </si>
-  <si>
-    <t>8.55</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>3.37</t>
+    <t>41,268,289.00</t>
+  </si>
+  <si>
+    <t>460,959,136.00</t>
+  </si>
+  <si>
+    <t>8.95</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.25</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>41,773,083.00</t>
-  </si>
-  <si>
-    <t>452,486,643.00</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.57</t>
+    <t>42,270,739.00</t>
+  </si>
+  <si>
+    <t>469,961,606.00</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>3.45</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>44,485,160.00</t>
-  </si>
-  <si>
-    <t>439,444,412.00</t>
-  </si>
-  <si>
-    <t>10.12</t>
-  </si>
-  <si>
-    <t>4.35</t>
+    <t>44,986,689.00</t>
+  </si>
+  <si>
+    <t>448,066,757.00</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>4.21</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>38,229,259.00</t>
-  </si>
-  <si>
-    <t>386,639,988.00</t>
-  </si>
-  <si>
-    <t>9.89</t>
-  </si>
-  <si>
-    <t>3.63</t>
-  </si>
-  <si>
-    <t>2.83</t>
+    <t>38,947,583.00</t>
+  </si>
+  <si>
+    <t>396,665,367.00</t>
+  </si>
+  <si>
+    <t>9.82</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>2.71</t>
   </si>
   <si>
     <t>Hansyah Martha Kusuma D</t>
@@ -1265,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1277,13 +1283,13 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>31.199000000000002</v>
+        <v>32.17</v>
       </c>
       <c r="I2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1315,10 +1321,10 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>33.759</v>
+        <v>34.264000000000003</v>
       </c>
       <c r="I3">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="J3">
         <v>16</v>
@@ -1341,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1353,10 +1359,10 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>25.213999999999999</v>
+        <v>25.564</v>
       </c>
       <c r="I4">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="J4">
         <v>24</v>
@@ -1391,10 +1397,10 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>27.707999999999998</v>
+        <v>28.056000000000001</v>
       </c>
       <c r="I5">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -1417,7 +1423,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1429,13 +1435,13 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <v>27.216000000000001</v>
+        <v>27.413</v>
       </c>
       <c r="I6">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -1455,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1467,10 +1473,10 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>18.600000000000001</v>
+        <v>18.925000000000001</v>
       </c>
       <c r="I7">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="J7">
         <v>22</v>
@@ -1493,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -1505,10 +1511,10 @@
         <v>53</v>
       </c>
       <c r="H8">
-        <v>40.222999999999999</v>
+        <v>40.915999999999997</v>
       </c>
       <c r="I8">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="J8">
         <v>18</v>
@@ -1543,10 +1549,10 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>18.123999999999999</v>
+        <v>18.710999999999999</v>
       </c>
       <c r="I9">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -1569,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1581,10 +1587,10 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>19.963999999999999</v>
+        <v>20.419</v>
       </c>
       <c r="I10">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1607,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1619,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>19.266999999999999</v>
+        <v>19.844999999999999</v>
       </c>
       <c r="I11">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
         <v>72</v>
@@ -1645,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1657,10 +1663,10 @@
         <v>77</v>
       </c>
       <c r="H12">
-        <v>36.587000000000003</v>
+        <v>38.317</v>
       </c>
       <c r="I12">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="J12">
         <v>24</v>
@@ -1669,12 +1675,12 @@
         <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1683,36 +1689,36 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>23.716000000000001</v>
+        <v>24.338999999999999</v>
       </c>
       <c r="I13">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="J13">
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1724,33 +1730,33 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>14.457000000000001</v>
+        <v>14.827</v>
       </c>
       <c r="I14">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="J14">
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1759,36 +1765,36 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>20.984000000000002</v>
+        <v>21.172999999999998</v>
       </c>
       <c r="I15">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1797,36 +1803,36 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16">
-        <v>15.092000000000001</v>
+        <v>15.356999999999999</v>
       </c>
       <c r="I16">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1835,36 +1841,36 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17">
-        <v>29.507000000000001</v>
+        <v>30.178000000000001</v>
       </c>
       <c r="I17">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="J17">
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1873,36 +1879,36 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H18">
-        <v>19.623999999999999</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="I18">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J18">
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1914,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19">
         <v>0</v>
